--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -15,13 +15,13 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="8" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="29">
   <si>
     <t>Simple</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Npgsql</t>
   </si>
   <si>
-    <t>Revenj Postgres</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -112,6 +109,12 @@
       </rPr>
       <t>Unlicensed version. Please register @ templater.info</t>
     </r>
+  </si>
+  <si>
+    <t>Revenj</t>
+  </si>
+  <si>
+    <t>Entity Framework</t>
   </si>
 </sst>
 </file>
@@ -215,78 +218,62 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="6"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="7"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="8"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="9"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="10"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="11"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -306,7 +293,47 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="13"/>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent2"/>
@@ -314,6 +341,26 @@
           <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent2">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent4">
                 <a:shade val="50000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -409,31 +456,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1127</c:v>
+                  <c:v>1160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1613</c:v>
+                  <c:v>1612</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5224</c:v>
+                  <c:v>4933</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5512</c:v>
+                  <c:v>5399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1103</c:v>
+                  <c:v>1080</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2652</c:v>
+                  <c:v>2636</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>773</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>497</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>739</c:v>
+                  <c:v>686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -448,7 +495,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Revenj Postgres</c:v>
+                  <c:v>Revenj</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -522,31 +569,144 @@
                   <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5023</c:v>
+                  <c:v>4978</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4986</c:v>
+                  <c:v>4914</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>417</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1487</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1081</c:v>
+                  <c:v>1064</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>728</c:v>
+                  <c:v>712</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>469</c:v>
+                  <c:v>497</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>694</c:v>
+                  <c:v>687</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Simple!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Entity Framework</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Simple!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Simple!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13345</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1187</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2721</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4968</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -561,11 +721,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="101673216"/>
-        <c:axId val="138088448"/>
+        <c:axId val="84563072"/>
+        <c:axId val="84564608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101673216"/>
+        <c:axId val="84563072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -574,7 +734,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138088448"/>
+        <c:crossAx val="84564608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -582,7 +742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138088448"/>
+        <c:axId val="84564608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -613,7 +773,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101673216"/>
+        <c:crossAx val="84563072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -910,6 +1070,32 @@
         <c:idx val="36"/>
         <c:spPr>
           <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
@@ -927,7 +1113,76 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="37"/>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="44"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent2"/>
@@ -947,7 +1202,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="38"/>
+        <c:idx val="45"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent6"/>
@@ -955,6 +1210,32 @@
           <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="46"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="47"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent4">
                 <a:shade val="50000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -1116,31 +1397,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1294</c:v>
+                  <c:v>1306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1477</c:v>
+                  <c:v>1490</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1120</c:v>
+                  <c:v>1256</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1441</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3930</c:v>
+                  <c:v>3908</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3133</c:v>
+                  <c:v>3158</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3793</c:v>
+                  <c:v>3859</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2827</c:v>
+                  <c:v>2831</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2195</c:v>
+                  <c:v>2205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1155,7 +1436,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Revenj Postgres - NoSQL</c:v>
+                  <c:v>Revenj - NoSQL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1238,13 +1519,13 @@
                   <c:v>991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>950</c:v>
+                  <c:v>995</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>769</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1316</c:v>
+                  <c:v>1325</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1473</c:v>
@@ -1253,7 +1534,7 @@
                   <c:v>957</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>941</c:v>
+                  <c:v>961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1268,7 +1549,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Revenj Postgres - Relational</c:v>
+                  <c:v>Revenj - Relational</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1372,6 +1653,185 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Standard!$F$1:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Entity Framework - NoSQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Standard!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Standard!$F$4:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Standard!$G$1:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Entity Framework - Relational</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Standard!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Standard!$G$4:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2454</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12269</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2686</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7181</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1381,11 +1841,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="147514112"/>
-        <c:axId val="147515648"/>
+        <c:axId val="84792064"/>
+        <c:axId val="84793600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147514112"/>
+        <c:axId val="84792064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,7 +1854,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147515648"/>
+        <c:crossAx val="84793600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1402,7 +1862,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147515648"/>
+        <c:axId val="84793600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1433,7 +1893,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147514112"/>
+        <c:crossAx val="84792064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1862,6 +2322,32 @@
         <c:idx val="58"/>
         <c:spPr>
           <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="59"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="60"/>
+        <c:spPr>
+          <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
@@ -1879,7 +2365,73 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="59"/>
+        <c:idx val="61"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="62"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="63"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="64"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="65"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent2"/>
@@ -1899,7 +2451,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="60"/>
+        <c:idx val="66"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent6"/>
@@ -1907,6 +2459,32 @@
           <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="67"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="68"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent4">
                 <a:shade val="50000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -2068,31 +2646,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>36206</c:v>
+                  <c:v>35410</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44207</c:v>
+                  <c:v>46748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9791</c:v>
+                  <c:v>12673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12093</c:v>
+                  <c:v>13186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72376</c:v>
+                  <c:v>70935</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47318</c:v>
+                  <c:v>51564</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>101261</c:v>
+                  <c:v>106610</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86261</c:v>
+                  <c:v>113597</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19787</c:v>
+                  <c:v>19171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2107,7 +2685,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Revenj Postgres - NoSQL</c:v>
+                  <c:v>Revenj - NoSQL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2184,7 +2762,7 @@
                   <c:v>605</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>703</c:v>
+                  <c:v>652</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17217</c:v>
@@ -2205,7 +2783,7 @@
                   <c:v>31446</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11758</c:v>
+                  <c:v>10649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2220,7 +2798,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Revenj Postgres - Relational</c:v>
+                  <c:v>Revenj - Relational</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2288,7 +2866,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7110</c:v>
+                  <c:v>7006</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>695</c:v>
@@ -2319,6 +2897,185 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>15981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Complex!$F$1:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Entity Framework - NoSQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Complex!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Complex!$F$4:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Complex!$G$1:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Entity Framework - Relational</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Complex!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Complex!$G$4:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>93677</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36186</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5838</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>298963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23924</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>281792</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>202582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>650882</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>563322</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>141763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2333,11 +3090,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="148728832"/>
-        <c:axId val="148755200"/>
+        <c:axId val="85275008"/>
+        <c:axId val="85276544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148728832"/>
+        <c:axId val="85275008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2346,7 +3103,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148755200"/>
+        <c:crossAx val="85276544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2354,7 +3111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148755200"/>
+        <c:axId val="85276544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2385,7 +3142,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148728832"/>
+        <c:crossAx val="85275008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2459,14 +3216,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>142873</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2500,10 +3257,10 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>981074</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2528,7 +3285,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Rikard Pavelic" refreshedDate="42071.870035763888" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="22">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Rikard Pavelic" refreshedDate="42081.82422962963" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="33">
   <cacheSource type="worksheet">
     <worksheetSource name="Table3"/>
   </cacheSource>
@@ -2546,32 +3303,36 @@
         <s v="Find many (x2.000)"/>
         <s v="Find one (x5.000)"/>
         <s v="Report (x1.000)"/>
+        <s v="Find many (x10.000)" u="1"/>
         <s v="Search subset (x5.000)" u="1"/>
-        <s v="Find many (x10.000)" u="1"/>
+        <s v="Find one (x10.000)" u="1"/>
         <s v="Query all (x1.000)" u="1"/>
-        <s v="Find one (x10.000)" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Simple" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="123" maxValue="5512"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="123" maxValue="17136"/>
     </cacheField>
     <cacheField name="Standard objects" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="52" maxValue="1473"/>
     </cacheField>
     <cacheField name="Standard relations" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="102" maxValue="3930"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="102" maxValue="21160"/>
     </cacheField>
     <cacheField name="Complex objects" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="605" maxValue="37827"/>
     </cacheField>
     <cacheField name="Complex relations" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="695" maxValue="101261"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="695" maxValue="650882"/>
     </cacheField>
     <cacheField name="Target" numFmtId="0">
-      <sharedItems count="3">
+      <sharedItems count="7">
         <s v="Npgsql"/>
-        <s v="Revenj Postgres"/>
+        <s v="Revenj"/>
+        <s v="Entity Framework"/>
+        <s v="Revenj Postgres" u="1"/>
+        <s v="MsSql ADO.NET" u="1"/>
         <s v="[[description]]" u="1"/>
+        <s v="EF Postgres" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -2584,59 +3345,59 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="22">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="33">
   <r>
     <x v="0"/>
-    <n v="1127"/>
+    <n v="1160"/>
     <m/>
-    <n v="1294"/>
+    <n v="1306"/>
     <m/>
-    <n v="36206"/>
+    <n v="35410"/>
     <x v="0"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="1613"/>
+    <n v="1612"/>
     <m/>
-    <n v="1477"/>
+    <n v="1490"/>
     <m/>
-    <n v="44207"/>
+    <n v="46748"/>
     <x v="0"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="5224"/>
+    <n v="4933"/>
     <m/>
-    <n v="1120"/>
+    <n v="1256"/>
     <m/>
-    <n v="9791"/>
+    <n v="12673"/>
     <x v="0"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="5512"/>
+    <n v="5399"/>
     <m/>
-    <n v="1441"/>
+    <n v="1480"/>
     <m/>
-    <n v="12093"/>
+    <n v="13186"/>
     <x v="0"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="2652"/>
+    <n v="2636"/>
     <m/>
-    <n v="3133"/>
+    <n v="3158"/>
     <m/>
-    <n v="47318"/>
+    <n v="51564"/>
     <x v="0"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="773"/>
+    <n v="805"/>
     <m/>
-    <n v="3793"/>
+    <n v="3859"/>
     <m/>
-    <n v="101261"/>
+    <n v="106610"/>
     <x v="0"/>
   </r>
   <r>
@@ -2659,29 +3420,29 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="497"/>
+    <n v="506"/>
     <m/>
-    <n v="2827"/>
+    <n v="2831"/>
     <m/>
-    <n v="86261"/>
+    <n v="113597"/>
     <x v="0"/>
   </r>
   <r>
     <x v="9"/>
-    <n v="739"/>
+    <n v="686"/>
     <m/>
-    <n v="2195"/>
+    <n v="2205"/>
     <m/>
-    <n v="19787"/>
+    <n v="19171"/>
     <x v="0"/>
   </r>
   <r>
     <x v="10"/>
-    <n v="1103"/>
+    <n v="1080"/>
     <m/>
-    <n v="3930"/>
+    <n v="3908"/>
     <m/>
-    <n v="72376"/>
+    <n v="70935"/>
     <x v="0"/>
   </r>
   <r>
@@ -2690,7 +3451,7 @@
     <n v="52"/>
     <n v="213"/>
     <n v="2193"/>
-    <n v="7110"/>
+    <n v="7006"/>
     <x v="1"/>
   </r>
   <r>
@@ -2704,7 +3465,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="5023"/>
+    <n v="4978"/>
     <n v="503"/>
     <n v="1038"/>
     <n v="605"/>
@@ -2713,10 +3474,10 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="4986"/>
+    <n v="4914"/>
     <n v="422"/>
     <n v="849"/>
-    <n v="703"/>
+    <n v="652"/>
     <n v="3625"/>
     <x v="1"/>
   </r>
@@ -2731,7 +3492,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="728"/>
+    <n v="712"/>
     <n v="1473"/>
     <n v="2597"/>
     <n v="37827"/>
@@ -2749,8 +3510,8 @@
   </r>
   <r>
     <x v="7"/>
-    <n v="1081"/>
-    <n v="1316"/>
+    <n v="1064"/>
+    <n v="1325"/>
     <n v="1693"/>
     <n v="12877"/>
     <n v="19017"/>
@@ -2758,7 +3519,7 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="469"/>
+    <n v="497"/>
     <n v="957"/>
     <n v="1723"/>
     <n v="31446"/>
@@ -2767,42 +3528,141 @@
   </r>
   <r>
     <x v="9"/>
-    <n v="694"/>
-    <n v="941"/>
+    <n v="687"/>
+    <n v="961"/>
     <n v="1751"/>
-    <n v="11758"/>
+    <n v="10649"/>
     <n v="15981"/>
     <x v="1"/>
   </r>
   <r>
     <x v="10"/>
-    <n v="417"/>
-    <n v="950"/>
+    <n v="410"/>
+    <n v="995"/>
     <n v="1708"/>
     <n v="32380"/>
     <n v="44228"/>
     <x v="1"/>
   </r>
+  <r>
+    <x v="0"/>
+    <n v="3119"/>
+    <m/>
+    <n v="2100"/>
+    <m/>
+    <n v="93677"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2788"/>
+    <m/>
+    <n v="836"/>
+    <m/>
+    <n v="36186"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="12331"/>
+    <m/>
+    <n v="2454"/>
+    <m/>
+    <n v="20147"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="13345"/>
+    <m/>
+    <n v="1588"/>
+    <m/>
+    <n v="5838"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2288"/>
+    <m/>
+    <n v="12269"/>
+    <m/>
+    <n v="281792"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2721"/>
+    <m/>
+    <n v="7181"/>
+    <m/>
+    <n v="650882"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2305"/>
+    <m/>
+    <n v="12315"/>
+    <m/>
+    <n v="298963"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1187"/>
+    <m/>
+    <n v="2686"/>
+    <m/>
+    <n v="202582"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="4968"/>
+    <m/>
+    <n v="16006"/>
+    <m/>
+    <n v="563322"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="9384"/>
+    <m/>
+    <n v="15297"/>
+    <m/>
+    <n v="141763"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="17136"/>
+    <m/>
+    <n v="21160"/>
+    <m/>
+    <n v="23924"/>
+    <x v="2"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:E14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
       <items count="16">
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
         <item x="2"/>
         <item x="3"/>
-        <item m="1" x="13"/>
+        <item m="1" x="14"/>
         <item x="6"/>
         <item x="10"/>
         <item x="4"/>
-        <item m="1" x="11"/>
+        <item m="1" x="12"/>
         <item x="7"/>
         <item x="5"/>
         <item x="8"/>
@@ -2816,10 +3676,14 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item m="1" x="2"/>
+      <items count="8">
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
         <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="6"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2868,12 +3732,15 @@
   <colFields count="1">
     <field x="6"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="4">
     <i>
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -2882,7 +3749,7 @@
   <dataFields count="1">
     <dataField name="Relational" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="14">
+  <chartFormats count="18">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -3014,6 +3881,54 @@
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
@@ -3029,22 +3944,22 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A1:G15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A1:I15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
       <items count="16">
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
         <item x="2"/>
         <item x="3"/>
-        <item m="1" x="13"/>
+        <item m="1" x="14"/>
         <item x="6"/>
         <item x="10"/>
         <item x="4"/>
-        <item m="1" x="11"/>
+        <item m="1" x="12"/>
         <item x="7"/>
         <item x="5"/>
         <item x="8"/>
@@ -3058,10 +3973,14 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item m="1" x="2"/>
+      <items count="8">
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
         <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="6"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3111,16 +4030,23 @@
     <field x="6"/>
     <field x="-2"/>
   </colFields>
-  <colItems count="6">
+  <colItems count="8">
     <i>
-      <x v="1"/>
+      <x v="2"/>
       <x/>
     </i>
     <i r="1" i="1">
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="5"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="6"/>
       <x/>
     </i>
     <i r="1" i="1">
@@ -3137,7 +4063,7 @@
     <dataField name="NoSQL" fld="2" baseField="0" baseItem="0"/>
     <dataField name="Relational" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="28">
+  <chartFormats count="37">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -3437,6 +4363,117 @@
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="39" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="40" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="41" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="42" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="43">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="44" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="45" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="46" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="47" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
@@ -3452,22 +4489,22 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A1:G15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A1:I15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
       <items count="16">
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
         <item x="2"/>
         <item x="3"/>
-        <item m="1" x="13"/>
+        <item m="1" x="14"/>
         <item x="6"/>
         <item x="10"/>
         <item x="4"/>
-        <item m="1" x="11"/>
+        <item m="1" x="12"/>
         <item x="7"/>
         <item x="5"/>
         <item x="8"/>
@@ -3481,10 +4518,14 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item m="1" x="2"/>
+      <items count="8">
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
         <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="6"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3534,16 +4575,23 @@
     <field x="6"/>
     <field x="-2"/>
   </colFields>
-  <colItems count="6">
+  <colItems count="8">
     <i>
-      <x v="1"/>
+      <x v="2"/>
       <x/>
     </i>
     <i r="1" i="1">
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="5"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="6"/>
       <x/>
     </i>
     <i r="1" i="1">
@@ -3560,7 +4608,7 @@
     <dataField name="NoSQL" fld="4" baseField="0" baseItem="0"/>
     <dataField name="Relational" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="28">
+  <chartFormats count="36">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -3827,6 +4875,102 @@
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="61" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="62" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="63" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="64" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="65" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="66" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="67" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="68" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
@@ -3842,8 +4986,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:G23" totalsRowShown="0">
-  <autoFilter ref="A1:G23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:G34" totalsRowShown="0">
+  <autoFilter ref="A1:G34"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Bench type"/>
     <tableColumn id="2" name="Simple"/>
@@ -4152,7 +5296,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4162,11 +5306,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4207,13 +5349,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1127</v>
+        <v>1160</v>
       </c>
       <c r="D2">
-        <v>1294</v>
+        <v>1306</v>
       </c>
       <c r="F2">
-        <v>36206</v>
+        <v>35410</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -4224,13 +5366,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D3">
-        <v>1477</v>
+        <v>1490</v>
       </c>
       <c r="F3">
-        <v>44207</v>
+        <v>46748</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
@@ -4241,13 +5383,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>5224</v>
+        <v>4933</v>
       </c>
       <c r="D4">
-        <v>1120</v>
+        <v>1256</v>
       </c>
       <c r="F4">
-        <v>9791</v>
+        <v>12673</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
@@ -4258,13 +5400,13 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>5512</v>
+        <v>5399</v>
       </c>
       <c r="D5">
-        <v>1441</v>
+        <v>1480</v>
       </c>
       <c r="F5">
-        <v>12093</v>
+        <v>13186</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
@@ -4275,13 +5417,13 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>2652</v>
+        <v>2636</v>
       </c>
       <c r="D6">
-        <v>3133</v>
+        <v>3158</v>
       </c>
       <c r="F6">
-        <v>47318</v>
+        <v>51564</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -4292,13 +5434,13 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>773</v>
+        <v>805</v>
       </c>
       <c r="D7">
-        <v>3793</v>
+        <v>3859</v>
       </c>
       <c r="F7">
-        <v>101261</v>
+        <v>106610</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
@@ -4325,13 +5467,13 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="D10">
-        <v>2827</v>
+        <v>2831</v>
       </c>
       <c r="F10">
-        <v>86261</v>
+        <v>113597</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
@@ -4342,13 +5484,13 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>739</v>
+        <v>686</v>
       </c>
       <c r="D11">
-        <v>2195</v>
+        <v>2205</v>
       </c>
       <c r="F11">
-        <v>19787</v>
+        <v>19171</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
@@ -4359,13 +5501,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1103</v>
+        <v>1080</v>
       </c>
       <c r="D12">
-        <v>3930</v>
+        <v>3908</v>
       </c>
       <c r="F12">
-        <v>72376</v>
+        <v>70935</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
@@ -4388,10 +5530,10 @@
         <v>2193</v>
       </c>
       <c r="F13">
-        <v>7110</v>
+        <v>7006</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -4414,7 +5556,7 @@
         <v>695</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4422,7 +5564,7 @@
         <v>7</v>
       </c>
       <c r="B15">
-        <v>5023</v>
+        <v>4978</v>
       </c>
       <c r="C15">
         <v>503</v>
@@ -4437,7 +5579,7 @@
         <v>3213</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4445,7 +5587,7 @@
         <v>8</v>
       </c>
       <c r="B16">
-        <v>4986</v>
+        <v>4914</v>
       </c>
       <c r="C16">
         <v>422</v>
@@ -4454,13 +5596,13 @@
         <v>849</v>
       </c>
       <c r="E16">
-        <v>703</v>
+        <v>652</v>
       </c>
       <c r="F16">
         <v>3625</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4483,7 +5625,7 @@
         <v>25812</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4491,7 +5633,7 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="C18">
         <v>1473</v>
@@ -4506,7 +5648,7 @@
         <v>58402</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4529,7 +5671,7 @@
         <v>26094</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4537,10 +5679,10 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>1081</v>
+        <v>1064</v>
       </c>
       <c r="C20">
-        <v>1316</v>
+        <v>1325</v>
       </c>
       <c r="D20">
         <v>1693</v>
@@ -4552,7 +5694,7 @@
         <v>19017</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4560,7 +5702,7 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>469</v>
+        <v>497</v>
       </c>
       <c r="C21">
         <v>957</v>
@@ -4575,7 +5717,7 @@
         <v>48448</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4583,22 +5725,22 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="C22">
-        <v>941</v>
+        <v>961</v>
       </c>
       <c r="D22">
         <v>1751</v>
       </c>
       <c r="E22">
-        <v>11758</v>
+        <v>10649</v>
       </c>
       <c r="F22">
         <v>15981</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4606,10 +5748,10 @@
         <v>11</v>
       </c>
       <c r="B23">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C23">
-        <v>950</v>
+        <v>995</v>
       </c>
       <c r="D23">
         <v>1708</v>
@@ -4621,7 +5763,194 @@
         <v>44228</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>3119</v>
+      </c>
+      <c r="D24">
+        <v>2100</v>
+      </c>
+      <c r="F24">
+        <v>93677</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>2788</v>
+      </c>
+      <c r="D25">
+        <v>836</v>
+      </c>
+      <c r="F25">
+        <v>36186</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>12331</v>
+      </c>
+      <c r="D26">
+        <v>2454</v>
+      </c>
+      <c r="F26">
+        <v>20147</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>13345</v>
+      </c>
+      <c r="D27">
+        <v>1588</v>
+      </c>
+      <c r="F27">
+        <v>5838</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>2288</v>
+      </c>
+      <c r="D28">
+        <v>12269</v>
+      </c>
+      <c r="F28">
+        <v>281792</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>2721</v>
+      </c>
+      <c r="D29">
+        <v>7181</v>
+      </c>
+      <c r="F29">
+        <v>650882</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>2305</v>
+      </c>
+      <c r="D30">
+        <v>12315</v>
+      </c>
+      <c r="F30">
+        <v>298963</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>1187</v>
+      </c>
+      <c r="D31">
+        <v>2686</v>
+      </c>
+      <c r="F31">
+        <v>202582</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>4968</v>
+      </c>
+      <c r="D32">
+        <v>16006</v>
+      </c>
+      <c r="F32">
+        <v>563322</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>9384</v>
+      </c>
+      <c r="D33">
+        <v>15297</v>
+      </c>
+      <c r="F33">
+        <v>141763</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>17136</v>
+      </c>
+      <c r="D34">
+        <v>21160</v>
+      </c>
+      <c r="F34">
+        <v>23924</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4635,20 +5964,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -4669,7 +5997,7 @@
     <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4677,7 +6005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4685,69 +6013,84 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <v>1127</v>
+        <v>1160</v>
       </c>
       <c r="C3" s="3">
         <v>123</v>
       </c>
       <c r="D3" s="3">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3119</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C4" s="3">
         <v>224</v>
       </c>
       <c r="D4" s="3">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2788</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3">
-        <v>5224</v>
+        <v>4933</v>
       </c>
       <c r="C5" s="3">
-        <v>5023</v>
+        <v>4978</v>
       </c>
       <c r="D5" s="3">
-        <v>10247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12331</v>
+      </c>
+      <c r="E5" s="3">
+        <v>22242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3">
-        <v>5512</v>
+        <v>5399</v>
       </c>
       <c r="C6" s="3">
-        <v>4986</v>
+        <v>4914</v>
       </c>
       <c r="D6" s="3">
-        <v>10498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13345</v>
+      </c>
+      <c r="E6" s="3">
+        <v>23658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -4756,103 +6099,127 @@
         <v>1983</v>
       </c>
       <c r="D7" s="3">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2305</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3">
-        <v>1103</v>
+        <v>1080</v>
       </c>
       <c r="C8" s="3">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D8" s="3">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17136</v>
+      </c>
+      <c r="E8" s="3">
+        <v>18626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3">
-        <v>2652</v>
+        <v>2636</v>
       </c>
       <c r="C9" s="3">
         <v>1487</v>
       </c>
       <c r="D9" s="3">
-        <v>4139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2288</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
-        <v>1081</v>
+        <v>1064</v>
       </c>
       <c r="D10" s="3">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1187</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="3">
-        <v>773</v>
+        <v>805</v>
       </c>
       <c r="C11" s="3">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="D11" s="3">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2721</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="3">
+        <v>506</v>
+      </c>
+      <c r="C12" s="3">
         <v>497</v>
       </c>
-      <c r="C12" s="3">
-        <v>469</v>
-      </c>
       <c r="D12" s="3">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4968</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="3">
-        <v>739</v>
+        <v>686</v>
       </c>
       <c r="C13" s="3">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="D13" s="3">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9384</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3">
-        <v>19240</v>
+        <v>18817</v>
       </c>
       <c r="C14" s="3">
-        <v>17215</v>
+        <v>17079</v>
       </c>
       <c r="D14" s="3">
-        <v>36455</v>
+        <v>71572</v>
+      </c>
+      <c r="E14" s="3">
+        <v>107468</v>
       </c>
     </row>
   </sheetData>
@@ -4863,10 +6230,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4874,14 +6241,14 @@
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -4898,26 +6265,29 @@
     <col min="25" max="25" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -4933,14 +6303,20 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
-        <v>1294</v>
+        <v>1306</v>
       </c>
       <c r="D4" s="3">
         <v>52</v>
@@ -4948,20 +6324,24 @@
       <c r="E4" s="3">
         <v>213</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H4" s="3">
         <v>52</v>
       </c>
-      <c r="G4" s="3">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="3">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
-        <v>1477</v>
+        <v>1490</v>
       </c>
       <c r="D5" s="3">
         <v>73</v>
@@ -4969,20 +6349,24 @@
       <c r="E5" s="3">
         <v>102</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>836</v>
+      </c>
+      <c r="H5" s="3">
         <v>73</v>
       </c>
-      <c r="G5" s="3">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="3">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
-        <v>1120</v>
+        <v>1256</v>
       </c>
       <c r="D6" s="3">
         <v>503</v>
@@ -4990,20 +6374,24 @@
       <c r="E6" s="3">
         <v>1038</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>2454</v>
+      </c>
+      <c r="H6" s="3">
         <v>503</v>
       </c>
-      <c r="G6" s="3">
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="3">
+        <v>4748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
-        <v>1441</v>
+        <v>1480</v>
       </c>
       <c r="D7" s="3">
         <v>422</v>
@@ -5011,14 +6399,18 @@
       <c r="E7" s="3">
         <v>849</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>1588</v>
+      </c>
+      <c r="H7" s="3">
         <v>422</v>
       </c>
-      <c r="G7" s="3">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="3">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -5030,41 +6422,49 @@
       <c r="E8" s="3">
         <v>2077</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>12315</v>
+      </c>
+      <c r="H8" s="3">
         <v>991</v>
       </c>
-      <c r="G8" s="3">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" s="3">
+        <v>14392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
-        <v>3930</v>
+        <v>3908</v>
       </c>
       <c r="D9" s="3">
-        <v>950</v>
+        <v>995</v>
       </c>
       <c r="E9" s="3">
         <v>1708</v>
       </c>
-      <c r="F9" s="3">
-        <v>950</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3">
-        <v>5638</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21160</v>
+      </c>
+      <c r="H9" s="3">
+        <v>995</v>
+      </c>
+      <c r="I9" s="3">
+        <v>26776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
-        <v>3133</v>
+        <v>3158</v>
       </c>
       <c r="D10" s="3">
         <v>769</v>
@@ -5072,39 +6472,47 @@
       <c r="E10" s="3">
         <v>1995</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>12269</v>
+      </c>
+      <c r="H10" s="3">
         <v>769</v>
       </c>
-      <c r="G10" s="3">
-        <v>5128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" s="3">
+        <v>17422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
-        <v>1316</v>
+        <v>1325</v>
       </c>
       <c r="E11" s="3">
         <v>1693</v>
       </c>
-      <c r="F11" s="3">
-        <v>1316</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2686</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1325</v>
+      </c>
+      <c r="I11" s="3">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
-        <v>3793</v>
+        <v>3859</v>
       </c>
       <c r="D12" s="3">
         <v>1473</v>
@@ -5112,20 +6520,24 @@
       <c r="E12" s="3">
         <v>2597</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <v>7181</v>
+      </c>
+      <c r="H12" s="3">
         <v>1473</v>
       </c>
-      <c r="G12" s="3">
-        <v>6390</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" s="3">
+        <v>13637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">
-        <v>2827</v>
+        <v>2831</v>
       </c>
       <c r="D13" s="3">
         <v>957</v>
@@ -5133,53 +6545,65 @@
       <c r="E13" s="3">
         <v>1723</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
+        <v>16006</v>
+      </c>
+      <c r="H13" s="3">
         <v>957</v>
       </c>
-      <c r="G13" s="3">
-        <v>4550</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" s="3">
+        <v>20560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3">
-        <v>2195</v>
+        <v>2205</v>
       </c>
       <c r="D14" s="3">
-        <v>941</v>
+        <v>961</v>
       </c>
       <c r="E14" s="3">
         <v>1751</v>
       </c>
-      <c r="F14" s="3">
-        <v>941</v>
-      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="3">
-        <v>3946</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15297</v>
+      </c>
+      <c r="H14" s="3">
+        <v>961</v>
+      </c>
+      <c r="I14" s="3">
+        <v>19253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3">
-        <v>21210</v>
+        <v>21493</v>
       </c>
       <c r="D15" s="3">
-        <v>8447</v>
+        <v>8521</v>
       </c>
       <c r="E15" s="3">
         <v>15746</v>
       </c>
-      <c r="F15" s="3">
-        <v>8447</v>
-      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3">
-        <v>36956</v>
+        <v>93892</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8521</v>
+      </c>
+      <c r="I15" s="3">
+        <v>131131</v>
       </c>
     </row>
   </sheetData>
@@ -5190,10 +6614,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5201,14 +6625,14 @@
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -5225,26 +6649,29 @@
     <col min="25" max="25" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -5260,35 +6687,45 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
-        <v>36206</v>
+        <v>35410</v>
       </c>
       <c r="D4" s="3">
         <v>2193</v>
       </c>
       <c r="E4" s="3">
-        <v>7110</v>
-      </c>
-      <c r="F4" s="3">
+        <v>7006</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>93677</v>
+      </c>
+      <c r="H4" s="3">
         <v>2193</v>
       </c>
-      <c r="G4" s="3">
-        <v>43316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="3">
+        <v>136093</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
-        <v>44207</v>
+        <v>46748</v>
       </c>
       <c r="D5" s="3">
         <v>3051</v>
@@ -5296,20 +6733,24 @@
       <c r="E5" s="3">
         <v>695</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>36186</v>
+      </c>
+      <c r="H5" s="3">
         <v>3051</v>
       </c>
-      <c r="G5" s="3">
-        <v>44902</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="3">
+        <v>83629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
-        <v>9791</v>
+        <v>12673</v>
       </c>
       <c r="D6" s="3">
         <v>605</v>
@@ -5317,35 +6758,43 @@
       <c r="E6" s="3">
         <v>3213</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>20147</v>
+      </c>
+      <c r="H6" s="3">
         <v>605</v>
       </c>
-      <c r="G6" s="3">
-        <v>13004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="3">
+        <v>36033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
-        <v>12093</v>
+        <v>13186</v>
       </c>
       <c r="D7" s="3">
-        <v>703</v>
+        <v>652</v>
       </c>
       <c r="E7" s="3">
         <v>3625</v>
       </c>
-      <c r="F7" s="3">
-        <v>703</v>
-      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3">
-        <v>15718</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5838</v>
+      </c>
+      <c r="H7" s="3">
+        <v>652</v>
+      </c>
+      <c r="I7" s="3">
+        <v>22649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -5357,20 +6806,24 @@
       <c r="E8" s="3">
         <v>26094</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>298963</v>
+      </c>
+      <c r="H8" s="3">
         <v>17217</v>
       </c>
-      <c r="G8" s="3">
-        <v>26094</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" s="3">
+        <v>325057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
-        <v>72376</v>
+        <v>70935</v>
       </c>
       <c r="D9" s="3">
         <v>32380</v>
@@ -5378,20 +6831,24 @@
       <c r="E9" s="3">
         <v>44228</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>23924</v>
+      </c>
+      <c r="H9" s="3">
         <v>32380</v>
       </c>
-      <c r="G9" s="3">
-        <v>116604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" s="3">
+        <v>139087</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
-        <v>47318</v>
+        <v>51564</v>
       </c>
       <c r="D10" s="3">
         <v>16973</v>
@@ -5399,14 +6856,18 @@
       <c r="E10" s="3">
         <v>25812</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>281792</v>
+      </c>
+      <c r="H10" s="3">
         <v>16973</v>
       </c>
-      <c r="G10" s="3">
-        <v>73130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" s="3">
+        <v>359168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -5418,20 +6879,24 @@
       <c r="E11" s="3">
         <v>19017</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
+        <v>202582</v>
+      </c>
+      <c r="H11" s="3">
         <v>12877</v>
       </c>
-      <c r="G11" s="3">
-        <v>19017</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" s="3">
+        <v>221599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
-        <v>101261</v>
+        <v>106610</v>
       </c>
       <c r="D12" s="3">
         <v>37827</v>
@@ -5439,20 +6904,24 @@
       <c r="E12" s="3">
         <v>58402</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <v>650882</v>
+      </c>
+      <c r="H12" s="3">
         <v>37827</v>
       </c>
-      <c r="G12" s="3">
-        <v>159663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" s="3">
+        <v>815894</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">
-        <v>86261</v>
+        <v>113597</v>
       </c>
       <c r="D13" s="3">
         <v>31446</v>
@@ -5460,53 +6929,65 @@
       <c r="E13" s="3">
         <v>48448</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
+        <v>563322</v>
+      </c>
+      <c r="H13" s="3">
         <v>31446</v>
       </c>
-      <c r="G13" s="3">
-        <v>134709</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" s="3">
+        <v>725367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3">
-        <v>19787</v>
+        <v>19171</v>
       </c>
       <c r="D14" s="3">
-        <v>11758</v>
+        <v>10649</v>
       </c>
       <c r="E14" s="3">
         <v>15981</v>
       </c>
-      <c r="F14" s="3">
-        <v>11758</v>
-      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="3">
-        <v>35768</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>141763</v>
+      </c>
+      <c r="H14" s="3">
+        <v>10649</v>
+      </c>
+      <c r="I14" s="3">
+        <v>176915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3">
-        <v>429300</v>
+        <v>469894</v>
       </c>
       <c r="D15" s="3">
-        <v>167030</v>
+        <v>165870</v>
       </c>
       <c r="E15" s="3">
-        <v>252625</v>
-      </c>
-      <c r="F15" s="3">
-        <v>167030</v>
-      </c>
+        <v>252521</v>
+      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3">
-        <v>681925</v>
+        <v>2319076</v>
+      </c>
+      <c r="H15" s="3">
+        <v>165870</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3041491</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -15,13 +15,13 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId6"/>
+    <pivotCache cacheId="40" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="33">
   <si>
     <t>Simple</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>Entity Framework</t>
+  </si>
+  <si>
+    <t>JDBC</t>
+  </si>
+  <si>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t>(Multiple Items)</t>
+  </si>
+  <si>
+    <t>Target filter</t>
   </si>
 </sst>
 </file>
@@ -254,120 +266,51 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="12"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="13"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="14"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="15"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent4"/>
-          </a:solidFill>
-          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="16"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="17"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent4"/>
-          </a:solidFill>
-          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
@@ -384,7 +327,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Simple!$B$1:$B$2</c:f>
+              <c:f>Simple!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -393,24 +336,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Simple!$A$3:$A$14</c:f>
+              <c:f>Simple!$A$5:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -451,33 +380,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Simple!$B$3:$B$14</c:f>
+              <c:f>Simple!$B$5:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1160</c:v>
+                  <c:v>1105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1612</c:v>
+                  <c:v>1582</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4933</c:v>
+                  <c:v>4725</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5399</c:v>
+                  <c:v>5141</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1080</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2636</c:v>
+                  <c:v>2607</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>805</c:v>
+                  <c:v>796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>506</c:v>
+                  <c:v>499</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>686</c:v>
@@ -491,7 +420,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Simple!$C$1:$C$2</c:f>
+              <c:f>Simple!$C$3:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -500,24 +429,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Simple!$A$3:$A$14</c:f>
+              <c:f>Simple!$A$5:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -558,7 +473,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Simple!$C$3:$C$14</c:f>
+              <c:f>Simple!$C$5:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -566,19 +481,19 @@
                   <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>224</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4978</c:v>
+                  <c:v>4632</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4914</c:v>
+                  <c:v>4689</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>410</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1487</c:v>
@@ -590,10 +505,10 @@
                   <c:v>712</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>497</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>687</c:v>
+                  <c:v>509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -604,7 +519,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Simple!$D$1:$D$2</c:f>
+              <c:f>Simple!$D$3:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -617,20 +532,11 @@
             <a:solidFill>
               <a:schemeClr val="accent4"/>
             </a:solidFill>
-            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Simple!$A$3:$A$14</c:f>
+              <c:f>Simple!$A$5:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -671,7 +577,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Simple!$D$3:$D$14</c:f>
+              <c:f>Simple!$D$5:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -707,6 +613,104 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>9384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Simple!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JDBC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Simple!$A$5:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Simple!$E$5:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1257</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5338</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1796</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -721,11 +725,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="84563072"/>
-        <c:axId val="84564608"/>
+        <c:axId val="174498560"/>
+        <c:axId val="174500096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84563072"/>
+        <c:axId val="174498560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -734,7 +738,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84564608"/>
+        <c:crossAx val="174500096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -742,7 +746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84564608"/>
+        <c:axId val="174500096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,7 +777,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84563072"/>
+        <c:crossAx val="174498560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1068,20 +1072,6 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="36"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
@@ -1098,15 +1088,6 @@
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
@@ -1114,134 +1095,93 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="39"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="44"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="45"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
-          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="40"/>
+        <c:idx val="46"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent5"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
-          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="41"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="42"/>
+        <c:idx val="47"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="48"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent4"/>
           </a:solidFill>
-          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="43"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="44"/>
+        <c:idx val="49"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="50"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent3"/>
           </a:solidFill>
-          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="45"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="46"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="47"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent4"/>
-          </a:solidFill>
-          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
@@ -1259,7 +1199,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Standard!$B$1:$B$3</c:f>
+              <c:f>Standard!$B$3:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1271,7 +1211,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Standard!$A$4:$A$15</c:f>
+              <c:f>Standard!$A$6:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1312,7 +1252,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Standard!$B$4:$B$15</c:f>
+              <c:f>Standard!$B$6:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1325,7 +1265,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Standard!$C$1:$C$3</c:f>
+              <c:f>Standard!$C$3:$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1338,20 +1278,11 @@
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Standard!$A$4:$A$15</c:f>
+              <c:f>Standard!$A$6:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1392,30 +1323,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Standard!$C$4:$C$15</c:f>
+              <c:f>Standard!$C$6:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1306</c:v>
+                  <c:v>962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1490</c:v>
+                  <c:v>1484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1256</c:v>
+                  <c:v>1136</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1480</c:v>
+                  <c:v>1422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3908</c:v>
+                  <c:v>3773</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3158</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3859</c:v>
+                  <c:v>3786</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2831</c:v>
@@ -1432,7 +1363,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Standard!$D$1:$D$3</c:f>
+              <c:f>Standard!$D$3:$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1443,22 +1374,15 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Standard!$A$4:$A$15</c:f>
+              <c:f>Standard!$A$6:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1499,7 +1423,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Standard!$D$4:$D$15</c:f>
+              <c:f>Standard!$D$6:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1507,10 +1431,10 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>503</c:v>
+                  <c:v>452</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>422</c:v>
@@ -1528,13 +1452,13 @@
                   <c:v>1325</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1473</c:v>
+                  <c:v>1469</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>957</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>961</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,7 +1469,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Standard!$E$1:$E$3</c:f>
+              <c:f>Standard!$E$3:$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1556,22 +1480,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
-            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Standard!$A$4:$A$15</c:f>
+              <c:f>Standard!$A$6:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1612,30 +1527,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Standard!$E$4:$E$15</c:f>
+              <c:f>Standard!$E$6:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>213</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>102</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1038</c:v>
+                  <c:v>964</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2077</c:v>
+                  <c:v>2062</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1708</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1995</c:v>
+                  <c:v>1944</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1693</c:v>
@@ -1647,7 +1562,7 @@
                   <c:v>1723</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1751</c:v>
+                  <c:v>982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1658,11 +1573,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Standard!$F$1:$F$3</c:f>
+              <c:f>Standard!$F$3:$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Entity Framework - NoSQL</c:v>
+                  <c:v>JDBC - NoSQL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1670,7 +1585,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Standard!$A$4:$A$15</c:f>
+              <c:f>Standard!$A$6:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1711,7 +1626,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Standard!$F$4:$F$15</c:f>
+              <c:f>Standard!$F$6:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1724,33 +1639,24 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Standard!$G$1:$G$3</c:f>
+              <c:f>Standard!$G$3:$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Entity Framework - Relational</c:v>
+                  <c:v>JDBC - Relational</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
-            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Standard!$A$4:$A$15</c:f>
+              <c:f>Standard!$A$6:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1791,42 +1697,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Standard!$G$4:$G$15</c:f>
+              <c:f>Standard!$G$6:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2100</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>836</c:v>
+                  <c:v>738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2454</c:v>
+                  <c:v>988</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1588</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12315</c:v>
+                  <c:v>1249</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21160</c:v>
+                  <c:v>4055</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12269</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2686</c:v>
+                  <c:v>2385</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7181</c:v>
+                  <c:v>3602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16006</c:v>
+                  <c:v>2479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15297</c:v>
+                  <c:v>2304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1841,11 +1741,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="84792064"/>
-        <c:axId val="84793600"/>
+        <c:axId val="175333760"/>
+        <c:axId val="175335296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84792064"/>
+        <c:axId val="175333760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1854,7 +1754,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84793600"/>
+        <c:crossAx val="175335296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1862,7 +1762,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84793600"/>
+        <c:axId val="175335296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1893,7 +1793,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84792064"/>
+        <c:crossAx val="175333760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2320,20 +2220,6 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="58"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
@@ -2350,15 +2236,6 @@
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
@@ -2366,132 +2243,89 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="61"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="62"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="63"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="64"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="65"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="66"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="67"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
-          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="62"/>
+        <c:idx val="68"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent5"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
-          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="63"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="64"/>
+        <c:idx val="69"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="70"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent4"/>
           </a:solidFill>
-          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="65"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="66"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="67"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="68"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent4"/>
-          </a:solidFill>
-          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
+        <c:idx val="71"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="72"/>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
@@ -2508,7 +2342,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Complex!$B$1:$B$3</c:f>
+              <c:f>Complex!$B$3:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2520,7 +2354,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Complex!$A$4:$A$15</c:f>
+              <c:f>Complex!$A$6:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2561,7 +2395,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Complex!$B$4:$B$15</c:f>
+              <c:f>Complex!$B$6:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2574,7 +2408,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Complex!$C$1:$C$3</c:f>
+              <c:f>Complex!$C$3:$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2587,20 +2421,11 @@
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Complex!$A$4:$A$15</c:f>
+              <c:f>Complex!$A$6:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2641,7 +2466,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Complex!$C$4:$C$15</c:f>
+              <c:f>Complex!$C$6:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2652,25 +2477,25 @@
                   <c:v>46748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12673</c:v>
+                  <c:v>11180</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13186</c:v>
+                  <c:v>11940</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70935</c:v>
+                  <c:v>66831</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51564</c:v>
+                  <c:v>48698</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>106610</c:v>
+                  <c:v>96020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>113597</c:v>
+                  <c:v>81001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19171</c:v>
+                  <c:v>17899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2681,7 +2506,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Complex!$D$1:$D$3</c:f>
+              <c:f>Complex!$D$3:$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2692,22 +2517,15 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Complex!$A$4:$A$15</c:f>
+              <c:f>Complex!$A$6:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2748,7 +2566,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Complex!$D$4:$D$15</c:f>
+              <c:f>Complex!$D$6:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2756,7 +2574,7 @@
                   <c:v>2193</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3051</c:v>
+                  <c:v>2437</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>605</c:v>
@@ -2771,19 +2589,19 @@
                   <c:v>32380</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16973</c:v>
+                  <c:v>16482</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>12877</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37827</c:v>
+                  <c:v>37437</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>31446</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10649</c:v>
+                  <c:v>9549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2794,7 +2612,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Complex!$E$1:$E$3</c:f>
+              <c:f>Complex!$E$3:$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2805,22 +2623,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
-            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Complex!$A$4:$A$15</c:f>
+              <c:f>Complex!$A$6:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2861,7 +2670,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Complex!$E$4:$E$15</c:f>
+              <c:f>Complex!$E$6:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2875,7 +2684,7 @@
                   <c:v>3213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3625</c:v>
+                  <c:v>3597</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>26094</c:v>
@@ -2884,198 +2693,19 @@
                   <c:v>44228</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25812</c:v>
+                  <c:v>25592</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>19017</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58402</c:v>
+                  <c:v>57687</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>48448</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15981</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Complex!$F$1:$F$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Entity Framework - NoSQL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Complex!$A$4:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Bulk insert</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Bulk update</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop insert (half)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop update (half)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Query all (x100)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Report (x1.000)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Search all (x100)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Query filter (x1.000)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Search subset (x3.000)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Find many (x2.000)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Find one (x5.000)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Complex!$F$4:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Complex!$G$1:$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Entity Framework - Relational</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Complex!$A$4:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Bulk insert</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Bulk update</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop insert (half)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop update (half)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Query all (x100)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Report (x1.000)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Search all (x100)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Query filter (x1.000)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Search subset (x3.000)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Find many (x2.000)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Find one (x5.000)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Complex!$G$4:$G$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>93677</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36186</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20147</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5838</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>298963</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23924</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>281792</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>202582</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>650882</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>563322</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>141763</c:v>
+                  <c:v>15803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3090,11 +2720,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="85275008"/>
-        <c:axId val="85276544"/>
+        <c:axId val="175538176"/>
+        <c:axId val="175539712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85275008"/>
+        <c:axId val="175538176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3103,7 +2733,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85276544"/>
+        <c:crossAx val="175539712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3111,7 +2741,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85276544"/>
+        <c:axId val="175539712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3142,7 +2772,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85275008"/>
+        <c:crossAx val="175538176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3180,15 +2810,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:colOff>142872</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>847724</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>695324</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3215,15 +2845,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142873</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1181101</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3254,13 +2884,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>142872</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>981074</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3285,11 +2915,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Rikard Pavelic" refreshedDate="42081.82422962963" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="33">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Rikard Pavelic" refreshedDate="42151.969164467591" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="44">
   <cacheSource type="worksheet">
     <worksheetSource name="Table3"/>
   </cacheSource>
-  <cacheFields count="7">
+  <cacheFields count="8">
     <cacheField name="Bench type" numFmtId="0">
       <sharedItems count="15">
         <s v="Bulk insert"/>
@@ -3313,26 +2943,36 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="123" maxValue="17136"/>
     </cacheField>
     <cacheField name="Standard objects" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="52" maxValue="1473"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="52" maxValue="1469"/>
     </cacheField>
     <cacheField name="Standard relations" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="102" maxValue="21160"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="95" maxValue="32416"/>
     </cacheField>
     <cacheField name="Complex objects" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="605" maxValue="37827"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="605" maxValue="37437"/>
     </cacheField>
     <cacheField name="Complex relations" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="695" maxValue="650882"/>
     </cacheField>
     <cacheField name="Target" numFmtId="0">
-      <sharedItems count="7">
+      <sharedItems count="9">
         <s v="Npgsql"/>
         <s v="Revenj"/>
         <s v="Entity Framework"/>
+        <s v="JDBC"/>
         <s v="Revenj Postgres" u="1"/>
         <s v="MsSql ADO.NET" u="1"/>
         <s v="[[description]]" u="1"/>
+        <s v="JDBC Postgres" u="1"/>
         <s v="EF Postgres" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Target filter" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Npgsql"/>
+        <s v="Revenj"/>
+        <s v="Entity Framework"/>
+        <s v="JDBC"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -3345,59 +2985,65 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="33">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="44">
   <r>
     <x v="0"/>
-    <n v="1160"/>
-    <m/>
-    <n v="1306"/>
+    <n v="1105"/>
+    <m/>
+    <n v="962"/>
     <m/>
     <n v="35410"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="1612"/>
-    <m/>
-    <n v="1490"/>
+    <n v="1582"/>
+    <m/>
+    <n v="1484"/>
     <m/>
     <n v="46748"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="4933"/>
-    <m/>
-    <n v="1256"/>
-    <m/>
-    <n v="12673"/>
+    <n v="4725"/>
+    <m/>
+    <n v="1136"/>
+    <m/>
+    <n v="11180"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="5399"/>
-    <m/>
-    <n v="1480"/>
-    <m/>
-    <n v="13186"/>
+    <n v="5141"/>
+    <m/>
+    <n v="1422"/>
+    <m/>
+    <n v="11940"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="2636"/>
+    <n v="2607"/>
     <m/>
     <n v="3158"/>
     <m/>
-    <n v="51564"/>
+    <n v="48698"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="805"/>
-    <m/>
-    <n v="3859"/>
-    <m/>
-    <n v="106610"/>
+    <n v="796"/>
+    <m/>
+    <n v="3786"/>
+    <m/>
+    <n v="96020"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -3408,6 +3054,7 @@
     <m/>
     <m/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="7"/>
@@ -3416,15 +3063,17 @@
     <m/>
     <m/>
     <m/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="8"/>
-    <n v="506"/>
+    <n v="499"/>
     <m/>
     <n v="2831"/>
     <m/>
-    <n v="113597"/>
+    <n v="81001"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -3433,79 +3082,88 @@
     <m/>
     <n v="2205"/>
     <m/>
-    <n v="19171"/>
+    <n v="17899"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="10"/>
     <n v="1080"/>
     <m/>
-    <n v="3908"/>
-    <m/>
-    <n v="70935"/>
+    <n v="3773"/>
+    <m/>
+    <n v="66831"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="0"/>
     <n v="123"/>
     <n v="52"/>
-    <n v="213"/>
+    <n v="201"/>
     <n v="2193"/>
     <n v="7006"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="224"/>
-    <n v="73"/>
-    <n v="102"/>
-    <n v="3051"/>
+    <n v="210"/>
+    <n v="65"/>
+    <n v="95"/>
+    <n v="2437"/>
     <n v="695"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="4978"/>
-    <n v="503"/>
-    <n v="1038"/>
+    <n v="4632"/>
+    <n v="452"/>
+    <n v="964"/>
     <n v="605"/>
     <n v="3213"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="4914"/>
+    <n v="4689"/>
     <n v="422"/>
     <n v="849"/>
     <n v="652"/>
-    <n v="3625"/>
+    <n v="3597"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="4"/>
     <n v="1487"/>
     <n v="769"/>
-    <n v="1995"/>
-    <n v="16973"/>
-    <n v="25812"/>
+    <n v="1944"/>
+    <n v="16482"/>
+    <n v="25592"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="5"/>
     <n v="712"/>
-    <n v="1473"/>
+    <n v="1469"/>
     <n v="2597"/>
-    <n v="37827"/>
-    <n v="58402"/>
+    <n v="37437"/>
+    <n v="57687"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="6"/>
     <n v="1983"/>
     <n v="991"/>
-    <n v="2077"/>
+    <n v="2062"/>
     <n v="17217"/>
     <n v="26094"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -3516,33 +3174,37 @@
     <n v="12877"/>
     <n v="19017"/>
     <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="8"/>
-    <n v="497"/>
+    <n v="376"/>
     <n v="957"/>
     <n v="1723"/>
     <n v="31446"/>
     <n v="48448"/>
     <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <n v="687"/>
-    <n v="961"/>
-    <n v="1751"/>
-    <n v="10649"/>
-    <n v="15981"/>
+    <n v="509"/>
+    <n v="750"/>
+    <n v="982"/>
+    <n v="9549"/>
+    <n v="15803"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="10"/>
-    <n v="410"/>
+    <n v="402"/>
     <n v="995"/>
     <n v="1708"/>
     <n v="32380"/>
     <n v="44228"/>
     <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
@@ -3551,6 +3213,7 @@
     <n v="2100"/>
     <m/>
     <n v="93677"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
@@ -3561,6 +3224,7 @@
     <m/>
     <n v="36186"/>
     <x v="2"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -3569,6 +3233,7 @@
     <n v="2454"/>
     <m/>
     <n v="20147"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
@@ -3579,6 +3244,7 @@
     <m/>
     <n v="5838"/>
     <x v="2"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="4"/>
@@ -3587,6 +3253,7 @@
     <n v="12269"/>
     <m/>
     <n v="281792"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
@@ -3597,6 +3264,7 @@
     <m/>
     <n v="650882"/>
     <x v="2"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="6"/>
@@ -3605,6 +3273,7 @@
     <n v="12315"/>
     <m/>
     <n v="298963"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
@@ -3615,6 +3284,7 @@
     <m/>
     <n v="202582"/>
     <x v="2"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="8"/>
@@ -3623,6 +3293,7 @@
     <n v="16006"/>
     <m/>
     <n v="563322"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
@@ -3633,23 +3304,135 @@
     <m/>
     <n v="141763"/>
     <x v="2"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="10"/>
     <n v="17136"/>
     <m/>
-    <n v="21160"/>
-    <m/>
-    <n v="23924"/>
+    <n v="32416"/>
+    <m/>
+    <n v="396652"/>
     <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1257"/>
+    <m/>
+    <n v="580"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="796"/>
+    <m/>
+    <n v="738"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5148"/>
+    <m/>
+    <n v="988"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="5338"/>
+    <m/>
+    <n v="1249"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1796"/>
+    <m/>
+    <n v="2385"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="756"/>
+    <m/>
+    <n v="3602"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="692"/>
+    <m/>
+    <n v="2479"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="858"/>
+    <m/>
+    <n v="2304"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1421"/>
+    <m/>
+    <n v="4055"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="3"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:E14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:E16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="16">
         <item x="0"/>
@@ -3676,15 +3459,25 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="8">
+      <items count="10">
+        <item m="1" x="6"/>
         <item m="1" x="5"/>
+        <item x="0"/>
         <item m="1" x="4"/>
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
         <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -3737,19 +3530,22 @@
       <x v="2"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="6"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="7"/>
     </i>
-    <i t="grand">
-      <x/>
+    <i>
+      <x v="8"/>
     </i>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="7" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
     <dataField name="Relational" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="18">
+  <chartFormats count="21">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -3929,6 +3725,39 @@
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -3944,9 +3773,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A1:I15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
-  <pivotFields count="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" chartFormat="2">
+  <location ref="A3:G17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="16">
         <item x="0"/>
@@ -3969,19 +3798,29 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="8">
+      <items count="10">
+        <item m="1" x="6"/>
         <item m="1" x="5"/>
+        <item x="0"/>
         <item m="1" x="4"/>
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
         <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -4030,16 +3869,9 @@
     <field x="6"/>
     <field x="-2"/>
   </colFields>
-  <colItems count="8">
+  <colItems count="6">
     <i>
       <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
       <x/>
     </i>
     <i r="1" i="1">
@@ -4052,18 +3884,22 @@
     <i r="1" i="1">
       <x v="1"/>
     </i>
-    <i t="grand">
+    <i>
+      <x v="8"/>
       <x/>
     </i>
-    <i t="grand" i="1">
-      <x/>
+    <i r="1" i="1">
+      <x v="1"/>
     </i>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="7" hier="-1"/>
+  </pageFields>
   <dataFields count="2">
     <dataField name="NoSQL" fld="2" baseField="0" baseItem="0"/>
     <dataField name="Relational" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="37">
+  <chartFormats count="40">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -4415,22 +4251,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="43">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="44" series="1">
+    <chartFormat chart="1" format="43" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4442,7 +4263,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="45" series="1">
+    <chartFormat chart="1" format="44" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4454,7 +4275,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="46" series="1">
+    <chartFormat chart="1" format="45" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4466,7 +4287,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="47" series="1">
+    <chartFormat chart="1" format="46" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4474,6 +4295,54 @@
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="47" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="48" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="50" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -4489,9 +4358,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A1:I15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
-  <pivotFields count="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:G17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="16">
         <item x="0"/>
@@ -4518,15 +4387,25 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="8">
+      <items count="10">
+        <item m="1" x="6"/>
         <item m="1" x="5"/>
+        <item x="0"/>
         <item m="1" x="4"/>
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
         <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item x="0"/>
+        <item x="1"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -4575,16 +4454,9 @@
     <field x="6"/>
     <field x="-2"/>
   </colFields>
-  <colItems count="8">
+  <colItems count="6">
     <i>
       <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
       <x/>
     </i>
     <i r="1" i="1">
@@ -4604,11 +4476,14 @@
       <x/>
     </i>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="7" hier="-1"/>
+  </pageFields>
   <dataFields count="2">
     <dataField name="NoSQL" fld="4" baseField="0" baseItem="0"/>
     <dataField name="Relational" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="36">
+  <chartFormats count="40">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -4971,6 +4846,54 @@
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="69" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="70" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="71" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="72" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -4986,16 +4909,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:G34" totalsRowShown="0">
-  <autoFilter ref="A1:G34"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:H45" totalsRowShown="0">
+  <autoFilter ref="A1:H45"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Bench type"/>
     <tableColumn id="2" name="Simple"/>
     <tableColumn id="3" name="Standard objects"/>
     <tableColumn id="4" name="Standard relations"/>
     <tableColumn id="5" name="Complex objects"/>
     <tableColumn id="6" name="Complex relations"/>
-    <tableColumn id="7" name="Target"/>
+    <tableColumn id="8" name="Target"/>
+    <tableColumn id="7" name="Target filter"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5306,7 +5230,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5317,11 +5241,11 @@
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="6" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -5343,16 +5267,19 @@
       <c r="G1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1160</v>
+        <v>1105</v>
       </c>
       <c r="D2">
-        <v>1306</v>
+        <v>962</v>
       </c>
       <c r="F2">
         <v>35410</v>
@@ -5360,16 +5287,19 @@
       <c r="G2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1612</v>
+        <v>1582</v>
       </c>
       <c r="D3">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="F3">
         <v>46748</v>
@@ -5377,109 +5307,133 @@
       <c r="G3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>4933</v>
+        <v>4725</v>
       </c>
       <c r="D4">
-        <v>1256</v>
+        <v>1136</v>
       </c>
       <c r="F4">
-        <v>12673</v>
+        <v>11180</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>5399</v>
+        <v>5141</v>
       </c>
       <c r="D5">
-        <v>1480</v>
+        <v>1422</v>
       </c>
       <c r="F5">
-        <v>13186</v>
+        <v>11940</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>2636</v>
+        <v>2607</v>
       </c>
       <c r="D6">
         <v>3158</v>
       </c>
       <c r="F6">
-        <v>51564</v>
+        <v>48698</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="D7">
-        <v>3859</v>
+        <v>3786</v>
       </c>
       <c r="F7">
-        <v>106610</v>
+        <v>96020</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D10">
         <v>2831</v>
       </c>
       <c r="F10">
-        <v>113597</v>
+        <v>81001</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -5490,13 +5444,16 @@
         <v>2205</v>
       </c>
       <c r="F11">
-        <v>19171</v>
+        <v>17899</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5504,16 +5461,19 @@
         <v>1080</v>
       </c>
       <c r="D12">
-        <v>3908</v>
+        <v>3773</v>
       </c>
       <c r="F12">
-        <v>70935</v>
+        <v>66831</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -5524,7 +5484,7 @@
         <v>52</v>
       </c>
       <c r="D13">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E13">
         <v>2193</v>
@@ -5535,22 +5495,25 @@
       <c r="G13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C14">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D14">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E14">
-        <v>3051</v>
+        <v>2437</v>
       </c>
       <c r="F14">
         <v>695</v>
@@ -5558,19 +5521,22 @@
       <c r="G14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15">
-        <v>4978</v>
+        <v>4632</v>
       </c>
       <c r="C15">
-        <v>503</v>
+        <v>452</v>
       </c>
       <c r="D15">
-        <v>1038</v>
+        <v>964</v>
       </c>
       <c r="E15">
         <v>605</v>
@@ -5581,13 +5547,16 @@
       <c r="G15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16">
-        <v>4914</v>
+        <v>4689</v>
       </c>
       <c r="C16">
         <v>422</v>
@@ -5599,13 +5568,16 @@
         <v>652</v>
       </c>
       <c r="F16">
-        <v>3625</v>
+        <v>3597</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -5616,19 +5588,22 @@
         <v>769</v>
       </c>
       <c r="D17">
-        <v>1995</v>
+        <v>1944</v>
       </c>
       <c r="E17">
-        <v>16973</v>
+        <v>16482</v>
       </c>
       <c r="F17">
-        <v>25812</v>
+        <v>25592</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -5636,22 +5611,25 @@
         <v>712</v>
       </c>
       <c r="C18">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="D18">
         <v>2597</v>
       </c>
       <c r="E18">
-        <v>37827</v>
+        <v>37437</v>
       </c>
       <c r="F18">
-        <v>58402</v>
+        <v>57687</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -5662,7 +5640,7 @@
         <v>991</v>
       </c>
       <c r="D19">
-        <v>2077</v>
+        <v>2062</v>
       </c>
       <c r="E19">
         <v>17217</v>
@@ -5673,8 +5651,11 @@
       <c r="G19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5696,13 +5677,16 @@
       <c r="G20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21">
-        <v>497</v>
+        <v>376</v>
       </c>
       <c r="C21">
         <v>957</v>
@@ -5719,36 +5703,42 @@
       <c r="G21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22">
-        <v>687</v>
+        <v>509</v>
       </c>
       <c r="C22">
-        <v>961</v>
+        <v>750</v>
       </c>
       <c r="D22">
-        <v>1751</v>
+        <v>982</v>
       </c>
       <c r="E22">
-        <v>10649</v>
+        <v>9549</v>
       </c>
       <c r="F22">
-        <v>15981</v>
+        <v>15803</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C23">
         <v>995</v>
@@ -5765,8 +5755,11 @@
       <c r="G23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -5782,8 +5775,11 @@
       <c r="G24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -5799,8 +5795,11 @@
       <c r="G25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -5816,8 +5815,11 @@
       <c r="G26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -5833,8 +5835,11 @@
       <c r="G27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -5850,8 +5855,11 @@
       <c r="G28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -5867,8 +5875,11 @@
       <c r="G29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -5884,8 +5895,11 @@
       <c r="G30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -5901,8 +5915,11 @@
       <c r="G31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -5918,8 +5935,11 @@
       <c r="G32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -5935,8 +5955,11 @@
       <c r="G33" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -5944,13 +5967,191 @@
         <v>17136</v>
       </c>
       <c r="D34">
-        <v>21160</v>
+        <v>32416</v>
       </c>
       <c r="F34">
-        <v>23924</v>
+        <v>396652</v>
       </c>
       <c r="G34" t="s">
         <v>28</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>1257</v>
+      </c>
+      <c r="D35">
+        <v>580</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>796</v>
+      </c>
+      <c r="D36">
+        <v>738</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>5148</v>
+      </c>
+      <c r="D37">
+        <v>988</v>
+      </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>5338</v>
+      </c>
+      <c r="D38">
+        <v>1249</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>1796</v>
+      </c>
+      <c r="D39">
+        <v>2385</v>
+      </c>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>756</v>
+      </c>
+      <c r="D40">
+        <v>3602</v>
+      </c>
+      <c r="G40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43">
+        <v>692</v>
+      </c>
+      <c r="D43">
+        <v>2479</v>
+      </c>
+      <c r="G43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44">
+        <v>858</v>
+      </c>
+      <c r="D44">
+        <v>2304</v>
+      </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>1421</v>
+      </c>
+      <c r="D45">
+        <v>4055</v>
+      </c>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -5964,22 +6165,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -5999,227 +6201,231 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1160</v>
-      </c>
-      <c r="C3" s="3">
-        <v>123</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3119</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1612</v>
-      </c>
-      <c r="C4" s="3">
-        <v>224</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2788</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4624</v>
+      <c r="E4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>4933</v>
+        <v>1105</v>
       </c>
       <c r="C5" s="3">
-        <v>4978</v>
+        <v>123</v>
       </c>
       <c r="D5" s="3">
-        <v>12331</v>
+        <v>3119</v>
       </c>
       <c r="E5" s="3">
-        <v>22242</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>5399</v>
+        <v>1582</v>
       </c>
       <c r="C6" s="3">
-        <v>4914</v>
+        <v>210</v>
       </c>
       <c r="D6" s="3">
-        <v>13345</v>
+        <v>2788</v>
       </c>
       <c r="E6" s="3">
-        <v>23658</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4725</v>
+      </c>
       <c r="C7" s="3">
-        <v>1983</v>
+        <v>4632</v>
       </c>
       <c r="D7" s="3">
-        <v>2305</v>
+        <v>12331</v>
       </c>
       <c r="E7" s="3">
-        <v>4288</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>1080</v>
+        <v>5141</v>
       </c>
       <c r="C8" s="3">
-        <v>410</v>
+        <v>4689</v>
       </c>
       <c r="D8" s="3">
-        <v>17136</v>
+        <v>13345</v>
       </c>
       <c r="E8" s="3">
-        <v>18626</v>
+        <v>5338</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2636</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="3">
-        <v>1487</v>
+        <v>1983</v>
       </c>
       <c r="D9" s="3">
-        <v>2288</v>
-      </c>
-      <c r="E9" s="3">
-        <v>6411</v>
-      </c>
+        <v>2305</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1080</v>
+      </c>
       <c r="C10" s="3">
-        <v>1064</v>
+        <v>402</v>
       </c>
       <c r="D10" s="3">
-        <v>1187</v>
+        <v>17136</v>
       </c>
       <c r="E10" s="3">
-        <v>2251</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>805</v>
+        <v>2607</v>
       </c>
       <c r="C11" s="3">
-        <v>712</v>
+        <v>1487</v>
       </c>
       <c r="D11" s="3">
-        <v>2721</v>
+        <v>2288</v>
       </c>
       <c r="E11" s="3">
-        <v>4238</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3">
-        <v>506</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="3">
-        <v>497</v>
+        <v>1064</v>
       </c>
       <c r="D12" s="3">
-        <v>4968</v>
-      </c>
-      <c r="E12" s="3">
-        <v>5971</v>
-      </c>
+        <v>1187</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3">
-        <v>686</v>
+        <v>796</v>
       </c>
       <c r="C13" s="3">
-        <v>687</v>
+        <v>712</v>
       </c>
       <c r="D13" s="3">
-        <v>9384</v>
+        <v>2721</v>
       </c>
       <c r="E13" s="3">
-        <v>10757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3">
+        <v>499</v>
+      </c>
+      <c r="C14" s="3">
+        <v>376</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4968</v>
+      </c>
+      <c r="E14" s="3">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3">
+        <v>686</v>
+      </c>
+      <c r="C15" s="3">
+        <v>509</v>
+      </c>
+      <c r="D15" s="3">
+        <v>9384</v>
+      </c>
+      <c r="E15" s="3">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3">
-        <v>18817</v>
-      </c>
-      <c r="C14" s="3">
-        <v>17079</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="B16" s="3">
+        <v>18221</v>
+      </c>
+      <c r="C16" s="3">
+        <v>16187</v>
+      </c>
+      <c r="D16" s="3">
         <v>71572</v>
       </c>
-      <c r="E14" s="3">
-        <v>107468</v>
+      <c r="E16" s="3">
+        <v>18062</v>
       </c>
     </row>
   </sheetData>
@@ -6230,27 +6436,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -6265,376 +6471,303 @@
     <col min="25" max="25" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
-        <v>1306</v>
-      </c>
-      <c r="D4" s="3">
-        <v>52</v>
-      </c>
-      <c r="E4" s="3">
-        <v>213</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H4" s="3">
-        <v>52</v>
-      </c>
-      <c r="I4" s="3">
-        <v>3619</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3">
-        <v>1490</v>
-      </c>
-      <c r="D5" s="3">
-        <v>73</v>
-      </c>
-      <c r="E5" s="3">
-        <v>102</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
-        <v>836</v>
-      </c>
-      <c r="H5" s="3">
-        <v>73</v>
-      </c>
-      <c r="I5" s="3">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
-        <v>1256</v>
+        <v>962</v>
       </c>
       <c r="D6" s="3">
-        <v>503</v>
+        <v>52</v>
       </c>
       <c r="E6" s="3">
-        <v>1038</v>
+        <v>201</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3">
-        <v>2454</v>
-      </c>
-      <c r="H6" s="3">
-        <v>503</v>
-      </c>
-      <c r="I6" s="3">
-        <v>4748</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="D7" s="3">
-        <v>422</v>
+        <v>65</v>
       </c>
       <c r="E7" s="3">
-        <v>849</v>
+        <v>95</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3">
-        <v>1588</v>
-      </c>
-      <c r="H7" s="3">
-        <v>422</v>
-      </c>
-      <c r="I7" s="3">
-        <v>3917</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3">
+        <v>1136</v>
+      </c>
       <c r="D8" s="3">
-        <v>991</v>
+        <v>452</v>
       </c>
       <c r="E8" s="3">
-        <v>2077</v>
+        <v>964</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3">
-        <v>12315</v>
-      </c>
-      <c r="H8" s="3">
-        <v>991</v>
-      </c>
-      <c r="I8" s="3">
-        <v>14392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
-        <v>3908</v>
+        <v>1422</v>
       </c>
       <c r="D9" s="3">
-        <v>995</v>
+        <v>422</v>
       </c>
       <c r="E9" s="3">
-        <v>1708</v>
+        <v>849</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3">
-        <v>21160</v>
-      </c>
-      <c r="H9" s="3">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <v>991</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2062</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
+        <v>3773</v>
+      </c>
+      <c r="D11" s="3">
         <v>995</v>
       </c>
-      <c r="I9" s="3">
-        <v>26776</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3">
-        <v>3158</v>
-      </c>
-      <c r="D10" s="3">
-        <v>769</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1995</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <v>12269</v>
-      </c>
-      <c r="H10" s="3">
-        <v>769</v>
-      </c>
-      <c r="I10" s="3">
-        <v>17422</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
-        <v>1325</v>
-      </c>
       <c r="E11" s="3">
-        <v>1693</v>
+        <v>1708</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3">
-        <v>2686</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1325</v>
-      </c>
-      <c r="I11" s="3">
-        <v>4379</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
-        <v>3859</v>
+        <v>3158</v>
       </c>
       <c r="D12" s="3">
-        <v>1473</v>
+        <v>769</v>
       </c>
       <c r="E12" s="3">
-        <v>2597</v>
+        <v>1944</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
-        <v>7181</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1473</v>
-      </c>
-      <c r="I12" s="3">
-        <v>13637</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="3">
-        <v>2831</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3">
-        <v>957</v>
+        <v>1325</v>
       </c>
       <c r="E13" s="3">
-        <v>1723</v>
+        <v>1693</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3">
-        <v>16006</v>
-      </c>
-      <c r="H13" s="3">
-        <v>957</v>
-      </c>
-      <c r="I13" s="3">
-        <v>20560</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3">
-        <v>2205</v>
+        <v>3786</v>
       </c>
       <c r="D14" s="3">
-        <v>961</v>
+        <v>1469</v>
       </c>
       <c r="E14" s="3">
-        <v>1751</v>
+        <v>2597</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
-        <v>15297</v>
-      </c>
-      <c r="H14" s="3">
-        <v>961</v>
-      </c>
-      <c r="I14" s="3">
-        <v>19253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3">
-        <v>21493</v>
+        <v>2831</v>
       </c>
       <c r="D15" s="3">
-        <v>8521</v>
+        <v>957</v>
       </c>
       <c r="E15" s="3">
-        <v>15746</v>
+        <v>1723</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
-        <v>93892</v>
-      </c>
-      <c r="H15" s="3">
-        <v>8521</v>
-      </c>
-      <c r="I15" s="3">
-        <v>131131</v>
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
+        <v>2205</v>
+      </c>
+      <c r="D16" s="3">
+        <v>750</v>
+      </c>
+      <c r="E16" s="3">
+        <v>982</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
+        <v>20757</v>
+      </c>
+      <c r="D17" s="3">
+        <v>8247</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14818</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
+        <v>18380</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -6649,345 +6782,296 @@
     <col min="25" max="25" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
-        <v>35410</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2193</v>
-      </c>
-      <c r="E4" s="3">
-        <v>7006</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3">
-        <v>93677</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2193</v>
-      </c>
-      <c r="I4" s="3">
-        <v>136093</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3">
-        <v>46748</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3051</v>
-      </c>
-      <c r="E5" s="3">
-        <v>695</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
-        <v>36186</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3051</v>
-      </c>
-      <c r="I5" s="3">
-        <v>83629</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
-        <v>12673</v>
+        <v>35410</v>
       </c>
       <c r="D6" s="3">
-        <v>605</v>
+        <v>2193</v>
       </c>
       <c r="E6" s="3">
-        <v>3213</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>7006</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2193</v>
+      </c>
       <c r="G6" s="3">
-        <v>20147</v>
-      </c>
-      <c r="H6" s="3">
-        <v>605</v>
-      </c>
-      <c r="I6" s="3">
-        <v>36033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
-        <v>13186</v>
+        <v>46748</v>
       </c>
       <c r="D7" s="3">
-        <v>652</v>
+        <v>2437</v>
       </c>
       <c r="E7" s="3">
-        <v>3625</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>695</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2437</v>
+      </c>
       <c r="G7" s="3">
-        <v>5838</v>
-      </c>
-      <c r="H7" s="3">
-        <v>652</v>
-      </c>
-      <c r="I7" s="3">
-        <v>22649</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>47443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3">
+        <v>11180</v>
+      </c>
       <c r="D8" s="3">
-        <v>17217</v>
+        <v>605</v>
       </c>
       <c r="E8" s="3">
-        <v>26094</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>3213</v>
+      </c>
+      <c r="F8" s="3">
+        <v>605</v>
+      </c>
       <c r="G8" s="3">
-        <v>298963</v>
-      </c>
-      <c r="H8" s="3">
-        <v>17217</v>
-      </c>
-      <c r="I8" s="3">
-        <v>325057</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
-        <v>70935</v>
+        <v>11940</v>
       </c>
       <c r="D9" s="3">
+        <v>652</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3597</v>
+      </c>
+      <c r="F9" s="3">
+        <v>652</v>
+      </c>
+      <c r="G9" s="3">
+        <v>15537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <v>17217</v>
+      </c>
+      <c r="E10" s="3">
+        <v>26094</v>
+      </c>
+      <c r="F10" s="3">
+        <v>17217</v>
+      </c>
+      <c r="G10" s="3">
+        <v>26094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
+        <v>66831</v>
+      </c>
+      <c r="D11" s="3">
         <v>32380</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E11" s="3">
         <v>44228</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
-        <v>23924</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="F11" s="3">
         <v>32380</v>
       </c>
-      <c r="I9" s="3">
-        <v>139087</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="G11" s="3">
+        <v>111059</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3">
-        <v>51564</v>
-      </c>
-      <c r="D10" s="3">
-        <v>16973</v>
-      </c>
-      <c r="E10" s="3">
-        <v>25812</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <v>281792</v>
-      </c>
-      <c r="H10" s="3">
-        <v>16973</v>
-      </c>
-      <c r="I10" s="3">
-        <v>359168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
-        <v>12877</v>
-      </c>
-      <c r="E11" s="3">
-        <v>19017</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
-        <v>202582</v>
-      </c>
-      <c r="H11" s="3">
-        <v>12877</v>
-      </c>
-      <c r="I11" s="3">
-        <v>221599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
-        <v>106610</v>
+        <v>48698</v>
       </c>
       <c r="D12" s="3">
-        <v>37827</v>
+        <v>16482</v>
       </c>
       <c r="E12" s="3">
-        <v>58402</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>25592</v>
+      </c>
+      <c r="F12" s="3">
+        <v>16482</v>
+      </c>
       <c r="G12" s="3">
-        <v>650882</v>
-      </c>
-      <c r="H12" s="3">
-        <v>37827</v>
-      </c>
-      <c r="I12" s="3">
-        <v>815894</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="3">
-        <v>113597</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3">
-        <v>31446</v>
+        <v>12877</v>
       </c>
       <c r="E13" s="3">
-        <v>48448</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>19017</v>
+      </c>
+      <c r="F13" s="3">
+        <v>12877</v>
+      </c>
       <c r="G13" s="3">
-        <v>563322</v>
-      </c>
-      <c r="H13" s="3">
-        <v>31446</v>
-      </c>
-      <c r="I13" s="3">
-        <v>725367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3">
-        <v>19171</v>
+        <v>96020</v>
       </c>
       <c r="D14" s="3">
-        <v>10649</v>
+        <v>37437</v>
       </c>
       <c r="E14" s="3">
-        <v>15981</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>57687</v>
+      </c>
+      <c r="F14" s="3">
+        <v>37437</v>
+      </c>
       <c r="G14" s="3">
-        <v>141763</v>
-      </c>
-      <c r="H14" s="3">
-        <v>10649</v>
-      </c>
-      <c r="I14" s="3">
-        <v>176915</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>153707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3">
-        <v>469894</v>
+        <v>81001</v>
       </c>
       <c r="D15" s="3">
-        <v>165870</v>
+        <v>31446</v>
       </c>
       <c r="E15" s="3">
-        <v>252521</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>48448</v>
+      </c>
+      <c r="F15" s="3">
+        <v>31446</v>
+      </c>
       <c r="G15" s="3">
-        <v>2319076</v>
-      </c>
-      <c r="H15" s="3">
-        <v>165870</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3041491</v>
+        <v>129449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
+        <v>17899</v>
+      </c>
+      <c r="D16" s="3">
+        <v>9549</v>
+      </c>
+      <c r="E16" s="3">
+        <v>15803</v>
+      </c>
+      <c r="F16" s="3">
+        <v>9549</v>
+      </c>
+      <c r="G16" s="3">
+        <v>33702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
+        <v>415727</v>
+      </c>
+      <c r="D17" s="3">
+        <v>163275</v>
+      </c>
+      <c r="E17" s="3">
+        <v>251380</v>
+      </c>
+      <c r="F17" s="3">
+        <v>163275</v>
+      </c>
+      <c r="G17" s="3">
+        <v>667107</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -7,21 +7,20 @@
     <workbookView xWindow="480" yWindow="75" windowWidth="19155" windowHeight="7485" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Unlicensed version" sheetId="7" r:id="rId1"/>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
-    <sheet name="Simple" sheetId="2" r:id="rId3"/>
-    <sheet name="Standard" sheetId="3" r:id="rId4"/>
-    <sheet name="Complex" sheetId="6" r:id="rId5"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Simple" sheetId="2" r:id="rId2"/>
+    <sheet name="Standard" sheetId="3" r:id="rId3"/>
+    <sheet name="Complex" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="40" r:id="rId6"/>
+    <pivotCache cacheId="10" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="33">
   <si>
     <t>Simple</t>
   </si>
@@ -101,16 +100,6 @@
     <t>Npgsql</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Unlicensed version. Please register @ templater.info</t>
-    </r>
-  </si>
-  <si>
     <t>Revenj</t>
   </si>
   <si>
@@ -128,12 +117,15 @@
   <si>
     <t>Target filter</t>
   </si>
+  <si>
+    <t>Hibernate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,11 +133,6 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -269,6 +256,9 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="13"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="14"/>
@@ -280,6 +270,24 @@
         <c:idx val="16"/>
       </c:pivotFmt>
       <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
         <c:idx val="20"/>
         <c:marker>
           <c:symbol val="none"/>
@@ -299,18 +307,22 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="24"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
@@ -686,7 +698,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1257</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>796</c:v>
@@ -698,19 +710,112 @@
                   <c:v>5338</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1421</c:v>
+                  <c:v>1215</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1796</c:v>
+                  <c:v>1588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>756</c:v>
+                  <c:v>678</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>692</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>858</c:v>
+                  <c:v>796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Simple!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hibernate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Simple!$A$5:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Simple!$F$5:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2467</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5251</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5589</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2938</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3620</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1397</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -725,11 +830,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174498560"/>
-        <c:axId val="174500096"/>
+        <c:axId val="168796928"/>
+        <c:axId val="168798464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174498560"/>
+        <c:axId val="168796928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +843,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174500096"/>
+        <c:crossAx val="168798464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -746,7 +851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174500096"/>
+        <c:axId val="168798464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,7 +882,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174498560"/>
+        <c:crossAx val="168796928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -849,7 +954,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1741,11 +1845,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="175333760"/>
-        <c:axId val="175335296"/>
+        <c:axId val="169450112"/>
+        <c:axId val="169451904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="175333760"/>
+        <c:axId val="169450112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1754,7 +1858,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175335296"/>
+        <c:crossAx val="169451904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1762,7 +1866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175335296"/>
+        <c:axId val="169451904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1786,14 +1890,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175333760"/>
+        <c:crossAx val="169450112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1865,7 +1968,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2720,11 +2822,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="175538176"/>
-        <c:axId val="175539712"/>
+        <c:axId val="182692480"/>
+        <c:axId val="182698368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="175538176"/>
+        <c:axId val="182692480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2733,7 +2835,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175539712"/>
+        <c:crossAx val="182698368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2741,7 +2843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175539712"/>
+        <c:axId val="182698368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2765,14 +2867,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175538176"/>
+        <c:crossAx val="182692480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2915,7 +3016,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Rikard Pavelic" refreshedDate="42151.969164467591" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="44">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Rikard Pavelic" refreshedDate="42211.990716550928" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="55">
   <cacheSource type="worksheet">
     <worksheetSource name="Table3"/>
   </cacheSource>
@@ -2955,11 +3056,12 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="695" maxValue="650882"/>
     </cacheField>
     <cacheField name="Target" numFmtId="0">
-      <sharedItems count="9">
+      <sharedItems count="10">
         <s v="Npgsql"/>
         <s v="Revenj"/>
         <s v="Entity Framework"/>
         <s v="JDBC"/>
+        <s v="Hibernate"/>
         <s v="Revenj Postgres" u="1"/>
         <s v="MsSql ADO.NET" u="1"/>
         <s v="[[description]]" u="1"/>
@@ -2968,11 +3070,12 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Target filter" numFmtId="0">
-      <sharedItems count="4">
+      <sharedItems count="5">
         <s v="Npgsql"/>
         <s v="Revenj"/>
         <s v="Entity Framework"/>
         <s v="JDBC"/>
+        <s v="Hibernate"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -2985,7 +3088,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="44">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="55">
   <r>
     <x v="0"/>
     <n v="1105"/>
@@ -3318,7 +3421,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="1257"/>
+    <n v="900"/>
     <m/>
     <n v="580"/>
     <m/>
@@ -3358,7 +3461,7 @@
   </r>
   <r>
     <x v="4"/>
-    <n v="1796"/>
+    <n v="1588"/>
     <m/>
     <n v="2385"/>
     <m/>
@@ -3368,7 +3471,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="756"/>
+    <n v="678"/>
     <m/>
     <n v="3602"/>
     <m/>
@@ -3408,7 +3511,7 @@
   </r>
   <r>
     <x v="9"/>
-    <n v="858"/>
+    <n v="796"/>
     <m/>
     <n v="2304"/>
     <m/>
@@ -3418,20 +3521,130 @@
   </r>
   <r>
     <x v="10"/>
-    <n v="1421"/>
+    <n v="1215"/>
     <m/>
     <n v="4055"/>
     <m/>
     <m/>
     <x v="3"/>
     <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2467"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1945"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5251"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="5589"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="3620"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1397"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="1002"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1528"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2938"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="4"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:E16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:F16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="16">
@@ -3459,25 +3672,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="10">
+      <items count="11">
+        <item m="1" x="7"/>
         <item m="1" x="6"/>
+        <item x="0"/>
         <item m="1" x="5"/>
-        <item x="0"/>
-        <item m="1" x="4"/>
+        <item m="1" x="9"/>
         <item m="1" x="8"/>
-        <item m="1" x="7"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="4">
+      <items count="5">
         <item x="2"/>
         <item x="3"/>
         <item x="0"/>
         <item x="1"/>
+        <item x="4"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -3525,7 +3740,7 @@
   <colFields count="1">
     <field x="6"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="5">
     <i>
       <x v="2"/>
     </i>
@@ -3538,6 +3753,9 @@
     <i>
       <x v="8"/>
     </i>
+    <i>
+      <x v="9"/>
+    </i>
   </colItems>
   <pageFields count="1">
     <pageField fld="7" hier="-1"/>
@@ -3545,7 +3763,7 @@
   <dataFields count="1">
     <dataField name="Relational" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="21">
+  <chartFormats count="20">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -3717,47 +3935,35 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="17" series="1">
+    <chartFormat chart="0" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="23" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="18" series="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="24" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
             <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -3773,7 +3979,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" chartFormat="2">
   <location ref="A3:G17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -3802,25 +4008,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="10">
+      <items count="11">
+        <item m="1" x="7"/>
         <item m="1" x="6"/>
+        <item x="0"/>
         <item m="1" x="5"/>
-        <item x="0"/>
-        <item m="1" x="4"/>
+        <item m="1" x="9"/>
         <item m="1" x="8"/>
-        <item m="1" x="7"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="4">
+      <items count="5">
         <item h="1" x="2"/>
         <item x="3"/>
         <item x="0"/>
         <item x="1"/>
+        <item h="1" x="4"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -4358,7 +4566,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:G17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -4387,25 +4595,27 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="10">
+      <items count="11">
+        <item m="1" x="7"/>
         <item m="1" x="6"/>
+        <item x="0"/>
         <item m="1" x="5"/>
-        <item x="0"/>
-        <item m="1" x="4"/>
+        <item m="1" x="9"/>
         <item m="1" x="8"/>
-        <item m="1" x="7"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="4">
+      <items count="5">
         <item h="1" x="2"/>
         <item h="1" x="3"/>
         <item x="0"/>
         <item x="1"/>
+        <item h="1" x="4"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -4909,8 +5119,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:H45" totalsRowShown="0">
-  <autoFilter ref="A1:H45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:H56" totalsRowShown="0">
+  <autoFilter ref="A1:H56"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Bench type"/>
     <tableColumn id="2" name="Simple"/>
@@ -5212,27 +5422,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5268,7 +5462,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5493,10 +5687,10 @@
         <v>7006</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5519,10 +5713,10 @@
         <v>695</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5545,10 +5739,10 @@
         <v>3213</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5571,10 +5765,10 @@
         <v>3597</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5597,10 +5791,10 @@
         <v>25592</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5623,10 +5817,10 @@
         <v>57687</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5649,10 +5843,10 @@
         <v>26094</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5675,10 +5869,10 @@
         <v>19017</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -5701,10 +5895,10 @@
         <v>48448</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5727,10 +5921,10 @@
         <v>15803</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -5753,10 +5947,10 @@
         <v>44228</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -5773,10 +5967,10 @@
         <v>93677</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -5793,10 +5987,10 @@
         <v>36186</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -5813,10 +6007,10 @@
         <v>20147</v>
       </c>
       <c r="G26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -5833,10 +6027,10 @@
         <v>5838</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -5853,10 +6047,10 @@
         <v>281792</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -5873,10 +6067,10 @@
         <v>650882</v>
       </c>
       <c r="G29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -5893,10 +6087,10 @@
         <v>298963</v>
       </c>
       <c r="G30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -5913,10 +6107,10 @@
         <v>202582</v>
       </c>
       <c r="G31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -5933,10 +6127,10 @@
         <v>563322</v>
       </c>
       <c r="G32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -5953,10 +6147,10 @@
         <v>141763</v>
       </c>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -5973,10 +6167,10 @@
         <v>396652</v>
       </c>
       <c r="G34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -5984,16 +6178,16 @@
         <v>5</v>
       </c>
       <c r="B35">
-        <v>1257</v>
+        <v>900</v>
       </c>
       <c r="D35">
         <v>580</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -6007,10 +6201,10 @@
         <v>738</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -6024,10 +6218,10 @@
         <v>988</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -6041,10 +6235,10 @@
         <v>1249</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -6052,16 +6246,16 @@
         <v>9</v>
       </c>
       <c r="B39">
-        <v>1796</v>
+        <v>1588</v>
       </c>
       <c r="D39">
         <v>2385</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -6069,16 +6263,16 @@
         <v>22</v>
       </c>
       <c r="B40">
-        <v>756</v>
+        <v>678</v>
       </c>
       <c r="D40">
         <v>3602</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -6086,10 +6280,10 @@
         <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -6097,10 +6291,10 @@
         <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -6114,10 +6308,10 @@
         <v>2479</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -6125,16 +6319,16 @@
         <v>24</v>
       </c>
       <c r="B44">
-        <v>858</v>
+        <v>796</v>
       </c>
       <c r="D44">
         <v>2304</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -6142,16 +6336,164 @@
         <v>11</v>
       </c>
       <c r="B45">
-        <v>1421</v>
+        <v>1215</v>
       </c>
       <c r="D45">
         <v>4055</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H45" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>2467</v>
+      </c>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>1945</v>
+      </c>
+      <c r="G47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>5251</v>
+      </c>
+      <c r="G48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>5589</v>
+      </c>
+      <c r="G49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>3620</v>
+      </c>
+      <c r="G50" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>1397</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54">
+        <v>1002</v>
+      </c>
+      <c r="G54" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55">
+        <v>1528</v>
+      </c>
+      <c r="G55" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>2938</v>
+      </c>
+      <c r="G56" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -6163,12 +6505,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6178,7 +6520,7 @@
     <col min="3" max="3" width="7.140625" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
@@ -6199,15 +6541,15 @@
     <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -6215,7 +6557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -6223,16 +6565,19 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -6246,10 +6591,13 @@
         <v>3119</v>
       </c>
       <c r="E5" s="3">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -6265,8 +6613,11 @@
       <c r="E6" s="3">
         <v>796</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="3">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -6282,8 +6633,11 @@
       <c r="E7" s="3">
         <v>5148</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="3">
+        <v>5251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -6299,8 +6653,11 @@
       <c r="E8" s="3">
         <v>5338</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="3">
+        <v>5589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -6312,8 +6669,9 @@
         <v>2305</v>
       </c>
       <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -6327,10 +6685,13 @@
         <v>17136</v>
       </c>
       <c r="E10" s="3">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1215</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -6344,10 +6705,13 @@
         <v>2288</v>
       </c>
       <c r="E11" s="3">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1588</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -6359,8 +6723,9 @@
         <v>1187</v>
       </c>
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -6374,10 +6739,13 @@
         <v>2721</v>
       </c>
       <c r="E13" s="3">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -6393,8 +6761,11 @@
       <c r="E14" s="3">
         <v>692</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="3">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -6408,10 +6779,13 @@
         <v>9384</v>
       </c>
       <c r="E15" s="3">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -6425,7 +6799,10 @@
         <v>71572</v>
       </c>
       <c r="E16" s="3">
-        <v>18062</v>
+        <v>17151</v>
+      </c>
+      <c r="F16" s="3">
+        <v>25737</v>
       </c>
     </row>
   </sheetData>
@@ -6434,9 +6811,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
@@ -6473,10 +6850,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6489,10 +6866,10 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -6745,7 +7122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -6784,10 +7161,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6800,7 +7177,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="19155" windowHeight="7485" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="19155" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="33">
   <si>
     <t>Simple</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Npgsql</t>
   </si>
   <si>
-    <t>Revenj</t>
-  </si>
-  <si>
     <t>Entity Framework</t>
   </si>
   <si>
@@ -112,13 +109,16 @@
     <t>(All)</t>
   </si>
   <si>
-    <t>(Multiple Items)</t>
-  </si>
-  <si>
     <t>Target filter</t>
   </si>
   <si>
     <t>Hibernate</t>
+  </si>
+  <si>
+    <t>Revenj.NET</t>
+  </si>
+  <si>
+    <t>Revenj.Java</t>
   </si>
 </sst>
 </file>
@@ -327,6 +327,30 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -436,105 +460,6 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Revenj</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Simple!$A$5:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Bulk insert</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Bulk update</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop insert (half)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop update (half)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Query all (x100)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Report (x1.000)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Search all (x100)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Query filter (x1.000)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Search subset (x3.000)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Find many (x2.000)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Find one (x5.000)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Simple!$C$5:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4632</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4689</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1983</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>402</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1487</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1064</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>712</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>376</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>509</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Simple!$D$3:$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
               </c:strCache>
@@ -589,7 +514,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Simple!$D$5:$D$16</c:f>
+              <c:f>Simple!$C$5:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -631,11 +556,11 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Simple!$E$3:$E$4</c:f>
+              <c:f>Simple!$D$3:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -693,36 +618,134 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>Simple!$D$5:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5338</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1588</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Simple!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hibernate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Simple!$A$5:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>Simple!$E$5:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>900</c:v>
+                  <c:v>2467</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>796</c:v>
+                  <c:v>1945</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5148</c:v>
+                  <c:v>5251</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5338</c:v>
+                  <c:v>5589</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1215</c:v>
+                  <c:v>2938</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1588</c:v>
+                  <c:v>3620</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>678</c:v>
+                  <c:v>1397</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>692</c:v>
+                  <c:v>1002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>796</c:v>
+                  <c:v>1528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,11 +760,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hibernate</c:v>
+                  <c:v>Revenj.NET</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -791,31 +819,141 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2467</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1945</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5251</c:v>
+                  <c:v>4632</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5589</c:v>
+                  <c:v>4689</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2938</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3620</c:v>
+                  <c:v>1487</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1064</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1397</c:v>
+                  <c:v>712</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1002</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1528</c:v>
+                  <c:v>509</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Simple!$G$3:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenj.Java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Simple!$A$5:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Simple!$G$5:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1767</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2218</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -830,11 +968,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="168796928"/>
-        <c:axId val="168798464"/>
+        <c:axId val="100188928"/>
+        <c:axId val="100190464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168796928"/>
+        <c:axId val="100188928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +981,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168798464"/>
+        <c:crossAx val="100190464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -851,9 +989,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168798464"/>
+        <c:axId val="100190464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="8000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -882,7 +1021,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168796928"/>
+        <c:crossAx val="100188928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -954,6 +1093,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1287,6 +1427,60 @@
             <a:schemeClr val="accent3"/>
           </a:solidFill>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="51"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="52"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="53"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="54"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="55"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="56"/>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
@@ -1471,18 +1665,11 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Revenj - NoSQL</c:v>
+                  <c:v>Entity Framework - NoSQL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1531,39 +1718,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>422</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>991</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>769</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1325</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1469</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>957</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>750</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1577,14 +1731,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Revenj - Relational</c:v>
+                  <c:v>Entity Framework - Relational</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -1636,37 +1790,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>201</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95</c:v>
+                  <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>964</c:v>
+                  <c:v>2454</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>849</c:v>
+                  <c:v>1588</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2062</c:v>
+                  <c:v>12315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1708</c:v>
+                  <c:v>32416</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1944</c:v>
+                  <c:v>12269</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1693</c:v>
+                  <c:v>2686</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2597</c:v>
+                  <c:v>7181</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1723</c:v>
+                  <c:v>16006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>982</c:v>
+                  <c:v>15297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1836,6 +1990,552 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Standard!$H$3:$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hibernate - NoSQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Standard!$A$6:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Standard!$H$6:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Standard!$I$3:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hibernate - Relational</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Standard!$A$6:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Standard!$I$6:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Standard!$J$3:$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenj.NET - NoSQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Standard!$A$6:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Standard!$J$6:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1469</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Standard!$K$3:$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenj.NET - Relational</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Standard!$A$6:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Standard!$K$6:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1693</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2597</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1723</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Standard!$L$3:$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenj.Java - NoSQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Standard!$A$6:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Standard!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>924</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1157</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Standard!$M$3:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenj.Java - Relational</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Standard!$A$6:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Standard!$M$6:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2164</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2315</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2687</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2154</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1845,11 +2545,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="169450112"/>
-        <c:axId val="169451904"/>
+        <c:axId val="100317824"/>
+        <c:axId val="100319616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169450112"/>
+        <c:axId val="100317824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,7 +2558,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169451904"/>
+        <c:crossAx val="100319616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1866,9 +2566,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169451904"/>
+        <c:axId val="100319616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1890,13 +2591,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169450112"/>
+        <c:crossAx val="100317824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1968,6 +2670,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2428,6 +3131,60 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="72"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="73"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="74"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="75"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="76"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="77"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="78"/>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
@@ -2612,18 +3369,11 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Revenj - NoSQL</c:v>
+                  <c:v>Entity Framework - NoSQL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -2672,39 +3422,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2193</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2437</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>605</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>652</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17217</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32380</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16482</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12877</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37437</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>31446</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9549</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2718,7 +3435,375 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Revenj - Relational</c:v>
+                  <c:v>Entity Framework - Relational</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Complex!$A$6:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Complex!$E$6:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>93677</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36186</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5838</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>298963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>396652</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>281792</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>202582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>650882</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>563322</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>141763</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Complex!$F$3:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JDBC - NoSQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Complex!$A$6:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Complex!$F$6:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Complex!$G$3:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JDBC - Relational</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Complex!$A$6:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Complex!$G$6:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Complex!$H$3:$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hibernate - NoSQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Complex!$A$6:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Complex!$H$6:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Complex!$I$3:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hibernate - Relational</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Complex!$A$6:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Complex!$I$6:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Complex!$J$3:$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenj.NET - NoSQL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2772,7 +3857,114 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Complex!$E$6:$E$17</c:f>
+              <c:f>Complex!$J$6:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17217</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16482</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37437</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31446</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Complex!$K$3:$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenj.NET - Relational</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Complex!$A$6:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Complex!$K$6:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2808,6 +4000,209 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>15803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Complex!$L$3:$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenj.Java - NoSQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Complex!$A$6:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Complex!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1929</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34088</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14307</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42673</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26137</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7537</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Complex!$M$3:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenj.Java - Relational</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Complex!$A$6:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Complex!$M$6:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3073</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29269</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21756</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2822,11 +4217,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="182692480"/>
-        <c:axId val="182698368"/>
+        <c:axId val="100784768"/>
+        <c:axId val="100790656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182692480"/>
+        <c:axId val="100784768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2835,7 +4230,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182698368"/>
+        <c:crossAx val="100790656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2843,9 +4238,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182698368"/>
+        <c:axId val="100790656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="150000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2867,13 +4263,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182692480"/>
+        <c:crossAx val="100784768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2918,8 +4315,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>695324</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2953,8 +4350,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1181101</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2988,10 +4385,10 @@
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3016,7 +4413,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Rikard Pavelic" refreshedDate="42211.990716550928" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="55">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Rikard Pavelic" refreshedDate="42230.714507523146" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="66">
   <cacheSource type="worksheet">
     <worksheetSource name="Table3"/>
   </cacheSource>
@@ -3044,38 +4441,42 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="123" maxValue="17136"/>
     </cacheField>
     <cacheField name="Standard objects" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="52" maxValue="1469"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="52" maxValue="1515"/>
     </cacheField>
     <cacheField name="Standard relations" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="95" maxValue="32416"/>
     </cacheField>
     <cacheField name="Complex objects" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="605" maxValue="37437"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="515" maxValue="42673"/>
     </cacheField>
     <cacheField name="Complex relations" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="695" maxValue="650882"/>
     </cacheField>
     <cacheField name="Target" numFmtId="0">
-      <sharedItems count="10">
+      <sharedItems count="12">
         <s v="Npgsql"/>
-        <s v="Revenj"/>
+        <s v="Revenj.NET"/>
         <s v="Entity Framework"/>
         <s v="JDBC"/>
         <s v="Hibernate"/>
+        <s v="Revenj.Java"/>
         <s v="Revenj Postgres" u="1"/>
         <s v="MsSql ADO.NET" u="1"/>
         <s v="[[description]]" u="1"/>
         <s v="JDBC Postgres" u="1"/>
+        <s v="Revenj" u="1"/>
         <s v="EF Postgres" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Target filter" numFmtId="0">
-      <sharedItems count="5">
+      <sharedItems count="7">
         <s v="Npgsql"/>
-        <s v="Revenj"/>
+        <s v="Revenj.NET"/>
         <s v="Entity Framework"/>
         <s v="JDBC"/>
         <s v="Hibernate"/>
+        <s v="Revenj.Java"/>
+        <s v="Revenj" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -3088,7 +4489,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="55">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="66">
   <r>
     <x v="0"/>
     <n v="1105"/>
@@ -3639,12 +5040,122 @@
     <x v="4"/>
     <x v="4"/>
   </r>
+  <r>
+    <x v="0"/>
+    <n v="182"/>
+    <n v="62"/>
+    <n v="464"/>
+    <n v="1929"/>
+    <n v="13568"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="232"/>
+    <n v="105"/>
+    <n v="168"/>
+    <n v="3976"/>
+    <n v="13771"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="4640"/>
+    <n v="531"/>
+    <n v="1125"/>
+    <n v="515"/>
+    <n v="3944"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4855"/>
+    <n v="545"/>
+    <n v="1120"/>
+    <n v="808"/>
+    <n v="3073"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1933"/>
+    <n v="1068"/>
+    <n v="2315"/>
+    <n v="19010"/>
+    <n v="29012"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="970"/>
+    <n v="1515"/>
+    <n v="2687"/>
+    <n v="42673"/>
+    <n v="65443"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1767"/>
+    <n v="924"/>
+    <n v="2164"/>
+    <n v="18569"/>
+    <n v="29269"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2218"/>
+    <n v="642"/>
+    <n v="886"/>
+    <n v="14307"/>
+    <n v="21756"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="654"/>
+    <n v="1157"/>
+    <n v="2154"/>
+    <n v="26137"/>
+    <n v="41396"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="866"/>
+    <n v="1139"/>
+    <n v="2023"/>
+    <n v="7537"/>
+    <n v="12818"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="642"/>
+    <n v="1304"/>
+    <n v="2011"/>
+    <n v="34088"/>
+    <n v="51141"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:F16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A3:G16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="16">
@@ -3672,27 +5183,31 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="11">
+      <items count="13">
+        <item m="1" x="8"/>
         <item m="1" x="7"/>
+        <item x="0"/>
         <item m="1" x="6"/>
-        <item x="0"/>
-        <item m="1" x="5"/>
+        <item m="1" x="11"/>
         <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
+        <item m="1" x="10"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="1"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="5">
+      <items count="7">
         <item x="2"/>
         <item x="3"/>
         <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
         <item x="1"/>
-        <item x="4"/>
+        <item x="5"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -3740,12 +5255,9 @@
   <colFields count="1">
     <field x="6"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="6">
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="6"/>
     </i>
     <i>
       <x v="7"/>
@@ -3756,6 +5268,12 @@
     <i>
       <x v="9"/>
     </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
   </colItems>
   <pageFields count="1">
     <pageField fld="7" hier="-1"/>
@@ -3763,7 +5281,7 @@
   <dataFields count="1">
     <dataField name="Relational" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="20">
+  <chartFormats count="23">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -3964,6 +5482,42 @@
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="25" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="26" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="27" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="11"/>
           </reference>
         </references>
       </pivotArea>
@@ -3980,7 +5534,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" chartFormat="2">
-  <location ref="A3:G17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A3:M17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="16">
@@ -4008,27 +5562,31 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="11">
+      <items count="13">
+        <item m="1" x="8"/>
         <item m="1" x="7"/>
+        <item x="0"/>
         <item m="1" x="6"/>
-        <item x="0"/>
-        <item m="1" x="5"/>
+        <item m="1" x="11"/>
         <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
+        <item m="1" x="10"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="1"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item h="1" x="2"/>
+      <items count="7">
+        <item x="2"/>
         <item x="3"/>
         <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
         <item x="1"/>
-        <item h="1" x="4"/>
+        <item x="5"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -4077,7 +5635,7 @@
     <field x="6"/>
     <field x="-2"/>
   </colFields>
-  <colItems count="6">
+  <colItems count="12">
     <i>
       <x v="2"/>
       <x/>
@@ -4086,7 +5644,7 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="7"/>
       <x/>
     </i>
     <i r="1" i="1">
@@ -4094,6 +5652,27 @@
     </i>
     <i>
       <x v="8"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="11"/>
       <x/>
     </i>
     <i r="1" i="1">
@@ -4107,7 +5686,7 @@
     <dataField name="NoSQL" fld="2" baseField="0" baseItem="0"/>
     <dataField name="Relational" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="40">
+  <chartFormats count="46">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -4551,6 +6130,78 @@
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="51" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="52" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="53" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="54" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="55" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="56" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="11"/>
           </reference>
         </references>
       </pivotArea>
@@ -4567,7 +6218,7 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:G17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A3:O17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="16">
@@ -4595,27 +6246,31 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="11">
+      <items count="13">
+        <item m="1" x="8"/>
         <item m="1" x="7"/>
+        <item x="0"/>
         <item m="1" x="6"/>
-        <item x="0"/>
-        <item m="1" x="5"/>
+        <item m="1" x="11"/>
         <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
+        <item m="1" x="10"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="1"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
+      <items count="7">
+        <item x="2"/>
+        <item x="3"/>
         <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
         <item x="1"/>
-        <item h="1" x="4"/>
+        <item x="5"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -4664,7 +6319,7 @@
     <field x="6"/>
     <field x="-2"/>
   </colFields>
-  <colItems count="6">
+  <colItems count="14">
     <i>
       <x v="2"/>
       <x/>
@@ -4673,7 +6328,35 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="7"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="11"/>
       <x/>
     </i>
     <i r="1" i="1">
@@ -4693,7 +6376,7 @@
     <dataField name="NoSQL" fld="4" baseField="0" baseItem="0"/>
     <dataField name="Relational" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="40">
+  <chartFormats count="46">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -5104,6 +6787,78 @@
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="73" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="74" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="75" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="76" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="77" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="78" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="11"/>
           </reference>
         </references>
       </pivotArea>
@@ -5119,8 +6874,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:H56" totalsRowShown="0">
-  <autoFilter ref="A1:H56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:H67" totalsRowShown="0">
+  <autoFilter ref="A1:H67"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Bench type"/>
     <tableColumn id="2" name="Simple"/>
@@ -5422,11 +7177,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5462,7 +7215,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5687,10 +7440,10 @@
         <v>7006</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5713,10 +7466,10 @@
         <v>695</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5739,10 +7492,10 @@
         <v>3213</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5765,10 +7518,10 @@
         <v>3597</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5791,10 +7544,10 @@
         <v>25592</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5817,10 +7570,10 @@
         <v>57687</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5843,10 +7596,10 @@
         <v>26094</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H19" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5869,10 +7622,10 @@
         <v>19017</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -5895,10 +7648,10 @@
         <v>48448</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5921,10 +7674,10 @@
         <v>15803</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -5947,10 +7700,10 @@
         <v>44228</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -5967,10 +7720,10 @@
         <v>93677</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -5987,10 +7740,10 @@
         <v>36186</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -6007,10 +7760,10 @@
         <v>20147</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -6027,10 +7780,10 @@
         <v>5838</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -6047,10 +7800,10 @@
         <v>281792</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -6067,10 +7820,10 @@
         <v>650882</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -6087,10 +7840,10 @@
         <v>298963</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -6107,10 +7860,10 @@
         <v>202582</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -6127,10 +7880,10 @@
         <v>563322</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -6147,10 +7900,10 @@
         <v>141763</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -6167,10 +7920,10 @@
         <v>396652</v>
       </c>
       <c r="G34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -6184,10 +7937,10 @@
         <v>580</v>
       </c>
       <c r="G35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -6201,10 +7954,10 @@
         <v>738</v>
       </c>
       <c r="G36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -6218,10 +7971,10 @@
         <v>988</v>
       </c>
       <c r="G37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -6235,10 +7988,10 @@
         <v>1249</v>
       </c>
       <c r="G38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -6252,10 +8005,10 @@
         <v>2385</v>
       </c>
       <c r="G39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -6269,10 +8022,10 @@
         <v>3602</v>
       </c>
       <c r="G40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -6280,10 +8033,10 @@
         <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -6291,10 +8044,10 @@
         <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -6308,10 +8061,10 @@
         <v>2479</v>
       </c>
       <c r="G43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -6325,10 +8078,10 @@
         <v>2304</v>
       </c>
       <c r="G44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -6342,10 +8095,10 @@
         <v>4055</v>
       </c>
       <c r="G45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -6356,10 +8109,10 @@
         <v>2467</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -6370,10 +8123,10 @@
         <v>1945</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -6384,10 +8137,10 @@
         <v>5251</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -6398,10 +8151,10 @@
         <v>5589</v>
       </c>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -6412,10 +8165,10 @@
         <v>3620</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -6426,10 +8179,10 @@
         <v>1397</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -6437,10 +8190,10 @@
         <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -6448,10 +8201,10 @@
         <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -6462,10 +8215,10 @@
         <v>1002</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -6476,10 +8229,10 @@
         <v>1528</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -6490,9 +8243,295 @@
         <v>2938</v>
       </c>
       <c r="G56" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>182</v>
+      </c>
+      <c r="C57">
+        <v>62</v>
+      </c>
+      <c r="D57">
+        <v>464</v>
+      </c>
+      <c r="E57">
+        <v>1929</v>
+      </c>
+      <c r="F57">
+        <v>8500</v>
+      </c>
+      <c r="G57" t="s">
         <v>32</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>232</v>
+      </c>
+      <c r="C58">
+        <v>105</v>
+      </c>
+      <c r="D58">
+        <v>168</v>
+      </c>
+      <c r="E58">
+        <v>3976</v>
+      </c>
+      <c r="F58">
+        <v>9722</v>
+      </c>
+      <c r="G58" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>4640</v>
+      </c>
+      <c r="C59">
+        <v>531</v>
+      </c>
+      <c r="D59">
+        <v>1125</v>
+      </c>
+      <c r="E59">
+        <v>515</v>
+      </c>
+      <c r="F59">
+        <v>3944</v>
+      </c>
+      <c r="G59" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>4855</v>
+      </c>
+      <c r="C60">
+        <v>545</v>
+      </c>
+      <c r="D60">
+        <v>1120</v>
+      </c>
+      <c r="E60">
+        <v>808</v>
+      </c>
+      <c r="F60">
+        <v>3073</v>
+      </c>
+      <c r="G60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>1933</v>
+      </c>
+      <c r="C61">
+        <v>1068</v>
+      </c>
+      <c r="D61">
+        <v>2315</v>
+      </c>
+      <c r="E61">
+        <v>19010</v>
+      </c>
+      <c r="F61">
+        <v>29012</v>
+      </c>
+      <c r="G61" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>970</v>
+      </c>
+      <c r="C62">
+        <v>1515</v>
+      </c>
+      <c r="D62">
+        <v>2687</v>
+      </c>
+      <c r="E62">
+        <v>42673</v>
+      </c>
+      <c r="F62">
+        <v>65443</v>
+      </c>
+      <c r="G62" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63">
+        <v>1767</v>
+      </c>
+      <c r="C63">
+        <v>924</v>
+      </c>
+      <c r="D63">
+        <v>2164</v>
+      </c>
+      <c r="E63">
+        <v>18569</v>
+      </c>
+      <c r="F63">
+        <v>28668</v>
+      </c>
+      <c r="G63" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64">
+        <v>2218</v>
+      </c>
+      <c r="C64">
+        <v>642</v>
+      </c>
+      <c r="D64">
+        <v>886</v>
+      </c>
+      <c r="E64">
+        <v>14307</v>
+      </c>
+      <c r="F64">
+        <v>21756</v>
+      </c>
+      <c r="G64" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65">
+        <v>654</v>
+      </c>
+      <c r="C65">
+        <v>1157</v>
+      </c>
+      <c r="D65">
+        <v>2154</v>
+      </c>
+      <c r="E65">
+        <v>26137</v>
+      </c>
+      <c r="F65">
+        <v>41396</v>
+      </c>
+      <c r="G65" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66">
+        <v>866</v>
+      </c>
+      <c r="C66">
+        <v>1139</v>
+      </c>
+      <c r="D66">
+        <v>2023</v>
+      </c>
+      <c r="E66">
+        <v>7537</v>
+      </c>
+      <c r="F66">
+        <v>12818</v>
+      </c>
+      <c r="G66" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67">
+        <v>642</v>
+      </c>
+      <c r="C67">
+        <v>1304</v>
+      </c>
+      <c r="D67">
+        <v>2011</v>
+      </c>
+      <c r="E67">
+        <v>34088</v>
+      </c>
+      <c r="F67">
+        <v>51141</v>
+      </c>
+      <c r="G67" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6507,21 +8546,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
@@ -6541,15 +8580,15 @@
     <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -6557,7 +8596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -6571,13 +8610,16 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -6585,19 +8627,22 @@
         <v>1105</v>
       </c>
       <c r="C5" s="3">
+        <v>3119</v>
+      </c>
+      <c r="D5" s="3">
+        <v>900</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2467</v>
+      </c>
+      <c r="F5" s="3">
         <v>123</v>
       </c>
-      <c r="D5" s="3">
-        <v>3119</v>
-      </c>
-      <c r="E5" s="3">
-        <v>900</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -6605,19 +8650,22 @@
         <v>1582</v>
       </c>
       <c r="C6" s="3">
+        <v>2788</v>
+      </c>
+      <c r="D6" s="3">
+        <v>796</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1945</v>
+      </c>
+      <c r="F6" s="3">
         <v>210</v>
       </c>
-      <c r="D6" s="3">
-        <v>2788</v>
-      </c>
-      <c r="E6" s="3">
-        <v>796</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -6625,19 +8673,22 @@
         <v>4725</v>
       </c>
       <c r="C7" s="3">
+        <v>12331</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5148</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5251</v>
+      </c>
+      <c r="F7" s="3">
         <v>4632</v>
       </c>
-      <c r="D7" s="3">
-        <v>12331</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5148</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="3">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -6645,33 +8696,39 @@
         <v>5141</v>
       </c>
       <c r="C8" s="3">
+        <v>13345</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5338</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5589</v>
+      </c>
+      <c r="F8" s="3">
         <v>4689</v>
       </c>
-      <c r="D8" s="3">
-        <v>13345</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5338</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5589</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="3">
+        <v>4855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
+        <v>2305</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
         <v>1983</v>
       </c>
-      <c r="D9" s="3">
-        <v>2305</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="3">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -6679,19 +8736,22 @@
         <v>1080</v>
       </c>
       <c r="C10" s="3">
+        <v>17136</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1215</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2938</v>
+      </c>
+      <c r="F10" s="3">
         <v>402</v>
       </c>
-      <c r="D10" s="3">
-        <v>17136</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1215</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2938</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="3">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -6699,33 +8759,39 @@
         <v>2607</v>
       </c>
       <c r="C11" s="3">
+        <v>2288</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1588</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3620</v>
+      </c>
+      <c r="F11" s="3">
         <v>1487</v>
       </c>
-      <c r="D11" s="3">
-        <v>2288</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1588</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3620</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="3">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
+        <v>1187</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
         <v>1064</v>
       </c>
-      <c r="D12" s="3">
-        <v>1187</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="3">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -6733,19 +8799,22 @@
         <v>796</v>
       </c>
       <c r="C13" s="3">
+        <v>2721</v>
+      </c>
+      <c r="D13" s="3">
+        <v>678</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1397</v>
+      </c>
+      <c r="F13" s="3">
         <v>712</v>
       </c>
-      <c r="D13" s="3">
-        <v>2721</v>
-      </c>
-      <c r="E13" s="3">
-        <v>678</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="3">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -6753,19 +8822,22 @@
         <v>499</v>
       </c>
       <c r="C14" s="3">
+        <v>4968</v>
+      </c>
+      <c r="D14" s="3">
+        <v>692</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F14" s="3">
         <v>376</v>
       </c>
-      <c r="D14" s="3">
-        <v>4968</v>
-      </c>
-      <c r="E14" s="3">
-        <v>692</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -6773,19 +8845,22 @@
         <v>686</v>
       </c>
       <c r="C15" s="3">
+        <v>9384</v>
+      </c>
+      <c r="D15" s="3">
+        <v>796</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1528</v>
+      </c>
+      <c r="F15" s="3">
         <v>509</v>
       </c>
-      <c r="D15" s="3">
-        <v>9384</v>
-      </c>
-      <c r="E15" s="3">
-        <v>796</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="3">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -6793,16 +8868,19 @@
         <v>18221</v>
       </c>
       <c r="C16" s="3">
+        <v>71572</v>
+      </c>
+      <c r="D16" s="3">
+        <v>17151</v>
+      </c>
+      <c r="E16" s="3">
+        <v>25737</v>
+      </c>
+      <c r="F16" s="3">
         <v>16187</v>
       </c>
-      <c r="D16" s="3">
-        <v>71572</v>
-      </c>
-      <c r="E16" s="3">
-        <v>17151</v>
-      </c>
-      <c r="F16" s="3">
-        <v>25737</v>
+      <c r="G16" s="3">
+        <v>18959</v>
       </c>
     </row>
   </sheetData>
@@ -6813,27 +8891,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -6848,20 +8926,20 @@
     <col min="25" max="25" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -6869,10 +8947,19 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -6894,8 +8981,26 @@
       <c r="G5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -6903,18 +9008,30 @@
       <c r="C6" s="3">
         <v>962</v>
       </c>
-      <c r="D6" s="3">
-        <v>52</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3">
-        <v>201</v>
+        <v>2100</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3">
         <v>580</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
+        <v>52</v>
+      </c>
+      <c r="K6" s="3">
+        <v>201</v>
+      </c>
+      <c r="L6" s="3">
+        <v>62</v>
+      </c>
+      <c r="M6" s="3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -6922,18 +9039,30 @@
       <c r="C7" s="3">
         <v>1484</v>
       </c>
-      <c r="D7" s="3">
-        <v>65</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3">
-        <v>95</v>
+        <v>836</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3">
         <v>738</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
+        <v>65</v>
+      </c>
+      <c r="K7" s="3">
+        <v>95</v>
+      </c>
+      <c r="L7" s="3">
+        <v>105</v>
+      </c>
+      <c r="M7" s="3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -6941,18 +9070,30 @@
       <c r="C8" s="3">
         <v>1136</v>
       </c>
-      <c r="D8" s="3">
-        <v>452</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3">
-        <v>964</v>
+        <v>2454</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3">
         <v>988</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
+        <v>452</v>
+      </c>
+      <c r="K8" s="3">
+        <v>964</v>
+      </c>
+      <c r="L8" s="3">
+        <v>531</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -6960,33 +9101,57 @@
       <c r="C9" s="3">
         <v>1422</v>
       </c>
-      <c r="D9" s="3">
-        <v>422</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3">
-        <v>849</v>
+        <v>1588</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3">
         <v>1249</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
+        <v>422</v>
+      </c>
+      <c r="K9" s="3">
+        <v>849</v>
+      </c>
+      <c r="L9" s="3">
+        <v>545</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3">
-        <v>991</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3">
-        <v>2062</v>
+        <v>12315</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
+        <v>991</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2062</v>
+      </c>
+      <c r="L10" s="3">
+        <v>924</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -6994,18 +9159,30 @@
       <c r="C11" s="3">
         <v>3773</v>
       </c>
-      <c r="D11" s="3">
-        <v>995</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3">
-        <v>1708</v>
+        <v>32416</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3">
         <v>4055</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
+        <v>995</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1708</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1304</v>
+      </c>
+      <c r="M11" s="3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -7013,33 +9190,57 @@
       <c r="C12" s="3">
         <v>3158</v>
       </c>
-      <c r="D12" s="3">
-        <v>769</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3">
-        <v>1944</v>
+        <v>12269</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
         <v>2385</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
+        <v>769</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1944</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1068</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3">
-        <v>1325</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="3">
-        <v>1693</v>
+        <v>2686</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
+        <v>1325</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1693</v>
+      </c>
+      <c r="L13" s="3">
+        <v>642</v>
+      </c>
+      <c r="M13" s="3">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -7047,18 +9248,30 @@
       <c r="C14" s="3">
         <v>3786</v>
       </c>
-      <c r="D14" s="3">
-        <v>1469</v>
-      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3">
-        <v>2597</v>
+        <v>7181</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
         <v>3602</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <v>1469</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2597</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1515</v>
+      </c>
+      <c r="M14" s="3">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -7066,18 +9279,30 @@
       <c r="C15" s="3">
         <v>2831</v>
       </c>
-      <c r="D15" s="3">
-        <v>957</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="3">
-        <v>1723</v>
+        <v>16006</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
         <v>2479</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
+        <v>957</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1723</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1157</v>
+      </c>
+      <c r="M15" s="3">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -7085,18 +9310,30 @@
       <c r="C16" s="3">
         <v>2205</v>
       </c>
-      <c r="D16" s="3">
-        <v>750</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="3">
-        <v>982</v>
+        <v>15297</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3">
         <v>2304</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3">
+        <v>750</v>
+      </c>
+      <c r="K16" s="3">
+        <v>982</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1139</v>
+      </c>
+      <c r="M16" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -7104,15 +9341,27 @@
       <c r="C17" s="3">
         <v>20757</v>
       </c>
-      <c r="D17" s="3">
-        <v>8247</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="3">
-        <v>14818</v>
+        <v>105148</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3">
         <v>18380</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
+        <v>8247</v>
+      </c>
+      <c r="K17" s="3">
+        <v>14818</v>
+      </c>
+      <c r="L17" s="3">
+        <v>8992</v>
+      </c>
+      <c r="M17" s="3">
+        <v>17117</v>
       </c>
     </row>
   </sheetData>
@@ -7124,29 +9373,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -7159,20 +9408,20 @@
     <col min="25" max="25" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -7180,13 +9429,25 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="O4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -7202,8 +9463,32 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -7211,20 +9496,34 @@
       <c r="C6" s="3">
         <v>35410</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>93677</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
         <v>2193</v>
       </c>
-      <c r="E6" s="3">
+      <c r="K6" s="3">
         <v>7006</v>
       </c>
-      <c r="F6" s="3">
-        <v>2193</v>
-      </c>
-      <c r="G6" s="3">
-        <v>42416</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L6" s="3">
+        <v>1929</v>
+      </c>
+      <c r="M6" s="3">
+        <v>13568</v>
+      </c>
+      <c r="N6" s="3">
+        <v>4122</v>
+      </c>
+      <c r="O6" s="3">
+        <v>149661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -7232,20 +9531,34 @@
       <c r="C7" s="3">
         <v>46748</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>36186</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
         <v>2437</v>
       </c>
-      <c r="E7" s="3">
+      <c r="K7" s="3">
         <v>695</v>
       </c>
-      <c r="F7" s="3">
-        <v>2437</v>
-      </c>
-      <c r="G7" s="3">
-        <v>47443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L7" s="3">
+        <v>3976</v>
+      </c>
+      <c r="M7" s="3">
+        <v>13771</v>
+      </c>
+      <c r="N7" s="3">
+        <v>6413</v>
+      </c>
+      <c r="O7" s="3">
+        <v>97400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -7253,20 +9566,34 @@
       <c r="C8" s="3">
         <v>11180</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>20147</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
         <v>605</v>
       </c>
-      <c r="E8" s="3">
+      <c r="K8" s="3">
         <v>3213</v>
       </c>
-      <c r="F8" s="3">
-        <v>605</v>
-      </c>
-      <c r="G8" s="3">
-        <v>14393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L8" s="3">
+        <v>515</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3944</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1120</v>
+      </c>
+      <c r="O8" s="3">
+        <v>38484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -7274,39 +9601,67 @@
       <c r="C9" s="3">
         <v>11940</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>5838</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
         <v>652</v>
       </c>
-      <c r="E9" s="3">
+      <c r="K9" s="3">
         <v>3597</v>
       </c>
-      <c r="F9" s="3">
-        <v>652</v>
-      </c>
-      <c r="G9" s="3">
-        <v>15537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L9" s="3">
+        <v>808</v>
+      </c>
+      <c r="M9" s="3">
+        <v>3073</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1460</v>
+      </c>
+      <c r="O9" s="3">
+        <v>24448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>298963</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
         <v>17217</v>
       </c>
-      <c r="E10" s="3">
+      <c r="K10" s="3">
         <v>26094</v>
       </c>
-      <c r="F10" s="3">
-        <v>17217</v>
-      </c>
-      <c r="G10" s="3">
-        <v>26094</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L10" s="3">
+        <v>18569</v>
+      </c>
+      <c r="M10" s="3">
+        <v>29269</v>
+      </c>
+      <c r="N10" s="3">
+        <v>35786</v>
+      </c>
+      <c r="O10" s="3">
+        <v>354326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -7314,20 +9669,34 @@
       <c r="C11" s="3">
         <v>66831</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>396652</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
         <v>32380</v>
       </c>
-      <c r="E11" s="3">
+      <c r="K11" s="3">
         <v>44228</v>
       </c>
-      <c r="F11" s="3">
-        <v>32380</v>
-      </c>
-      <c r="G11" s="3">
-        <v>111059</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L11" s="3">
+        <v>34088</v>
+      </c>
+      <c r="M11" s="3">
+        <v>51141</v>
+      </c>
+      <c r="N11" s="3">
+        <v>66468</v>
+      </c>
+      <c r="O11" s="3">
+        <v>558852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -7335,39 +9704,67 @@
       <c r="C12" s="3">
         <v>48698</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>281792</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
         <v>16482</v>
       </c>
-      <c r="E12" s="3">
+      <c r="K12" s="3">
         <v>25592</v>
       </c>
-      <c r="F12" s="3">
-        <v>16482</v>
-      </c>
-      <c r="G12" s="3">
-        <v>74290</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L12" s="3">
+        <v>19010</v>
+      </c>
+      <c r="M12" s="3">
+        <v>29012</v>
+      </c>
+      <c r="N12" s="3">
+        <v>35492</v>
+      </c>
+      <c r="O12" s="3">
+        <v>385094</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>202582</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
         <v>12877</v>
       </c>
-      <c r="E13" s="3">
+      <c r="K13" s="3">
         <v>19017</v>
       </c>
-      <c r="F13" s="3">
-        <v>12877</v>
-      </c>
-      <c r="G13" s="3">
-        <v>19017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L13" s="3">
+        <v>14307</v>
+      </c>
+      <c r="M13" s="3">
+        <v>21756</v>
+      </c>
+      <c r="N13" s="3">
+        <v>27184</v>
+      </c>
+      <c r="O13" s="3">
+        <v>243355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -7375,20 +9772,34 @@
       <c r="C14" s="3">
         <v>96020</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>650882</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
         <v>37437</v>
       </c>
-      <c r="E14" s="3">
+      <c r="K14" s="3">
         <v>57687</v>
       </c>
-      <c r="F14" s="3">
-        <v>37437</v>
-      </c>
-      <c r="G14" s="3">
-        <v>153707</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L14" s="3">
+        <v>42673</v>
+      </c>
+      <c r="M14" s="3">
+        <v>65443</v>
+      </c>
+      <c r="N14" s="3">
+        <v>80110</v>
+      </c>
+      <c r="O14" s="3">
+        <v>870032</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -7396,20 +9807,34 @@
       <c r="C15" s="3">
         <v>81001</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <v>563322</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
         <v>31446</v>
       </c>
-      <c r="E15" s="3">
+      <c r="K15" s="3">
         <v>48448</v>
       </c>
-      <c r="F15" s="3">
-        <v>31446</v>
-      </c>
-      <c r="G15" s="3">
-        <v>129449</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L15" s="3">
+        <v>26137</v>
+      </c>
+      <c r="M15" s="3">
+        <v>41396</v>
+      </c>
+      <c r="N15" s="3">
+        <v>57583</v>
+      </c>
+      <c r="O15" s="3">
+        <v>734167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -7417,20 +9842,34 @@
       <c r="C16" s="3">
         <v>17899</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <v>141763</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3">
         <v>9549</v>
       </c>
-      <c r="E16" s="3">
+      <c r="K16" s="3">
         <v>15803</v>
       </c>
-      <c r="F16" s="3">
-        <v>9549</v>
-      </c>
-      <c r="G16" s="3">
-        <v>33702</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L16" s="3">
+        <v>7537</v>
+      </c>
+      <c r="M16" s="3">
+        <v>12818</v>
+      </c>
+      <c r="N16" s="3">
+        <v>17086</v>
+      </c>
+      <c r="O16" s="3">
+        <v>188283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -7438,17 +9877,31 @@
       <c r="C17" s="3">
         <v>415727</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <v>2691804</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
         <v>163275</v>
       </c>
-      <c r="E17" s="3">
+      <c r="K17" s="3">
         <v>251380</v>
       </c>
-      <c r="F17" s="3">
-        <v>163275</v>
-      </c>
-      <c r="G17" s="3">
-        <v>667107</v>
+      <c r="L17" s="3">
+        <v>169549</v>
+      </c>
+      <c r="M17" s="3">
+        <v>285191</v>
+      </c>
+      <c r="N17" s="3">
+        <v>332824</v>
+      </c>
+      <c r="O17" s="3">
+        <v>3644102</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="19155" windowHeight="7485"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="19155" windowHeight="7485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="34">
   <si>
     <t>Simple</t>
   </si>
@@ -120,12 +120,15 @@
   <si>
     <t>Revenj.Java</t>
   </si>
+  <si>
+    <t>(Multiple Items)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,17 +181,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="hr-HR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[results.xlsx]Simple!PivotTable1</c:name>
     <c:fmtId val="0"/>
@@ -211,9 +204,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -334,6 +325,9 @@
             <a:schemeClr val="accent2"/>
           </a:solidFill>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="26"/>
@@ -342,14 +336,20 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="27"/>
         <c:spPr>
           <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -357,7 +357,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -372,7 +371,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Simple!$A$5:$A$16</c:f>
@@ -470,7 +468,6 @@
               <a:schemeClr val="accent4"/>
             </a:solidFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Simple!$A$5:$A$16</c:f>
@@ -574,7 +571,6 @@
               <a:schemeClr val="accent3"/>
             </a:solidFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Simple!$A$5:$A$16</c:f>
@@ -672,7 +668,6 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Simple!$A$5:$A$16</c:f>
@@ -770,7 +765,6 @@
               <a:schemeClr val="accent2"/>
             </a:solidFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Simple!$A$5:$A$16</c:f>
@@ -871,10 +865,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Simple!$A$5:$A$16</c:f>
@@ -959,42 +952,30 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="100188928"/>
-        <c:axId val="100190464"/>
+        <c:dLbls/>
+        <c:axId val="92226688"/>
+        <c:axId val="92228224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100188928"/>
+        <c:axId val="92226688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100190464"/>
+        <c:crossAx val="92228224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100190464"/>
+        <c:axId val="92228224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8000"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1015,13 +996,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100188928"/>
+        <c:crossAx val="92226688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1034,11 +1013,10 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:extLst>
@@ -1056,17 +1034,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="hr-HR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[results.xlsx]Standard!PivotTable1</c:name>
     <c:fmtId val="1"/>
@@ -1094,9 +1062,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -1472,7 +1438,7 @@
         <c:idx val="55"/>
         <c:spPr>
           <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
         </c:spPr>
         <c:marker>
@@ -1481,6 +1447,14 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="56"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
@@ -1491,7 +1465,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1506,7 +1479,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Standard!$A$6:$A$17</c:f>
@@ -1577,7 +1549,6 @@
               <a:schemeClr val="accent1"/>
             </a:solidFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Standard!$A$6:$A$17</c:f>
@@ -1670,7 +1641,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Standard!$A$6:$A$17</c:f>
@@ -1741,7 +1711,6 @@
               <a:schemeClr val="accent4"/>
             </a:solidFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Standard!$A$6:$A$17</c:f>
@@ -1840,7 +1809,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Standard!$A$6:$A$17</c:f>
@@ -1911,7 +1879,6 @@
               <a:schemeClr val="accent3"/>
             </a:solidFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Standard!$A$6:$A$17</c:f>
@@ -1999,12 +1966,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hibernate - NoSQL</c:v>
+                  <c:v>Revenj.NET - NoSQL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>Standard!$A$6:$A$17</c:f>
@@ -2052,6 +2023,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1469</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>750</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2065,12 +2069,19 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hibernate - Relational</c:v>
+                  <c:v>Revenj.NET - Relational</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>Standard!$A$6:$A$17</c:f>
@@ -2118,6 +2129,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1693</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2597</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1723</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>982</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2131,17 +2175,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Revenj.NET - NoSQL</c:v>
+                  <c:v>Revenj.Java - NoSQL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Standard!$A$6:$A$17</c:f>
@@ -2190,37 +2233,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>452</c:v>
+                  <c:v>531</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>422</c:v>
+                  <c:v>545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>991</c:v>
+                  <c:v>924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>995</c:v>
+                  <c:v>1304</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>769</c:v>
+                  <c:v>1068</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1325</c:v>
+                  <c:v>642</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1469</c:v>
+                  <c:v>1515</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>957</c:v>
+                  <c:v>1157</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>750</c:v>
+                  <c:v>1139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2235,20 +2278,19 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Revenj.NET - Relational</c:v>
+                  <c:v>Revenj.Java - Relational</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
+              <a:schemeClr val="accent6">
                 <a:lumMod val="60000"/>
                 <a:lumOff val="40000"/>
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Standard!$A$6:$A$17</c:f>
@@ -2297,281 +2339,66 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>201</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>964</c:v>
+                  <c:v>1125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>849</c:v>
+                  <c:v>1120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2062</c:v>
+                  <c:v>2164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1708</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1944</c:v>
+                  <c:v>2315</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1693</c:v>
+                  <c:v>886</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2597</c:v>
+                  <c:v>2687</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1723</c:v>
+                  <c:v>2154</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>982</c:v>
+                  <c:v>2023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Standard!$L$3:$L$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Revenj.Java - NoSQL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Standard!$A$6:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Bulk insert</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Bulk update</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop insert (half)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop update (half)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Query all (x100)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Report (x1.000)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Search all (x100)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Query filter (x1.000)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Search subset (x3.000)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Find many (x2.000)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Find one (x5.000)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Standard!$L$6:$L$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>531</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>924</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1304</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1068</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>642</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1515</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1157</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1139</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Standard!$M$3:$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Revenj.Java - Relational</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Standard!$A$6:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Bulk insert</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Bulk update</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop insert (half)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop update (half)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Query all (x100)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Report (x1.000)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Search all (x100)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Query filter (x1.000)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Search subset (x3.000)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Find many (x2.000)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Find one (x5.000)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Standard!$M$6:$M$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>464</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2164</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2315</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>886</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2687</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2154</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="100317824"/>
-        <c:axId val="100319616"/>
+        <c:dLbls/>
+        <c:axId val="97142272"/>
+        <c:axId val="97143808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100317824"/>
+        <c:axId val="97142272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100319616"/>
+        <c:crossAx val="97143808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100319616"/>
+        <c:axId val="97143808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2592,13 +2419,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100317824"/>
+        <c:crossAx val="97142272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2611,11 +2436,10 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:extLst>
@@ -2633,17 +2457,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="hr-HR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[results.xlsx]Complex!PivotTable1</c:name>
     <c:fmtId val="2"/>
@@ -2671,9 +2485,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -3176,7 +2988,7 @@
         <c:idx val="77"/>
         <c:spPr>
           <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
         </c:spPr>
         <c:marker>
@@ -3185,6 +2997,14 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="78"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
@@ -3195,7 +3015,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3210,7 +3029,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Complex!$A$6:$A$17</c:f>
@@ -3281,7 +3099,6 @@
               <a:schemeClr val="accent1"/>
             </a:solidFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Complex!$A$6:$A$17</c:f>
@@ -3374,7 +3191,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Complex!$A$6:$A$17</c:f>
@@ -3445,7 +3261,6 @@
               <a:schemeClr val="accent4"/>
             </a:solidFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Complex!$A$6:$A$17</c:f>
@@ -3539,12 +3354,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JDBC - NoSQL</c:v>
+                  <c:v>Revenj.NET - NoSQL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>Complex!$A$6:$A$17</c:f>
@@ -3592,6 +3411,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17217</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16482</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37437</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31446</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9549</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3605,12 +3457,19 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JDBC - Relational</c:v>
+                  <c:v>Revenj.NET - Relational</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>Complex!$A$6:$A$17</c:f>
@@ -3658,6 +3517,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3597</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25592</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57687</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48448</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15803</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3671,12 +3563,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hibernate - NoSQL</c:v>
+                  <c:v>Revenj.Java - NoSQL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>Complex!$A$6:$A$17</c:f>
@@ -3724,6 +3620,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1929</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34088</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14307</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42673</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26137</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7537</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3737,12 +3666,19 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hibernate - Relational</c:v>
+                  <c:v>Revenj.Java - Relational</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>Complex!$A$6:$A$17</c:f>
@@ -3790,460 +3726,67 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9722</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3073</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21756</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12818</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Complex!$J$3:$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Revenj.NET - NoSQL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Complex!$A$6:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Bulk insert</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Bulk update</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop insert (half)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop update (half)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Query all (x100)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Report (x1.000)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Search all (x100)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Query filter (x1.000)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Search subset (x3.000)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Find many (x2.000)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Find one (x5.000)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Complex!$J$6:$J$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2193</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2437</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>605</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>652</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17217</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32380</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16482</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12877</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37437</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>31446</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9549</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Complex!$K$3:$K$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Revenj.NET - Relational</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Complex!$A$6:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Bulk insert</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Bulk update</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop insert (half)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop update (half)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Query all (x100)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Report (x1.000)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Search all (x100)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Query filter (x1.000)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Search subset (x3.000)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Find many (x2.000)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Find one (x5.000)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Complex!$K$6:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>7006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>695</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3213</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3597</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26094</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44228</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25592</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19017</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>57687</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>48448</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15803</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Complex!$L$3:$L$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Revenj.Java - NoSQL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Complex!$A$6:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Bulk insert</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Bulk update</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop insert (half)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop update (half)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Query all (x100)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Report (x1.000)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Search all (x100)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Query filter (x1.000)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Search subset (x3.000)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Find many (x2.000)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Find one (x5.000)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Complex!$L$6:$L$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1929</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3976</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>515</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>808</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18569</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34088</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19010</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14307</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42673</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26137</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7537</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Complex!$M$3:$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Revenj.Java - Relational</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Complex!$A$6:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Bulk insert</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Bulk update</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loop insert (half)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Loop update (half)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Query all (x100)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Report (x1.000)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Search all (x100)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Query filter (x1.000)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Search subset (x3.000)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Find many (x2.000)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Find one (x5.000)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Complex!$M$6:$M$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>13568</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13771</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3944</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3073</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29269</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>51141</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29012</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21756</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>65443</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41396</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12818</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="100784768"/>
-        <c:axId val="100790656"/>
+        <c:dLbls/>
+        <c:axId val="97694848"/>
+        <c:axId val="97696384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100784768"/>
+        <c:axId val="97694848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100790656"/>
+        <c:crossAx val="97696384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100790656"/>
+        <c:axId val="97696384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150000"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4264,13 +3807,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100784768"/>
+        <c:crossAx val="97694848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4283,11 +3824,10 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:extLst>
@@ -4413,7 +3953,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Rikard Pavelic" refreshedDate="42230.714507523146" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="66">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Rikard Pavelic" refreshedDate="42231.38133009259" createdVersion="4" refreshedVersion="3" minRefreshableVersion="3" recordCount="66">
   <cacheSource type="worksheet">
     <worksheetSource name="Table3"/>
   </cacheSource>
@@ -4431,10 +3971,10 @@
         <s v="Find many (x2.000)"/>
         <s v="Find one (x5.000)"/>
         <s v="Report (x1.000)"/>
+        <s v="Search subset (x5.000)" u="1"/>
         <s v="Find many (x10.000)" u="1"/>
-        <s v="Search subset (x5.000)" u="1"/>
+        <s v="Query all (x1.000)" u="1"/>
         <s v="Find one (x10.000)" u="1"/>
-        <s v="Query all (x1.000)" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Simple" numFmtId="0">
@@ -4460,11 +4000,11 @@
         <s v="JDBC"/>
         <s v="Hibernate"/>
         <s v="Revenj.Java"/>
+        <s v="Revenj" u="1"/>
+        <s v="MsSql ADO.NET" u="1"/>
         <s v="Revenj Postgres" u="1"/>
-        <s v="MsSql ADO.NET" u="1"/>
         <s v="[[description]]" u="1"/>
         <s v="JDBC Postgres" u="1"/>
-        <s v="Revenj" u="1"/>
         <s v="EF Postgres" u="1"/>
       </sharedItems>
     </cacheField>
@@ -5046,7 +4586,7 @@
     <n v="62"/>
     <n v="464"/>
     <n v="1929"/>
-    <n v="13568"/>
+    <n v="8500"/>
     <x v="5"/>
     <x v="5"/>
   </r>
@@ -5056,7 +4596,7 @@
     <n v="105"/>
     <n v="168"/>
     <n v="3976"/>
-    <n v="13771"/>
+    <n v="9722"/>
     <x v="5"/>
     <x v="5"/>
   </r>
@@ -5106,7 +4646,7 @@
     <n v="924"/>
     <n v="2164"/>
     <n v="18569"/>
-    <n v="29269"/>
+    <n v="28668"/>
     <x v="5"/>
     <x v="5"/>
   </r>
@@ -5154,22 +4694,22 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:G16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="16">
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
         <item x="2"/>
         <item x="3"/>
-        <item m="1" x="14"/>
+        <item m="1" x="13"/>
         <item x="6"/>
         <item x="10"/>
         <item x="4"/>
-        <item m="1" x="12"/>
+        <item m="1" x="11"/>
         <item x="7"/>
         <item x="5"/>
         <item x="8"/>
@@ -5184,13 +4724,13 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="13">
-        <item m="1" x="8"/>
+        <item m="1" x="9"/>
         <item m="1" x="7"/>
         <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="11"/>
+        <item m="1" x="10"/>
         <item m="1" x="6"/>
-        <item m="1" x="11"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -5533,22 +5073,22 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" chartFormat="2">
-  <location ref="A3:M17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" chartFormat="2">
+  <location ref="A3:K17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="16">
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
         <item x="2"/>
         <item x="3"/>
-        <item m="1" x="14"/>
+        <item m="1" x="13"/>
         <item x="6"/>
         <item x="10"/>
         <item x="4"/>
-        <item m="1" x="12"/>
+        <item m="1" x="11"/>
         <item x="7"/>
         <item x="5"/>
         <item x="8"/>
@@ -5563,13 +5103,13 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="13">
-        <item m="1" x="8"/>
+        <item m="1" x="9"/>
         <item m="1" x="7"/>
         <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="11"/>
+        <item m="1" x="10"/>
         <item m="1" x="6"/>
-        <item m="1" x="11"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -5584,7 +5124,7 @@
         <item x="3"/>
         <item x="0"/>
         <item m="1" x="6"/>
-        <item x="4"/>
+        <item h="1" x="4"/>
         <item x="1"/>
         <item x="5"/>
       </items>
@@ -5635,7 +5175,7 @@
     <field x="6"/>
     <field x="-2"/>
   </colFields>
-  <colItems count="12">
+  <colItems count="10">
     <i>
       <x v="2"/>
       <x/>
@@ -5652,13 +5192,6 @@
     </i>
     <i>
       <x v="8"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="9"/>
       <x/>
     </i>
     <i r="1" i="1">
@@ -6217,22 +5750,22 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:O17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:K17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="16">
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
         <item x="2"/>
         <item x="3"/>
-        <item m="1" x="14"/>
+        <item m="1" x="13"/>
         <item x="6"/>
         <item x="10"/>
         <item x="4"/>
-        <item m="1" x="12"/>
+        <item m="1" x="11"/>
         <item x="7"/>
         <item x="5"/>
         <item x="8"/>
@@ -6247,13 +5780,13 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="13">
-        <item m="1" x="8"/>
+        <item m="1" x="9"/>
         <item m="1" x="7"/>
         <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="11"/>
+        <item m="1" x="10"/>
         <item m="1" x="6"/>
-        <item m="1" x="11"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -6265,10 +5798,10 @@
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
       <items count="7">
         <item x="2"/>
-        <item x="3"/>
+        <item h="1" x="3"/>
         <item x="0"/>
         <item m="1" x="6"/>
-        <item x="4"/>
+        <item h="1" x="4"/>
         <item x="1"/>
         <item x="5"/>
       </items>
@@ -6319,7 +5852,7 @@
     <field x="6"/>
     <field x="-2"/>
   </colFields>
-  <colItems count="14">
+  <colItems count="10">
     <i>
       <x v="2"/>
       <x/>
@@ -6329,20 +5862,6 @@
     </i>
     <i>
       <x v="7"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="9"/>
       <x/>
     </i>
     <i r="1" i="1">
@@ -6965,7 +6484,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -7000,7 +6518,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7176,12 +6693,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
@@ -7192,7 +6709,7 @@
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -7218,7 +6735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7238,7 +6755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -7258,7 +6775,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -7278,7 +6795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -7298,7 +6815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -7318,7 +6835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -7338,7 +6855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -7349,7 +6866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -7360,7 +6877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -7380,7 +6897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -7400,7 +6917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7420,7 +6937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -7446,7 +6963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -7472,7 +6989,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -7498,7 +7015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -7524,7 +7041,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -7550,7 +7067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -7576,7 +7093,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -7602,7 +7119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7628,7 +7145,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -7654,7 +7171,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -7680,7 +7197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -7706,7 +7223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -7726,7 +7243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -7746,7 +7263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -7766,7 +7283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -7786,7 +7303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -7806,7 +7323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -7826,7 +7343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -7846,7 +7363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -7866,7 +7383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -7886,7 +7403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -7906,7 +7423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -7926,7 +7443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -7943,7 +7460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -7960,7 +7477,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -7977,7 +7494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -7994,7 +7511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -8011,7 +7528,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -8028,7 +7545,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -8039,7 +7556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -8050,7 +7567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -8067,7 +7584,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -8084,7 +7601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -8101,7 +7618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -8115,7 +7632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -8129,7 +7646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -8143,7 +7660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -8157,7 +7674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -8171,7 +7688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -8185,7 +7702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -8196,7 +7713,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -8207,7 +7724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -8221,7 +7738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -8235,7 +7752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -8249,7 +7766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -8275,7 +7792,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -8301,7 +7818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -8327,7 +7844,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -8353,7 +7870,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -8379,7 +7896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -8405,7 +7922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -8431,7 +7948,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -8457,7 +7974,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -8483,7 +8000,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -8509,7 +8026,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -8545,14 +8062,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
@@ -8580,7 +8095,7 @@
     <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -8588,7 +8103,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -8596,7 +8111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -8619,7 +8134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -8642,7 +8157,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -8665,7 +8180,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -8688,7 +8203,7 @@
         <v>4640</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -8711,7 +8226,7 @@
         <v>4855</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -8728,7 +8243,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -8751,7 +8266,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -8774,7 +8289,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -8791,7 +8306,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -8814,7 +8329,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -8837,7 +8352,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -8860,7 +8375,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -8890,25 +8405,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
@@ -8926,20 +8441,20 @@
     <col min="25" max="25" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -8950,16 +8465,13 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -8993,14 +8505,8 @@
       <c r="K5" t="s">
         <v>18</v>
       </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -9016,22 +8522,20 @@
       <c r="G6" s="3">
         <v>580</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="3">
+        <v>52</v>
+      </c>
+      <c r="I6" s="3">
+        <v>201</v>
+      </c>
       <c r="J6" s="3">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K6" s="3">
-        <v>201</v>
-      </c>
-      <c r="L6" s="3">
-        <v>62</v>
-      </c>
-      <c r="M6" s="3">
         <v>464</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -9047,22 +8551,20 @@
       <c r="G7" s="3">
         <v>738</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="3">
+        <v>65</v>
+      </c>
+      <c r="I7" s="3">
+        <v>95</v>
+      </c>
       <c r="J7" s="3">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="K7" s="3">
-        <v>95</v>
-      </c>
-      <c r="L7" s="3">
-        <v>105</v>
-      </c>
-      <c r="M7" s="3">
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -9078,22 +8580,20 @@
       <c r="G8" s="3">
         <v>988</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="H8" s="3">
+        <v>452</v>
+      </c>
+      <c r="I8" s="3">
+        <v>964</v>
+      </c>
       <c r="J8" s="3">
-        <v>452</v>
+        <v>531</v>
       </c>
       <c r="K8" s="3">
-        <v>964</v>
-      </c>
-      <c r="L8" s="3">
-        <v>531</v>
-      </c>
-      <c r="M8" s="3">
         <v>1125</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -9109,22 +8609,20 @@
       <c r="G9" s="3">
         <v>1249</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="3">
+        <v>422</v>
+      </c>
+      <c r="I9" s="3">
+        <v>849</v>
+      </c>
       <c r="J9" s="3">
-        <v>422</v>
+        <v>545</v>
       </c>
       <c r="K9" s="3">
-        <v>849</v>
-      </c>
-      <c r="L9" s="3">
-        <v>545</v>
-      </c>
-      <c r="M9" s="3">
         <v>1120</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -9136,22 +8634,20 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="3">
+        <v>991</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2062</v>
+      </c>
       <c r="J10" s="3">
-        <v>991</v>
+        <v>924</v>
       </c>
       <c r="K10" s="3">
-        <v>2062</v>
-      </c>
-      <c r="L10" s="3">
-        <v>924</v>
-      </c>
-      <c r="M10" s="3">
         <v>2164</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -9167,22 +8663,20 @@
       <c r="G11" s="3">
         <v>4055</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="3">
+        <v>995</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1708</v>
+      </c>
       <c r="J11" s="3">
-        <v>995</v>
+        <v>1304</v>
       </c>
       <c r="K11" s="3">
-        <v>1708</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1304</v>
-      </c>
-      <c r="M11" s="3">
         <v>2011</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -9198,22 +8692,20 @@
       <c r="G12" s="3">
         <v>2385</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="3">
+        <v>769</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1944</v>
+      </c>
       <c r="J12" s="3">
-        <v>769</v>
+        <v>1068</v>
       </c>
       <c r="K12" s="3">
-        <v>1944</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1068</v>
-      </c>
-      <c r="M12" s="3">
         <v>2315</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -9225,22 +8717,20 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="3">
+        <v>1325</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1693</v>
+      </c>
       <c r="J13" s="3">
-        <v>1325</v>
+        <v>642</v>
       </c>
       <c r="K13" s="3">
-        <v>1693</v>
-      </c>
-      <c r="L13" s="3">
-        <v>642</v>
-      </c>
-      <c r="M13" s="3">
         <v>886</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -9256,22 +8746,20 @@
       <c r="G14" s="3">
         <v>3602</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="3">
+        <v>1469</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2597</v>
+      </c>
       <c r="J14" s="3">
-        <v>1469</v>
+        <v>1515</v>
       </c>
       <c r="K14" s="3">
-        <v>2597</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1515</v>
-      </c>
-      <c r="M14" s="3">
         <v>2687</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -9287,22 +8775,20 @@
       <c r="G15" s="3">
         <v>2479</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="3">
+        <v>957</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1723</v>
+      </c>
       <c r="J15" s="3">
-        <v>957</v>
+        <v>1157</v>
       </c>
       <c r="K15" s="3">
-        <v>1723</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1157</v>
-      </c>
-      <c r="M15" s="3">
         <v>2154</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -9318,22 +8804,20 @@
       <c r="G16" s="3">
         <v>2304</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="3">
+        <v>750</v>
+      </c>
+      <c r="I16" s="3">
+        <v>982</v>
+      </c>
       <c r="J16" s="3">
-        <v>750</v>
+        <v>1139</v>
       </c>
       <c r="K16" s="3">
-        <v>982</v>
-      </c>
-      <c r="L16" s="3">
-        <v>1139</v>
-      </c>
-      <c r="M16" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -9349,18 +8833,16 @@
       <c r="G17" s="3">
         <v>18380</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="3">
+        <v>8247</v>
+      </c>
+      <c r="I17" s="3">
+        <v>14818</v>
+      </c>
       <c r="J17" s="3">
-        <v>8247</v>
+        <v>8992</v>
       </c>
       <c r="K17" s="3">
-        <v>14818</v>
-      </c>
-      <c r="L17" s="3">
-        <v>8992</v>
-      </c>
-      <c r="M17" s="3">
         <v>17117</v>
       </c>
     </row>
@@ -9372,26 +8854,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -9408,20 +8890,20 @@
     <col min="25" max="25" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -9429,25 +8911,19 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="O4" t="s">
+      <c r="K4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -9475,20 +8951,8 @@
       <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -9500,30 +8964,26 @@
       <c r="E6" s="3">
         <v>93677</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="F6" s="3">
+        <v>2193</v>
+      </c>
+      <c r="G6" s="3">
+        <v>7006</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1929</v>
+      </c>
+      <c r="I6" s="3">
+        <v>8500</v>
+      </c>
       <c r="J6" s="3">
-        <v>2193</v>
+        <v>4122</v>
       </c>
       <c r="K6" s="3">
-        <v>7006</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1929</v>
-      </c>
-      <c r="M6" s="3">
-        <v>13568</v>
-      </c>
-      <c r="N6" s="3">
-        <v>4122</v>
-      </c>
-      <c r="O6" s="3">
-        <v>149661</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>144593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -9535,30 +8995,26 @@
       <c r="E7" s="3">
         <v>36186</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="F7" s="3">
+        <v>2437</v>
+      </c>
+      <c r="G7" s="3">
+        <v>695</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3976</v>
+      </c>
+      <c r="I7" s="3">
+        <v>9722</v>
+      </c>
       <c r="J7" s="3">
-        <v>2437</v>
+        <v>6413</v>
       </c>
       <c r="K7" s="3">
-        <v>695</v>
-      </c>
-      <c r="L7" s="3">
-        <v>3976</v>
-      </c>
-      <c r="M7" s="3">
-        <v>13771</v>
-      </c>
-      <c r="N7" s="3">
-        <v>6413</v>
-      </c>
-      <c r="O7" s="3">
-        <v>97400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>93351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -9570,30 +9026,26 @@
       <c r="E8" s="3">
         <v>20147</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="F8" s="3">
+        <v>605</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3213</v>
+      </c>
+      <c r="H8" s="3">
+        <v>515</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3944</v>
+      </c>
       <c r="J8" s="3">
-        <v>605</v>
+        <v>1120</v>
       </c>
       <c r="K8" s="3">
-        <v>3213</v>
-      </c>
-      <c r="L8" s="3">
-        <v>515</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3944</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1120</v>
-      </c>
-      <c r="O8" s="3">
         <v>38484</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -9605,30 +9057,26 @@
       <c r="E9" s="3">
         <v>5838</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="F9" s="3">
+        <v>652</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3597</v>
+      </c>
+      <c r="H9" s="3">
+        <v>808</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3073</v>
+      </c>
       <c r="J9" s="3">
-        <v>652</v>
+        <v>1460</v>
       </c>
       <c r="K9" s="3">
-        <v>3597</v>
-      </c>
-      <c r="L9" s="3">
-        <v>808</v>
-      </c>
-      <c r="M9" s="3">
-        <v>3073</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1460</v>
-      </c>
-      <c r="O9" s="3">
         <v>24448</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -9638,30 +9086,26 @@
       <c r="E10" s="3">
         <v>298963</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="F10" s="3">
+        <v>17217</v>
+      </c>
+      <c r="G10" s="3">
+        <v>26094</v>
+      </c>
+      <c r="H10" s="3">
+        <v>18569</v>
+      </c>
+      <c r="I10" s="3">
+        <v>28668</v>
+      </c>
       <c r="J10" s="3">
-        <v>17217</v>
+        <v>35786</v>
       </c>
       <c r="K10" s="3">
-        <v>26094</v>
-      </c>
-      <c r="L10" s="3">
-        <v>18569</v>
-      </c>
-      <c r="M10" s="3">
-        <v>29269</v>
-      </c>
-      <c r="N10" s="3">
-        <v>35786</v>
-      </c>
-      <c r="O10" s="3">
-        <v>354326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>353725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -9673,30 +9117,26 @@
       <c r="E11" s="3">
         <v>396652</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="F11" s="3">
+        <v>32380</v>
+      </c>
+      <c r="G11" s="3">
+        <v>44228</v>
+      </c>
+      <c r="H11" s="3">
+        <v>34088</v>
+      </c>
+      <c r="I11" s="3">
+        <v>51141</v>
+      </c>
       <c r="J11" s="3">
-        <v>32380</v>
+        <v>66468</v>
       </c>
       <c r="K11" s="3">
-        <v>44228</v>
-      </c>
-      <c r="L11" s="3">
-        <v>34088</v>
-      </c>
-      <c r="M11" s="3">
-        <v>51141</v>
-      </c>
-      <c r="N11" s="3">
-        <v>66468</v>
-      </c>
-      <c r="O11" s="3">
         <v>558852</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -9708,30 +9148,26 @@
       <c r="E12" s="3">
         <v>281792</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="F12" s="3">
+        <v>16482</v>
+      </c>
+      <c r="G12" s="3">
+        <v>25592</v>
+      </c>
+      <c r="H12" s="3">
+        <v>19010</v>
+      </c>
+      <c r="I12" s="3">
+        <v>29012</v>
+      </c>
       <c r="J12" s="3">
-        <v>16482</v>
+        <v>35492</v>
       </c>
       <c r="K12" s="3">
-        <v>25592</v>
-      </c>
-      <c r="L12" s="3">
-        <v>19010</v>
-      </c>
-      <c r="M12" s="3">
-        <v>29012</v>
-      </c>
-      <c r="N12" s="3">
-        <v>35492</v>
-      </c>
-      <c r="O12" s="3">
         <v>385094</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -9741,30 +9177,26 @@
       <c r="E13" s="3">
         <v>202582</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="F13" s="3">
+        <v>12877</v>
+      </c>
+      <c r="G13" s="3">
+        <v>19017</v>
+      </c>
+      <c r="H13" s="3">
+        <v>14307</v>
+      </c>
+      <c r="I13" s="3">
+        <v>21756</v>
+      </c>
       <c r="J13" s="3">
-        <v>12877</v>
+        <v>27184</v>
       </c>
       <c r="K13" s="3">
-        <v>19017</v>
-      </c>
-      <c r="L13" s="3">
-        <v>14307</v>
-      </c>
-      <c r="M13" s="3">
-        <v>21756</v>
-      </c>
-      <c r="N13" s="3">
-        <v>27184</v>
-      </c>
-      <c r="O13" s="3">
         <v>243355</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -9776,30 +9208,26 @@
       <c r="E14" s="3">
         <v>650882</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="F14" s="3">
+        <v>37437</v>
+      </c>
+      <c r="G14" s="3">
+        <v>57687</v>
+      </c>
+      <c r="H14" s="3">
+        <v>42673</v>
+      </c>
+      <c r="I14" s="3">
+        <v>65443</v>
+      </c>
       <c r="J14" s="3">
-        <v>37437</v>
+        <v>80110</v>
       </c>
       <c r="K14" s="3">
-        <v>57687</v>
-      </c>
-      <c r="L14" s="3">
-        <v>42673</v>
-      </c>
-      <c r="M14" s="3">
-        <v>65443</v>
-      </c>
-      <c r="N14" s="3">
-        <v>80110</v>
-      </c>
-      <c r="O14" s="3">
         <v>870032</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -9811,30 +9239,26 @@
       <c r="E15" s="3">
         <v>563322</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="F15" s="3">
+        <v>31446</v>
+      </c>
+      <c r="G15" s="3">
+        <v>48448</v>
+      </c>
+      <c r="H15" s="3">
+        <v>26137</v>
+      </c>
+      <c r="I15" s="3">
+        <v>41396</v>
+      </c>
       <c r="J15" s="3">
-        <v>31446</v>
+        <v>57583</v>
       </c>
       <c r="K15" s="3">
-        <v>48448</v>
-      </c>
-      <c r="L15" s="3">
-        <v>26137</v>
-      </c>
-      <c r="M15" s="3">
-        <v>41396</v>
-      </c>
-      <c r="N15" s="3">
-        <v>57583</v>
-      </c>
-      <c r="O15" s="3">
         <v>734167</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -9846,30 +9270,26 @@
       <c r="E16" s="3">
         <v>141763</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="F16" s="3">
+        <v>9549</v>
+      </c>
+      <c r="G16" s="3">
+        <v>15803</v>
+      </c>
+      <c r="H16" s="3">
+        <v>7537</v>
+      </c>
+      <c r="I16" s="3">
+        <v>12818</v>
+      </c>
       <c r="J16" s="3">
-        <v>9549</v>
+        <v>17086</v>
       </c>
       <c r="K16" s="3">
-        <v>15803</v>
-      </c>
-      <c r="L16" s="3">
-        <v>7537</v>
-      </c>
-      <c r="M16" s="3">
-        <v>12818</v>
-      </c>
-      <c r="N16" s="3">
-        <v>17086</v>
-      </c>
-      <c r="O16" s="3">
         <v>188283</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -9881,27 +9301,23 @@
       <c r="E17" s="3">
         <v>2691804</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="F17" s="3">
+        <v>163275</v>
+      </c>
+      <c r="G17" s="3">
+        <v>251380</v>
+      </c>
+      <c r="H17" s="3">
+        <v>169549</v>
+      </c>
+      <c r="I17" s="3">
+        <v>275473</v>
+      </c>
       <c r="J17" s="3">
-        <v>163275</v>
+        <v>332824</v>
       </c>
       <c r="K17" s="3">
-        <v>251380</v>
-      </c>
-      <c r="L17" s="3">
-        <v>169549</v>
-      </c>
-      <c r="M17" s="3">
-        <v>285191</v>
-      </c>
-      <c r="N17" s="3">
-        <v>332824</v>
-      </c>
-      <c r="O17" s="3">
-        <v>3644102</v>
+        <v>3634384</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="19155" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="19155" windowHeight="7485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="10" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="34">
   <si>
     <t>Simple</t>
   </si>
@@ -127,8 +127,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,7 +181,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="hr-HR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[results.xlsx]Simple!PivotTable1</c:name>
     <c:fmtId val="0"/>
@@ -204,7 +214,9 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -357,6 +369,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -371,6 +384,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Simple!$A$5:$A$16</c:f>
@@ -468,6 +482,7 @@
               <a:schemeClr val="accent4"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Simple!$A$5:$A$16</c:f>
@@ -571,6 +586,7 @@
               <a:schemeClr val="accent3"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Simple!$A$5:$A$16</c:f>
@@ -668,6 +684,7 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Simple!$A$5:$A$16</c:f>
@@ -716,31 +733,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2467</c:v>
+                  <c:v>2429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1945</c:v>
+                  <c:v>4052</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5251</c:v>
+                  <c:v>9960</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5589</c:v>
+                  <c:v>7008</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2938</c:v>
+                  <c:v>2564</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3620</c:v>
+                  <c:v>3765</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1397</c:v>
+                  <c:v>1443</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1002</c:v>
+                  <c:v>1039</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1528</c:v>
+                  <c:v>1215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -765,6 +782,7 @@
               <a:schemeClr val="accent2"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Simple!$A$5:$A$16</c:f>
@@ -868,6 +886,7 @@
               <a:schemeClr val="accent6"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Simple!$A$5:$A$16</c:f>
@@ -916,7 +935,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>182</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>232</c:v>
@@ -937,13 +956,13 @@
                   <c:v>1933</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2218</c:v>
+                  <c:v>2169</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>654</c:v>
+                  <c:v>615</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>866</c:v>
@@ -952,30 +971,42 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="92226688"/>
-        <c:axId val="92228224"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="106368000"/>
+        <c:axId val="106386176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92226688"/>
+        <c:axId val="106368000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92228224"/>
+        <c:crossAx val="106386176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92228224"/>
+        <c:axId val="106386176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8000"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -996,11 +1027,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92226688"/>
+        <c:crossAx val="106368000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1013,6 +1046,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1034,7 +1068,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="hr-HR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[results.xlsx]Standard!PivotTable1</c:name>
     <c:fmtId val="1"/>
@@ -1062,7 +1106,9 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -1405,6 +1451,11 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="52"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
@@ -1465,6 +1516,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1479,6 +1531,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Standard!$A$6:$A$17</c:f>
@@ -1549,6 +1602,7 @@
               <a:schemeClr val="accent1"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Standard!$A$6:$A$17</c:f>
@@ -1641,6 +1695,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Standard!$A$6:$A$17</c:f>
@@ -1711,6 +1766,7 @@
               <a:schemeClr val="accent4"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Standard!$A$6:$A$17</c:f>
@@ -1809,6 +1865,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Standard!$A$6:$A$17</c:f>
@@ -1879,6 +1936,7 @@
               <a:schemeClr val="accent3"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Standard!$A$6:$A$17</c:f>
@@ -1966,16 +2024,12 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Revenj.NET - NoSQL</c:v>
+                  <c:v>Hibernate - NoSQL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Standard!$A$6:$A$17</c:f>
@@ -2023,39 +2077,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>422</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>991</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>769</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1325</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1469</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>957</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>750</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2069,19 +2090,17 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Revenj.NET - Relational</c:v>
+                  <c:v>Hibernate - Relational</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Standard!$A$6:$A$17</c:f>
@@ -2130,37 +2149,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>201</c:v>
+                  <c:v>2825</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95</c:v>
+                  <c:v>2292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>964</c:v>
+                  <c:v>4520</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>849</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2062</c:v>
+                  <c:v>1487</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1708</c:v>
+                  <c:v>7193</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1944</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1693</c:v>
+                  <c:v>26165</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2597</c:v>
+                  <c:v>12218</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1723</c:v>
+                  <c:v>7713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>982</c:v>
+                  <c:v>14400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2175,16 +2188,17 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Revenj.Java - NoSQL</c:v>
+                  <c:v>Revenj.NET - NoSQL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Standard!$A$6:$A$17</c:f>
@@ -2233,37 +2247,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>62</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>531</c:v>
+                  <c:v>452</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>545</c:v>
+                  <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>924</c:v>
+                  <c:v>991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1304</c:v>
+                  <c:v>995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1068</c:v>
+                  <c:v>769</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>642</c:v>
+                  <c:v>1325</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1515</c:v>
+                  <c:v>1469</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1157</c:v>
+                  <c:v>957</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1139</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2278,6 +2292,217 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
+                  <c:v>Revenj.NET - Relational</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Standard!$A$6:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Standard!$K$6:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1693</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2597</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1723</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Standard!$L$3:$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenj.Java - NoSQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Standard!$A$6:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bulk insert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bulk update</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Loop insert (half)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Loop update (half)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Search all (x100)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query filter (x1.000)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Search subset (x3.000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Find many (x2.000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Find one (x5.000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Standard!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>879</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1034</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Standard!$M$3:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>Revenj.Java - Relational</c:v>
                 </c:pt>
               </c:strCache>
@@ -2291,6 +2516,7 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Standard!$A$6:$A$17</c:f>
@@ -2334,7 +2560,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Standard!$K$6:$K$17</c:f>
+              <c:f>Standard!$M$6:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2342,7 +2568,7 @@
                   <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>168</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1125</c:v>
@@ -2351,16 +2577,16 @@
                   <c:v>1120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2164</c:v>
+                  <c:v>2105</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2315</c:v>
+                  <c:v>2271</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>886</c:v>
+                  <c:v>1404</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2687</c:v>
@@ -2375,30 +2601,42 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="97142272"/>
-        <c:axId val="97143808"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="106885504"/>
+        <c:axId val="106887040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97142272"/>
+        <c:axId val="106885504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97143808"/>
+        <c:crossAx val="106887040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97143808"/>
+        <c:axId val="106887040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2419,11 +2657,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97142272"/>
+        <c:crossAx val="106885504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2436,6 +2676,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2457,7 +2698,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="hr-HR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[results.xlsx]Complex!PivotTable1</c:name>
     <c:fmtId val="2"/>
@@ -2484,8 +2735,9 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -3015,6 +3267,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3029,6 +3282,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Complex!$A$6:$A$17</c:f>
@@ -3099,6 +3353,7 @@
               <a:schemeClr val="accent1"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Complex!$A$6:$A$17</c:f>
@@ -3191,6 +3446,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Complex!$A$6:$A$17</c:f>
@@ -3261,6 +3517,7 @@
               <a:schemeClr val="accent4"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Complex!$A$6:$A$17</c:f>
@@ -3364,6 +3621,7 @@
               <a:schemeClr val="accent2"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Complex!$A$6:$A$17</c:f>
@@ -3470,6 +3728,7 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Complex!$A$6:$A$17</c:f>
@@ -3573,6 +3832,7 @@
               <a:schemeClr val="accent6"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Complex!$A$6:$A$17</c:f>
@@ -3679,6 +3939,7 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Complex!$A$6:$A$17</c:f>
@@ -3763,30 +4024,42 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="97694848"/>
-        <c:axId val="97696384"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="106902656"/>
+        <c:axId val="106904192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97694848"/>
+        <c:axId val="106902656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97696384"/>
+        <c:crossAx val="106904192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97696384"/>
+        <c:axId val="106904192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150000"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3806,12 +4079,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97694848"/>
+        <c:crossAx val="106902656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3824,6 +4098,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3953,7 +4228,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Rikard Pavelic" refreshedDate="42231.38133009259" createdVersion="4" refreshedVersion="3" minRefreshableVersion="3" recordCount="66">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Rikard Pavelic" refreshedDate="42236.096996412038" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="66">
   <cacheSource type="worksheet">
     <worksheetSource name="Table3"/>
   </cacheSource>
@@ -3971,17 +4246,17 @@
         <s v="Find many (x2.000)"/>
         <s v="Find one (x5.000)"/>
         <s v="Report (x1.000)"/>
+        <s v="Find many (x10.000)" u="1"/>
         <s v="Search subset (x5.000)" u="1"/>
-        <s v="Find many (x10.000)" u="1"/>
+        <s v="Find one (x10.000)" u="1"/>
         <s v="Query all (x1.000)" u="1"/>
-        <s v="Find one (x10.000)" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Simple" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="123" maxValue="17136"/>
     </cacheField>
     <cacheField name="Standard objects" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="52" maxValue="1515"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="52" maxValue="1469"/>
     </cacheField>
     <cacheField name="Standard relations" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="95" maxValue="32416"/>
@@ -4000,11 +4275,11 @@
         <s v="JDBC"/>
         <s v="Hibernate"/>
         <s v="Revenj.Java"/>
-        <s v="Revenj" u="1"/>
+        <s v="Revenj Postgres" u="1"/>
         <s v="MsSql ADO.NET" u="1"/>
-        <s v="Revenj Postgres" u="1"/>
         <s v="[[description]]" u="1"/>
         <s v="JDBC Postgres" u="1"/>
+        <s v="Revenj" u="1"/>
         <s v="EF Postgres" u="1"/>
       </sharedItems>
     </cacheField>
@@ -4472,9 +4747,9 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="2467"/>
-    <m/>
-    <m/>
+    <n v="2429"/>
+    <m/>
+    <n v="2825"/>
     <m/>
     <m/>
     <x v="4"/>
@@ -4482,9 +4757,9 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="1945"/>
-    <m/>
-    <m/>
+    <n v="4052"/>
+    <m/>
+    <n v="2292"/>
     <m/>
     <m/>
     <x v="4"/>
@@ -4492,9 +4767,9 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="5251"/>
-    <m/>
-    <m/>
+    <n v="9960"/>
+    <m/>
+    <n v="4520"/>
     <m/>
     <m/>
     <x v="4"/>
@@ -4502,9 +4777,9 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="5589"/>
-    <m/>
-    <m/>
+    <n v="7008"/>
+    <m/>
+    <n v="1487"/>
     <m/>
     <m/>
     <x v="4"/>
@@ -4512,9 +4787,9 @@
   </r>
   <r>
     <x v="4"/>
-    <n v="3620"/>
-    <m/>
-    <m/>
+    <n v="3765"/>
+    <m/>
+    <n v="26165"/>
     <m/>
     <m/>
     <x v="4"/>
@@ -4522,9 +4797,9 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="1397"/>
-    <m/>
-    <m/>
+    <n v="1443"/>
+    <m/>
+    <n v="12218"/>
     <m/>
     <m/>
     <x v="4"/>
@@ -4552,9 +4827,9 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="1002"/>
-    <m/>
-    <m/>
+    <n v="1039"/>
+    <m/>
+    <n v="7713"/>
     <m/>
     <m/>
     <x v="4"/>
@@ -4562,9 +4837,9 @@
   </r>
   <r>
     <x v="9"/>
-    <n v="1528"/>
-    <m/>
-    <m/>
+    <n v="1215"/>
+    <m/>
+    <n v="14400"/>
     <m/>
     <m/>
     <x v="4"/>
@@ -4572,9 +4847,9 @@
   </r>
   <r>
     <x v="10"/>
-    <n v="2938"/>
-    <m/>
-    <m/>
+    <n v="2564"/>
+    <m/>
+    <n v="7193"/>
     <m/>
     <m/>
     <x v="4"/>
@@ -4582,8 +4857,8 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="182"/>
-    <n v="62"/>
+    <n v="176"/>
+    <n v="52"/>
     <n v="464"/>
     <n v="1929"/>
     <n v="8500"/>
@@ -4593,8 +4868,8 @@
   <r>
     <x v="1"/>
     <n v="232"/>
-    <n v="105"/>
-    <n v="168"/>
+    <n v="94"/>
+    <n v="157"/>
     <n v="3976"/>
     <n v="9722"/>
     <x v="5"/>
@@ -4623,8 +4898,8 @@
   <r>
     <x v="4"/>
     <n v="1933"/>
-    <n v="1068"/>
-    <n v="2315"/>
+    <n v="1012"/>
+    <n v="2271"/>
     <n v="19010"/>
     <n v="29012"/>
     <x v="5"/>
@@ -4633,7 +4908,7 @@
   <r>
     <x v="5"/>
     <n v="970"/>
-    <n v="1515"/>
+    <n v="1450"/>
     <n v="2687"/>
     <n v="42673"/>
     <n v="65443"/>
@@ -4643,8 +4918,8 @@
   <r>
     <x v="6"/>
     <n v="1767"/>
-    <n v="924"/>
-    <n v="2164"/>
+    <n v="879"/>
+    <n v="2105"/>
     <n v="18569"/>
     <n v="28668"/>
     <x v="5"/>
@@ -4652,9 +4927,9 @@
   </r>
   <r>
     <x v="7"/>
-    <n v="2218"/>
-    <n v="642"/>
-    <n v="886"/>
+    <n v="2169"/>
+    <n v="1004"/>
+    <n v="1404"/>
     <n v="14307"/>
     <n v="21756"/>
     <x v="5"/>
@@ -4662,8 +4937,8 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="654"/>
-    <n v="1157"/>
+    <n v="615"/>
+    <n v="1034"/>
     <n v="2154"/>
     <n v="26137"/>
     <n v="41396"/>
@@ -4683,7 +4958,7 @@
   <r>
     <x v="10"/>
     <n v="642"/>
-    <n v="1304"/>
+    <n v="1298"/>
     <n v="2011"/>
     <n v="34088"/>
     <n v="51141"/>
@@ -4694,22 +4969,22 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:G16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="16">
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
         <item x="2"/>
         <item x="3"/>
-        <item m="1" x="13"/>
+        <item m="1" x="14"/>
         <item x="6"/>
         <item x="10"/>
         <item x="4"/>
-        <item m="1" x="11"/>
+        <item m="1" x="12"/>
         <item x="7"/>
         <item x="5"/>
         <item x="8"/>
@@ -4724,13 +4999,13 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="13">
-        <item m="1" x="9"/>
+        <item m="1" x="8"/>
         <item m="1" x="7"/>
         <item x="0"/>
-        <item m="1" x="8"/>
+        <item m="1" x="6"/>
         <item m="1" x="11"/>
+        <item m="1" x="9"/>
         <item m="1" x="10"/>
-        <item m="1" x="6"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -5064,31 +5339,26 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" chartFormat="2">
-  <location ref="A3:K17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" chartFormat="2">
+  <location ref="A3:M17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="16">
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
         <item x="2"/>
         <item x="3"/>
-        <item m="1" x="13"/>
+        <item m="1" x="14"/>
         <item x="6"/>
         <item x="10"/>
         <item x="4"/>
-        <item m="1" x="11"/>
+        <item m="1" x="12"/>
         <item x="7"/>
         <item x="5"/>
         <item x="8"/>
@@ -5103,13 +5373,13 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="13">
-        <item m="1" x="9"/>
+        <item m="1" x="8"/>
         <item m="1" x="7"/>
         <item x="0"/>
-        <item m="1" x="8"/>
+        <item m="1" x="6"/>
         <item m="1" x="11"/>
+        <item m="1" x="9"/>
         <item m="1" x="10"/>
-        <item m="1" x="6"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -5124,7 +5394,7 @@
         <item x="3"/>
         <item x="0"/>
         <item m="1" x="6"/>
-        <item h="1" x="4"/>
+        <item x="4"/>
         <item x="1"/>
         <item x="5"/>
       </items>
@@ -5175,7 +5445,7 @@
     <field x="6"/>
     <field x="-2"/>
   </colFields>
-  <colItems count="10">
+  <colItems count="12">
     <i>
       <x v="2"/>
       <x/>
@@ -5192,6 +5462,13 @@
     </i>
     <i>
       <x v="8"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="9"/>
       <x/>
     </i>
     <i r="1" i="1">
@@ -5741,31 +6018,26 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:K17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="16">
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
         <item x="2"/>
         <item x="3"/>
-        <item m="1" x="13"/>
+        <item m="1" x="14"/>
         <item x="6"/>
         <item x="10"/>
         <item x="4"/>
-        <item m="1" x="11"/>
+        <item m="1" x="12"/>
         <item x="7"/>
         <item x="5"/>
         <item x="8"/>
@@ -5780,13 +6052,13 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="13">
-        <item m="1" x="9"/>
+        <item m="1" x="8"/>
         <item m="1" x="7"/>
         <item x="0"/>
-        <item m="1" x="8"/>
+        <item m="1" x="6"/>
         <item m="1" x="11"/>
+        <item m="1" x="9"/>
         <item m="1" x="10"/>
-        <item m="1" x="6"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -6384,11 +6656,6 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
 </pivotTableDefinition>
 </file>
 
@@ -6484,6 +6751,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6518,6 +6786,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6693,12 +6962,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
@@ -6709,7 +6978,7 @@
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -6735,7 +7004,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6755,7 +7024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6775,7 +7044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -6795,7 +7064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -6815,7 +7084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -6835,7 +7104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -6855,7 +7124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -6866,7 +7135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -6877,7 +7146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -6897,7 +7166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -6917,7 +7186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6937,7 +7206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -6963,7 +7232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -6989,7 +7258,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -7015,7 +7284,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -7041,7 +7310,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -7067,7 +7336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -7093,7 +7362,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -7119,7 +7388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7145,7 +7414,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -7171,7 +7440,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -7197,7 +7466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -7223,7 +7492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -7243,7 +7512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -7263,7 +7532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -7283,7 +7552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -7303,7 +7572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -7323,7 +7592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -7343,7 +7612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -7363,7 +7632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -7383,7 +7652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -7403,7 +7672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -7423,7 +7692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -7443,7 +7712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -7460,7 +7729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -7477,7 +7746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -7494,7 +7763,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -7511,7 +7780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -7528,7 +7797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -7545,7 +7814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -7556,7 +7825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -7567,7 +7836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -7584,7 +7853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -7601,7 +7870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -7618,12 +7887,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
       <c r="B46">
-        <v>2467</v>
+        <v>2429</v>
+      </c>
+      <c r="D46">
+        <v>2825</v>
       </c>
       <c r="G46" t="s">
         <v>30</v>
@@ -7632,12 +7904,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
       <c r="B47">
-        <v>1945</v>
+        <v>4052</v>
+      </c>
+      <c r="D47">
+        <v>2292</v>
       </c>
       <c r="G47" t="s">
         <v>30</v>
@@ -7646,12 +7921,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="B48">
-        <v>5251</v>
+        <v>9960</v>
+      </c>
+      <c r="D48">
+        <v>4520</v>
       </c>
       <c r="G48" t="s">
         <v>30</v>
@@ -7660,12 +7938,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
       <c r="B49">
-        <v>5589</v>
+        <v>7008</v>
+      </c>
+      <c r="D49">
+        <v>1487</v>
       </c>
       <c r="G49" t="s">
         <v>30</v>
@@ -7674,12 +7955,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
       <c r="B50">
-        <v>3620</v>
+        <v>3765</v>
+      </c>
+      <c r="D50">
+        <v>26165</v>
       </c>
       <c r="G50" t="s">
         <v>30</v>
@@ -7688,12 +7972,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>22</v>
       </c>
       <c r="B51">
-        <v>1397</v>
+        <v>1443</v>
+      </c>
+      <c r="D51">
+        <v>12218</v>
       </c>
       <c r="G51" t="s">
         <v>30</v>
@@ -7702,7 +7989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -7713,7 +8000,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -7724,12 +8011,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>23</v>
       </c>
       <c r="B54">
-        <v>1002</v>
+        <v>1039</v>
+      </c>
+      <c r="D54">
+        <v>7713</v>
       </c>
       <c r="G54" t="s">
         <v>30</v>
@@ -7738,12 +8028,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>24</v>
       </c>
       <c r="B55">
-        <v>1528</v>
+        <v>1215</v>
+      </c>
+      <c r="D55">
+        <v>14400</v>
       </c>
       <c r="G55" t="s">
         <v>30</v>
@@ -7752,12 +8045,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>11</v>
       </c>
       <c r="B56">
-        <v>2938</v>
+        <v>2564</v>
+      </c>
+      <c r="D56">
+        <v>7193</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>
@@ -7766,15 +8062,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C57">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D57">
         <v>464</v>
@@ -7792,7 +8088,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -7800,10 +8096,10 @@
         <v>232</v>
       </c>
       <c r="C58">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D58">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E58">
         <v>3976</v>
@@ -7818,7 +8114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -7844,7 +8140,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -7870,7 +8166,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -7878,10 +8174,10 @@
         <v>1933</v>
       </c>
       <c r="C61">
-        <v>1068</v>
+        <v>1012</v>
       </c>
       <c r="D61">
-        <v>2315</v>
+        <v>2271</v>
       </c>
       <c r="E61">
         <v>19010</v>
@@ -7896,7 +8192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -7904,7 +8200,7 @@
         <v>970</v>
       </c>
       <c r="C62">
-        <v>1515</v>
+        <v>1450</v>
       </c>
       <c r="D62">
         <v>2687</v>
@@ -7922,7 +8218,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -7930,10 +8226,10 @@
         <v>1767</v>
       </c>
       <c r="C63">
-        <v>924</v>
+        <v>879</v>
       </c>
       <c r="D63">
-        <v>2164</v>
+        <v>2105</v>
       </c>
       <c r="E63">
         <v>18569</v>
@@ -7948,18 +8244,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>17</v>
       </c>
       <c r="B64">
-        <v>2218</v>
+        <v>2169</v>
       </c>
       <c r="C64">
-        <v>642</v>
+        <v>1004</v>
       </c>
       <c r="D64">
-        <v>886</v>
+        <v>1404</v>
       </c>
       <c r="E64">
         <v>14307</v>
@@ -7974,15 +8270,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>23</v>
       </c>
       <c r="B65">
-        <v>654</v>
+        <v>615</v>
       </c>
       <c r="C65">
-        <v>1157</v>
+        <v>1034</v>
       </c>
       <c r="D65">
         <v>2154</v>
@@ -8000,7 +8296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -8026,7 +8322,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -8034,7 +8330,7 @@
         <v>642</v>
       </c>
       <c r="C67">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="D67">
         <v>2011</v>
@@ -8062,12 +8358,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
@@ -8095,7 +8393,7 @@
     <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -8103,7 +8401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -8111,7 +8409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -8134,7 +8432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -8148,16 +8446,16 @@
         <v>900</v>
       </c>
       <c r="E5" s="3">
-        <v>2467</v>
+        <v>2429</v>
       </c>
       <c r="F5" s="3">
         <v>123</v>
       </c>
       <c r="G5" s="3">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -8171,7 +8469,7 @@
         <v>796</v>
       </c>
       <c r="E6" s="3">
-        <v>1945</v>
+        <v>4052</v>
       </c>
       <c r="F6" s="3">
         <v>210</v>
@@ -8180,7 +8478,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -8194,7 +8492,7 @@
         <v>5148</v>
       </c>
       <c r="E7" s="3">
-        <v>5251</v>
+        <v>9960</v>
       </c>
       <c r="F7" s="3">
         <v>4632</v>
@@ -8203,7 +8501,7 @@
         <v>4640</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -8217,7 +8515,7 @@
         <v>5338</v>
       </c>
       <c r="E8" s="3">
-        <v>5589</v>
+        <v>7008</v>
       </c>
       <c r="F8" s="3">
         <v>4689</v>
@@ -8226,7 +8524,7 @@
         <v>4855</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -8243,7 +8541,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -8257,7 +8555,7 @@
         <v>1215</v>
       </c>
       <c r="E10" s="3">
-        <v>2938</v>
+        <v>2564</v>
       </c>
       <c r="F10" s="3">
         <v>402</v>
@@ -8266,7 +8564,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -8280,7 +8578,7 @@
         <v>1588</v>
       </c>
       <c r="E11" s="3">
-        <v>3620</v>
+        <v>3765</v>
       </c>
       <c r="F11" s="3">
         <v>1487</v>
@@ -8289,7 +8587,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -8303,10 +8601,10 @@
         <v>1064</v>
       </c>
       <c r="G12" s="3">
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -8320,7 +8618,7 @@
         <v>678</v>
       </c>
       <c r="E13" s="3">
-        <v>1397</v>
+        <v>1443</v>
       </c>
       <c r="F13" s="3">
         <v>712</v>
@@ -8329,7 +8627,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -8343,16 +8641,16 @@
         <v>692</v>
       </c>
       <c r="E14" s="3">
-        <v>1002</v>
+        <v>1039</v>
       </c>
       <c r="F14" s="3">
         <v>376</v>
       </c>
       <c r="G14" s="3">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -8366,7 +8664,7 @@
         <v>796</v>
       </c>
       <c r="E15" s="3">
-        <v>1528</v>
+        <v>1215</v>
       </c>
       <c r="F15" s="3">
         <v>509</v>
@@ -8375,7 +8673,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -8389,13 +8687,13 @@
         <v>17151</v>
       </c>
       <c r="E16" s="3">
-        <v>25737</v>
+        <v>33475</v>
       </c>
       <c r="F16" s="3">
         <v>16187</v>
       </c>
       <c r="G16" s="3">
-        <v>18959</v>
+        <v>18865</v>
       </c>
     </row>
   </sheetData>
@@ -8405,25 +8703,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
@@ -8441,20 +8739,20 @@
     <col min="25" max="25" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -8465,13 +8763,16 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -8505,8 +8806,14 @@
       <c r="K5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -8522,20 +8829,24 @@
       <c r="G6" s="3">
         <v>580</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <v>2825</v>
+      </c>
+      <c r="J6" s="3">
         <v>52</v>
       </c>
-      <c r="I6" s="3">
+      <c r="K6" s="3">
         <v>201</v>
       </c>
-      <c r="J6" s="3">
-        <v>62</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
+        <v>52</v>
+      </c>
+      <c r="M6" s="3">
         <v>464</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -8551,20 +8862,24 @@
       <c r="G7" s="3">
         <v>738</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <v>2292</v>
+      </c>
+      <c r="J7" s="3">
         <v>65</v>
       </c>
-      <c r="I7" s="3">
+      <c r="K7" s="3">
         <v>95</v>
       </c>
-      <c r="J7" s="3">
-        <v>105</v>
-      </c>
-      <c r="K7" s="3">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="3">
+        <v>94</v>
+      </c>
+      <c r="M7" s="3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -8580,20 +8895,24 @@
       <c r="G8" s="3">
         <v>988</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>4520</v>
+      </c>
+      <c r="J8" s="3">
         <v>452</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>964</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>531</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1125</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -8609,20 +8928,24 @@
       <c r="G9" s="3">
         <v>1249</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
+        <v>1487</v>
+      </c>
+      <c r="J9" s="3">
         <v>422</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>849</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>545</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1120</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -8634,20 +8957,22 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
         <v>991</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2062</v>
       </c>
-      <c r="J10" s="3">
-        <v>924</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="3">
+        <v>879</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -8663,20 +8988,24 @@
       <c r="G11" s="3">
         <v>4055</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <v>7193</v>
+      </c>
+      <c r="J11" s="3">
         <v>995</v>
       </c>
-      <c r="I11" s="3">
+      <c r="K11" s="3">
         <v>1708</v>
       </c>
-      <c r="J11" s="3">
-        <v>1304</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
+        <v>1298</v>
+      </c>
+      <c r="M11" s="3">
         <v>2011</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -8692,20 +9021,24 @@
       <c r="G12" s="3">
         <v>2385</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
+        <v>26165</v>
+      </c>
+      <c r="J12" s="3">
         <v>769</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1944</v>
       </c>
-      <c r="J12" s="3">
-        <v>1068</v>
-      </c>
-      <c r="K12" s="3">
-        <v>2315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="3">
+        <v>1012</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -8717,20 +9050,22 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
         <v>1325</v>
       </c>
-      <c r="I13" s="3">
+      <c r="K13" s="3">
         <v>1693</v>
       </c>
-      <c r="J13" s="3">
-        <v>642</v>
-      </c>
-      <c r="K13" s="3">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="3">
+        <v>1004</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -8746,20 +9081,24 @@
       <c r="G14" s="3">
         <v>3602</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
+        <v>12218</v>
+      </c>
+      <c r="J14" s="3">
         <v>1469</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>2597</v>
       </c>
-      <c r="J14" s="3">
-        <v>1515</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>1450</v>
+      </c>
+      <c r="M14" s="3">
         <v>2687</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -8775,20 +9114,24 @@
       <c r="G15" s="3">
         <v>2479</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
+        <v>7713</v>
+      </c>
+      <c r="J15" s="3">
         <v>957</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>1723</v>
       </c>
-      <c r="J15" s="3">
-        <v>1157</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
+        <v>1034</v>
+      </c>
+      <c r="M15" s="3">
         <v>2154</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -8804,20 +9147,24 @@
       <c r="G16" s="3">
         <v>2304</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
+        <v>14400</v>
+      </c>
+      <c r="J16" s="3">
         <v>750</v>
       </c>
-      <c r="I16" s="3">
+      <c r="K16" s="3">
         <v>982</v>
       </c>
-      <c r="J16" s="3">
+      <c r="L16" s="3">
         <v>1139</v>
       </c>
-      <c r="K16" s="3">
+      <c r="M16" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -8833,17 +9180,21 @@
       <c r="G17" s="3">
         <v>18380</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <v>78813</v>
+      </c>
+      <c r="J17" s="3">
         <v>8247</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>14818</v>
       </c>
-      <c r="J17" s="3">
-        <v>8992</v>
-      </c>
-      <c r="K17" s="3">
-        <v>17117</v>
+      <c r="L17" s="3">
+        <v>9038</v>
+      </c>
+      <c r="M17" s="3">
+        <v>17521</v>
       </c>
     </row>
   </sheetData>
@@ -8854,14 +9205,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
@@ -8890,7 +9241,7 @@
     <col min="25" max="25" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -8898,12 +9249,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -8923,7 +9274,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -8952,7 +9303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -8983,7 +9334,7 @@
         <v>144593</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -9014,7 +9365,7 @@
         <v>93351</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -9045,7 +9396,7 @@
         <v>38484</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -9076,7 +9427,7 @@
         <v>24448</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -9105,7 +9456,7 @@
         <v>353725</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -9136,7 +9487,7 @@
         <v>558852</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -9167,7 +9518,7 @@
         <v>385094</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -9196,7 +9547,7 @@
         <v>243355</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -9227,7 +9578,7 @@
         <v>870032</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -9258,7 +9609,7 @@
         <v>734167</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -9289,7 +9640,7 @@
         <v>188283</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="19155" windowHeight="7485" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="19155" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -641,25 +641,25 @@
                   <c:v>796</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5148</c:v>
+                  <c:v>4593</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5338</c:v>
+                  <c:v>4622</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1215</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1588</c:v>
+                  <c:v>767</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>678</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>692</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>796</c:v>
+                  <c:v>428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -852,7 +852,7 @@
                   <c:v>1487</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1064</c:v>
+                  <c:v>988</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>712</c:v>
@@ -861,7 +861,7 @@
                   <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>509</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,34 +935,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>176</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>232</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4640</c:v>
+                  <c:v>4636</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4855</c:v>
+                  <c:v>4798</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1767</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>642</c:v>
+                  <c:v>602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1933</c:v>
+                  <c:v>1753</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2169</c:v>
+                  <c:v>2074</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>970</c:v>
+                  <c:v>878</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>615</c:v>
+                  <c:v>599</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>866</c:v>
@@ -980,11 +980,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="106368000"/>
-        <c:axId val="106386176"/>
+        <c:axId val="48551808"/>
+        <c:axId val="48553344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106368000"/>
+        <c:axId val="48551808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,7 +993,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106386176"/>
+        <c:crossAx val="48553344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1001,7 +1001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106386176"/>
+        <c:axId val="48553344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8000"/>
@@ -1033,7 +1033,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106368000"/>
+        <c:crossAx val="48551808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1991,25 +1991,25 @@
                   <c:v>738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>988</c:v>
+                  <c:v>856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1249</c:v>
+                  <c:v>894</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4055</c:v>
+                  <c:v>1753</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2385</c:v>
+                  <c:v>2187</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3602</c:v>
+                  <c:v>1943</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2479</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2304</c:v>
+                  <c:v>1033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2262,22 +2262,22 @@
                   <c:v>991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>995</c:v>
+                  <c:v>994</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>769</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1325</c:v>
+                  <c:v>1236</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1469</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>957</c:v>
+                  <c:v>915</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>750</c:v>
+                  <c:v>672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2375,7 +2375,7 @@
                   <c:v>1944</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1693</c:v>
+                  <c:v>1673</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2597</c:v>
@@ -2384,7 +2384,7 @@
                   <c:v>1723</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>982</c:v>
+                  <c:v>917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2461,28 +2461,28 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>531</c:v>
+                  <c:v>527</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>879</c:v>
+                  <c:v>876</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1298</c:v>
+                  <c:v>1188</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1012</c:v>
+                  <c:v>964</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1004</c:v>
+                  <c:v>975</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1450</c:v>
+                  <c:v>1289</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1034</c:v>
@@ -2565,10 +2565,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>464</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>157</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1125</c:v>
@@ -2577,25 +2577,25 @@
                   <c:v>1120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2105</c:v>
+                  <c:v>2188</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2011</c:v>
+                  <c:v>1923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2271</c:v>
+                  <c:v>2255</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1404</c:v>
+                  <c:v>1401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2687</c:v>
+                  <c:v>2560</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2154</c:v>
+                  <c:v>2096</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2023</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2610,11 +2610,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="106885504"/>
-        <c:axId val="106887040"/>
+        <c:axId val="48585728"/>
+        <c:axId val="48599808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106885504"/>
+        <c:axId val="48585728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2623,7 +2623,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106887040"/>
+        <c:crossAx val="48599808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2631,7 +2631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106887040"/>
+        <c:axId val="48599808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -2663,7 +2663,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106885504"/>
+        <c:crossAx val="48585728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2735,6 +2735,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3697,10 +3698,10 @@
                   <c:v>37437</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31446</c:v>
+                  <c:v>23711</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9549</c:v>
+                  <c:v>7274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3786,7 +3787,7 @@
                   <c:v>3213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3597</c:v>
+                  <c:v>3499</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>26094</c:v>
@@ -3804,10 +3805,10 @@
                   <c:v>57687</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48448</c:v>
+                  <c:v>36165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15803</c:v>
+                  <c:v>10745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4033,11 +4034,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="106902656"/>
-        <c:axId val="106904192"/>
+        <c:axId val="49217536"/>
+        <c:axId val="49219072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106902656"/>
+        <c:axId val="49217536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4046,7 +4047,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106904192"/>
+        <c:crossAx val="49219072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4054,7 +4055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106904192"/>
+        <c:axId val="49219072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150000"/>
@@ -4079,13 +4080,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106902656"/>
+        <c:crossAx val="49217536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4228,7 +4230,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Rikard Pavelic" refreshedDate="42236.096996412038" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="66">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Rikard Pavelic" refreshedDate="42261.640310995368" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="66">
   <cacheSource type="worksheet">
     <worksheetSource name="Table3"/>
   </cacheSource>
@@ -4451,7 +4453,7 @@
     <n v="422"/>
     <n v="849"/>
     <n v="652"/>
-    <n v="3597"/>
+    <n v="3499"/>
     <x v="1"/>
     <x v="1"/>
   </r>
@@ -4487,9 +4489,9 @@
   </r>
   <r>
     <x v="7"/>
-    <n v="1064"/>
-    <n v="1325"/>
-    <n v="1693"/>
+    <n v="988"/>
+    <n v="1236"/>
+    <n v="1673"/>
     <n v="12877"/>
     <n v="19017"/>
     <x v="1"/>
@@ -4498,27 +4500,27 @@
   <r>
     <x v="8"/>
     <n v="376"/>
-    <n v="957"/>
+    <n v="915"/>
     <n v="1723"/>
-    <n v="31446"/>
-    <n v="48448"/>
+    <n v="23711"/>
+    <n v="36165"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <n v="509"/>
-    <n v="750"/>
-    <n v="982"/>
-    <n v="9549"/>
-    <n v="15803"/>
+    <n v="475"/>
+    <n v="672"/>
+    <n v="917"/>
+    <n v="7274"/>
+    <n v="10745"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <x v="10"/>
     <n v="402"/>
-    <n v="995"/>
+    <n v="994"/>
     <n v="1708"/>
     <n v="32380"/>
     <n v="44228"/>
@@ -4657,9 +4659,9 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="5148"/>
-    <m/>
-    <n v="988"/>
+    <n v="4593"/>
+    <m/>
+    <n v="856"/>
     <m/>
     <m/>
     <x v="3"/>
@@ -4667,9 +4669,9 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="5338"/>
-    <m/>
-    <n v="1249"/>
+    <n v="4622"/>
+    <m/>
+    <n v="894"/>
     <m/>
     <m/>
     <x v="3"/>
@@ -4677,9 +4679,9 @@
   </r>
   <r>
     <x v="4"/>
-    <n v="1588"/>
-    <m/>
-    <n v="2385"/>
+    <n v="767"/>
+    <m/>
+    <n v="2187"/>
     <m/>
     <m/>
     <x v="3"/>
@@ -4687,9 +4689,9 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="678"/>
-    <m/>
-    <n v="3602"/>
+    <n v="556"/>
+    <m/>
+    <n v="1943"/>
     <m/>
     <m/>
     <x v="3"/>
@@ -4717,9 +4719,9 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="692"/>
-    <m/>
-    <n v="2479"/>
+    <n v="463"/>
+    <m/>
+    <n v="1600"/>
     <m/>
     <m/>
     <x v="3"/>
@@ -4727,9 +4729,9 @@
   </r>
   <r>
     <x v="9"/>
-    <n v="796"/>
-    <m/>
-    <n v="2304"/>
+    <n v="428"/>
+    <m/>
+    <n v="1033"/>
     <m/>
     <m/>
     <x v="3"/>
@@ -4737,9 +4739,9 @@
   </r>
   <r>
     <x v="10"/>
-    <n v="1215"/>
-    <m/>
-    <n v="4055"/>
+    <n v="645"/>
+    <m/>
+    <n v="1753"/>
     <m/>
     <m/>
     <x v="3"/>
@@ -4857,9 +4859,9 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="176"/>
+    <n v="146"/>
     <n v="52"/>
-    <n v="464"/>
+    <n v="272"/>
     <n v="1929"/>
     <n v="8500"/>
     <x v="5"/>
@@ -4867,9 +4869,9 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="232"/>
-    <n v="94"/>
-    <n v="157"/>
+    <n v="224"/>
+    <n v="86"/>
+    <n v="148"/>
     <n v="3976"/>
     <n v="9722"/>
     <x v="5"/>
@@ -4877,8 +4879,8 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="4640"/>
-    <n v="531"/>
+    <n v="4636"/>
+    <n v="527"/>
     <n v="1125"/>
     <n v="515"/>
     <n v="3944"/>
@@ -4887,7 +4889,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="4855"/>
+    <n v="4798"/>
     <n v="545"/>
     <n v="1120"/>
     <n v="808"/>
@@ -4897,9 +4899,9 @@
   </r>
   <r>
     <x v="4"/>
-    <n v="1933"/>
-    <n v="1012"/>
-    <n v="2271"/>
+    <n v="1753"/>
+    <n v="964"/>
+    <n v="2255"/>
     <n v="19010"/>
     <n v="29012"/>
     <x v="5"/>
@@ -4907,9 +4909,9 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="970"/>
-    <n v="1450"/>
-    <n v="2687"/>
+    <n v="878"/>
+    <n v="1289"/>
+    <n v="2560"/>
     <n v="42673"/>
     <n v="65443"/>
     <x v="5"/>
@@ -4918,8 +4920,8 @@
   <r>
     <x v="6"/>
     <n v="1767"/>
-    <n v="879"/>
-    <n v="2105"/>
+    <n v="876"/>
+    <n v="2188"/>
     <n v="18569"/>
     <n v="28668"/>
     <x v="5"/>
@@ -4927,9 +4929,9 @@
   </r>
   <r>
     <x v="7"/>
-    <n v="2169"/>
-    <n v="1004"/>
-    <n v="1404"/>
+    <n v="2074"/>
+    <n v="975"/>
+    <n v="1401"/>
     <n v="14307"/>
     <n v="21756"/>
     <x v="5"/>
@@ -4937,9 +4939,9 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="615"/>
+    <n v="599"/>
     <n v="1034"/>
-    <n v="2154"/>
+    <n v="2096"/>
     <n v="26137"/>
     <n v="41396"/>
     <x v="5"/>
@@ -4949,7 +4951,7 @@
     <x v="9"/>
     <n v="866"/>
     <n v="1139"/>
-    <n v="2023"/>
+    <n v="2017"/>
     <n v="7537"/>
     <n v="12818"/>
     <x v="5"/>
@@ -4957,9 +4959,9 @@
   </r>
   <r>
     <x v="10"/>
-    <n v="642"/>
-    <n v="1298"/>
-    <n v="2011"/>
+    <n v="602"/>
+    <n v="1188"/>
+    <n v="1923"/>
     <n v="34088"/>
     <n v="51141"/>
     <x v="5"/>
@@ -6965,7 +6967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7301,7 +7305,7 @@
         <v>652</v>
       </c>
       <c r="F16">
-        <v>3597</v>
+        <v>3499</v>
       </c>
       <c r="G16" t="s">
         <v>31</v>
@@ -7393,13 +7397,13 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>1064</v>
+        <v>988</v>
       </c>
       <c r="C20">
-        <v>1325</v>
+        <v>1236</v>
       </c>
       <c r="D20">
-        <v>1693</v>
+        <v>1673</v>
       </c>
       <c r="E20">
         <v>12877</v>
@@ -7422,16 +7426,16 @@
         <v>376</v>
       </c>
       <c r="C21">
-        <v>957</v>
+        <v>915</v>
       </c>
       <c r="D21">
         <v>1723</v>
       </c>
       <c r="E21">
-        <v>31446</v>
+        <v>23711</v>
       </c>
       <c r="F21">
-        <v>48448</v>
+        <v>36165</v>
       </c>
       <c r="G21" t="s">
         <v>31</v>
@@ -7445,19 +7449,19 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="C22">
-        <v>750</v>
+        <v>672</v>
       </c>
       <c r="D22">
-        <v>982</v>
+        <v>917</v>
       </c>
       <c r="E22">
-        <v>9549</v>
+        <v>7274</v>
       </c>
       <c r="F22">
-        <v>15803</v>
+        <v>10745</v>
       </c>
       <c r="G22" t="s">
         <v>31</v>
@@ -7474,7 +7478,7 @@
         <v>402</v>
       </c>
       <c r="C23">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D23">
         <v>1708</v>
@@ -7751,10 +7755,10 @@
         <v>7</v>
       </c>
       <c r="B37">
-        <v>5148</v>
+        <v>4593</v>
       </c>
       <c r="D37">
-        <v>988</v>
+        <v>856</v>
       </c>
       <c r="G37" t="s">
         <v>27</v>
@@ -7768,10 +7772,10 @@
         <v>8</v>
       </c>
       <c r="B38">
-        <v>5338</v>
+        <v>4622</v>
       </c>
       <c r="D38">
-        <v>1249</v>
+        <v>894</v>
       </c>
       <c r="G38" t="s">
         <v>27</v>
@@ -7785,10 +7789,10 @@
         <v>9</v>
       </c>
       <c r="B39">
-        <v>1588</v>
+        <v>767</v>
       </c>
       <c r="D39">
-        <v>2385</v>
+        <v>2187</v>
       </c>
       <c r="G39" t="s">
         <v>27</v>
@@ -7802,10 +7806,10 @@
         <v>22</v>
       </c>
       <c r="B40">
-        <v>678</v>
+        <v>556</v>
       </c>
       <c r="D40">
-        <v>3602</v>
+        <v>1943</v>
       </c>
       <c r="G40" t="s">
         <v>27</v>
@@ -7841,10 +7845,10 @@
         <v>23</v>
       </c>
       <c r="B43">
-        <v>692</v>
+        <v>463</v>
       </c>
       <c r="D43">
-        <v>2479</v>
+        <v>1600</v>
       </c>
       <c r="G43" t="s">
         <v>27</v>
@@ -7858,10 +7862,10 @@
         <v>24</v>
       </c>
       <c r="B44">
-        <v>796</v>
+        <v>428</v>
       </c>
       <c r="D44">
-        <v>2304</v>
+        <v>1033</v>
       </c>
       <c r="G44" t="s">
         <v>27</v>
@@ -7875,10 +7879,10 @@
         <v>11</v>
       </c>
       <c r="B45">
-        <v>1215</v>
+        <v>645</v>
       </c>
       <c r="D45">
-        <v>4055</v>
+        <v>1753</v>
       </c>
       <c r="G45" t="s">
         <v>27</v>
@@ -8067,13 +8071,13 @@
         <v>5</v>
       </c>
       <c r="B57">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="C57">
         <v>52</v>
       </c>
       <c r="D57">
-        <v>464</v>
+        <v>272</v>
       </c>
       <c r="E57">
         <v>1929</v>
@@ -8093,13 +8097,13 @@
         <v>6</v>
       </c>
       <c r="B58">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C58">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D58">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E58">
         <v>3976</v>
@@ -8119,10 +8123,10 @@
         <v>7</v>
       </c>
       <c r="B59">
-        <v>4640</v>
+        <v>4636</v>
       </c>
       <c r="C59">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D59">
         <v>1125</v>
@@ -8145,7 +8149,7 @@
         <v>8</v>
       </c>
       <c r="B60">
-        <v>4855</v>
+        <v>4798</v>
       </c>
       <c r="C60">
         <v>545</v>
@@ -8171,13 +8175,13 @@
         <v>9</v>
       </c>
       <c r="B61">
-        <v>1933</v>
+        <v>1753</v>
       </c>
       <c r="C61">
-        <v>1012</v>
+        <v>964</v>
       </c>
       <c r="D61">
-        <v>2271</v>
+        <v>2255</v>
       </c>
       <c r="E61">
         <v>19010</v>
@@ -8197,13 +8201,13 @@
         <v>22</v>
       </c>
       <c r="B62">
-        <v>970</v>
+        <v>878</v>
       </c>
       <c r="C62">
-        <v>1450</v>
+        <v>1289</v>
       </c>
       <c r="D62">
-        <v>2687</v>
+        <v>2560</v>
       </c>
       <c r="E62">
         <v>42673</v>
@@ -8226,10 +8230,10 @@
         <v>1767</v>
       </c>
       <c r="C63">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D63">
-        <v>2105</v>
+        <v>2188</v>
       </c>
       <c r="E63">
         <v>18569</v>
@@ -8249,13 +8253,13 @@
         <v>17</v>
       </c>
       <c r="B64">
-        <v>2169</v>
+        <v>2074</v>
       </c>
       <c r="C64">
-        <v>1004</v>
+        <v>975</v>
       </c>
       <c r="D64">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="E64">
         <v>14307</v>
@@ -8275,13 +8279,13 @@
         <v>23</v>
       </c>
       <c r="B65">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C65">
         <v>1034</v>
       </c>
       <c r="D65">
-        <v>2154</v>
+        <v>2096</v>
       </c>
       <c r="E65">
         <v>26137</v>
@@ -8307,7 +8311,7 @@
         <v>1139</v>
       </c>
       <c r="D66">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="E66">
         <v>7537</v>
@@ -8327,13 +8331,13 @@
         <v>11</v>
       </c>
       <c r="B67">
-        <v>642</v>
+        <v>602</v>
       </c>
       <c r="C67">
-        <v>1298</v>
+        <v>1188</v>
       </c>
       <c r="D67">
-        <v>2011</v>
+        <v>1923</v>
       </c>
       <c r="E67">
         <v>34088</v>
@@ -8361,8 +8365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8452,7 +8456,7 @@
         <v>123</v>
       </c>
       <c r="G5" s="3">
-        <v>176</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -8475,7 +8479,7 @@
         <v>210</v>
       </c>
       <c r="G6" s="3">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -8489,7 +8493,7 @@
         <v>12331</v>
       </c>
       <c r="D7" s="3">
-        <v>5148</v>
+        <v>4593</v>
       </c>
       <c r="E7" s="3">
         <v>9960</v>
@@ -8498,7 +8502,7 @@
         <v>4632</v>
       </c>
       <c r="G7" s="3">
-        <v>4640</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8512,7 +8516,7 @@
         <v>13345</v>
       </c>
       <c r="D8" s="3">
-        <v>5338</v>
+        <v>4622</v>
       </c>
       <c r="E8" s="3">
         <v>7008</v>
@@ -8521,7 +8525,7 @@
         <v>4689</v>
       </c>
       <c r="G8" s="3">
-        <v>4855</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -8552,7 +8556,7 @@
         <v>17136</v>
       </c>
       <c r="D10" s="3">
-        <v>1215</v>
+        <v>645</v>
       </c>
       <c r="E10" s="3">
         <v>2564</v>
@@ -8561,7 +8565,7 @@
         <v>402</v>
       </c>
       <c r="G10" s="3">
-        <v>642</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -8575,7 +8579,7 @@
         <v>2288</v>
       </c>
       <c r="D11" s="3">
-        <v>1588</v>
+        <v>767</v>
       </c>
       <c r="E11" s="3">
         <v>3765</v>
@@ -8584,7 +8588,7 @@
         <v>1487</v>
       </c>
       <c r="G11" s="3">
-        <v>1933</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -8598,10 +8602,10 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
-        <v>1064</v>
+        <v>988</v>
       </c>
       <c r="G12" s="3">
-        <v>2169</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -8615,7 +8619,7 @@
         <v>2721</v>
       </c>
       <c r="D13" s="3">
-        <v>678</v>
+        <v>556</v>
       </c>
       <c r="E13" s="3">
         <v>1443</v>
@@ -8624,7 +8628,7 @@
         <v>712</v>
       </c>
       <c r="G13" s="3">
-        <v>970</v>
+        <v>878</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -8638,7 +8642,7 @@
         <v>4968</v>
       </c>
       <c r="D14" s="3">
-        <v>692</v>
+        <v>463</v>
       </c>
       <c r="E14" s="3">
         <v>1039</v>
@@ -8647,7 +8651,7 @@
         <v>376</v>
       </c>
       <c r="G14" s="3">
-        <v>615</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -8661,13 +8665,13 @@
         <v>9384</v>
       </c>
       <c r="D15" s="3">
-        <v>796</v>
+        <v>428</v>
       </c>
       <c r="E15" s="3">
         <v>1215</v>
       </c>
       <c r="F15" s="3">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="G15" s="3">
         <v>866</v>
@@ -8684,16 +8688,16 @@
         <v>71572</v>
       </c>
       <c r="D16" s="3">
-        <v>17151</v>
+        <v>13770</v>
       </c>
       <c r="E16" s="3">
         <v>33475</v>
       </c>
       <c r="F16" s="3">
-        <v>16187</v>
+        <v>16077</v>
       </c>
       <c r="G16" s="3">
-        <v>18865</v>
+        <v>18343</v>
       </c>
     </row>
   </sheetData>
@@ -8706,8 +8710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8843,7 +8847,7 @@
         <v>52</v>
       </c>
       <c r="M6" s="3">
-        <v>464</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -8873,10 +8877,10 @@
         <v>95</v>
       </c>
       <c r="L7" s="3">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M7" s="3">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -8893,7 +8897,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3">
-        <v>988</v>
+        <v>856</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3">
@@ -8906,7 +8910,7 @@
         <v>964</v>
       </c>
       <c r="L8" s="3">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="M8" s="3">
         <v>1125</v>
@@ -8926,7 +8930,7 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3">
-        <v>1249</v>
+        <v>894</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3">
@@ -8966,10 +8970,10 @@
         <v>2062</v>
       </c>
       <c r="L10" s="3">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="M10" s="3">
-        <v>2105</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -8986,23 +8990,23 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3">
-        <v>4055</v>
+        <v>1753</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3">
         <v>7193</v>
       </c>
       <c r="J11" s="3">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="K11" s="3">
         <v>1708</v>
       </c>
       <c r="L11" s="3">
-        <v>1298</v>
+        <v>1188</v>
       </c>
       <c r="M11" s="3">
-        <v>2011</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -9019,7 +9023,7 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
-        <v>2385</v>
+        <v>2187</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3">
@@ -9032,10 +9036,10 @@
         <v>1944</v>
       </c>
       <c r="L12" s="3">
-        <v>1012</v>
+        <v>964</v>
       </c>
       <c r="M12" s="3">
-        <v>2271</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -9053,16 +9057,16 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3">
-        <v>1325</v>
+        <v>1236</v>
       </c>
       <c r="K13" s="3">
-        <v>1693</v>
+        <v>1673</v>
       </c>
       <c r="L13" s="3">
-        <v>1004</v>
+        <v>975</v>
       </c>
       <c r="M13" s="3">
-        <v>1404</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -9079,7 +9083,7 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
-        <v>3602</v>
+        <v>1943</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3">
@@ -9092,10 +9096,10 @@
         <v>2597</v>
       </c>
       <c r="L14" s="3">
-        <v>1450</v>
+        <v>1289</v>
       </c>
       <c r="M14" s="3">
-        <v>2687</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -9112,14 +9116,14 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
-        <v>2479</v>
+        <v>1600</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3">
         <v>7713</v>
       </c>
       <c r="J15" s="3">
-        <v>957</v>
+        <v>915</v>
       </c>
       <c r="K15" s="3">
         <v>1723</v>
@@ -9128,7 +9132,7 @@
         <v>1034</v>
       </c>
       <c r="M15" s="3">
-        <v>2154</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -9145,23 +9149,23 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3">
-        <v>2304</v>
+        <v>1033</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3">
         <v>14400</v>
       </c>
       <c r="J16" s="3">
-        <v>750</v>
+        <v>672</v>
       </c>
       <c r="K16" s="3">
-        <v>982</v>
+        <v>917</v>
       </c>
       <c r="L16" s="3">
         <v>1139</v>
       </c>
       <c r="M16" s="3">
-        <v>2023</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -9178,23 +9182,23 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3">
-        <v>18380</v>
+        <v>11584</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3">
         <v>78813</v>
       </c>
       <c r="J17" s="3">
-        <v>8247</v>
+        <v>8037</v>
       </c>
       <c r="K17" s="3">
-        <v>14818</v>
+        <v>14733</v>
       </c>
       <c r="L17" s="3">
-        <v>9038</v>
+        <v>8675</v>
       </c>
       <c r="M17" s="3">
-        <v>17521</v>
+        <v>17105</v>
       </c>
     </row>
   </sheetData>
@@ -9208,8 +9212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9412,7 +9416,7 @@
         <v>652</v>
       </c>
       <c r="G9" s="3">
-        <v>3597</v>
+        <v>3499</v>
       </c>
       <c r="H9" s="3">
         <v>808</v>
@@ -9424,7 +9428,7 @@
         <v>1460</v>
       </c>
       <c r="K9" s="3">
-        <v>24448</v>
+        <v>24350</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -9591,10 +9595,10 @@
         <v>563322</v>
       </c>
       <c r="F15" s="3">
-        <v>31446</v>
+        <v>23711</v>
       </c>
       <c r="G15" s="3">
-        <v>48448</v>
+        <v>36165</v>
       </c>
       <c r="H15" s="3">
         <v>26137</v>
@@ -9603,10 +9607,10 @@
         <v>41396</v>
       </c>
       <c r="J15" s="3">
-        <v>57583</v>
+        <v>49848</v>
       </c>
       <c r="K15" s="3">
-        <v>734167</v>
+        <v>721884</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -9622,10 +9626,10 @@
         <v>141763</v>
       </c>
       <c r="F16" s="3">
-        <v>9549</v>
+        <v>7274</v>
       </c>
       <c r="G16" s="3">
-        <v>15803</v>
+        <v>10745</v>
       </c>
       <c r="H16" s="3">
         <v>7537</v>
@@ -9634,10 +9638,10 @@
         <v>12818</v>
       </c>
       <c r="J16" s="3">
-        <v>17086</v>
+        <v>14811</v>
       </c>
       <c r="K16" s="3">
-        <v>188283</v>
+        <v>183225</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -9653,10 +9657,10 @@
         <v>2691804</v>
       </c>
       <c r="F17" s="3">
-        <v>163275</v>
+        <v>153265</v>
       </c>
       <c r="G17" s="3">
-        <v>251380</v>
+        <v>233941</v>
       </c>
       <c r="H17" s="3">
         <v>169549</v>
@@ -9665,10 +9669,10 @@
         <v>275473</v>
       </c>
       <c r="J17" s="3">
-        <v>332824</v>
+        <v>322814</v>
       </c>
       <c r="K17" s="3">
-        <v>3634384</v>
+        <v>3616945</v>
       </c>
     </row>
   </sheetData>
